--- a/Work_files/Payments_AS.xlsx
+++ b/Work_files/Payments_AS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shinemet\Ironhack\Projects\Project6\Work_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26505879-1AB8-41B0-BAE2-1CF43C74B5DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7D6654-9E5A-4225-BC91-53F902E791FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC262E73-C69C-4C2A-8A9A-BDDEF9F428A1}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="85">
   <si>
     <t>Debtor</t>
   </si>
@@ -86,18 +86,12 @@
     <t>CHASUS3AXXX</t>
   </si>
   <si>
-    <t>0.02</t>
-  </si>
-  <si>
     <t>NEW</t>
   </si>
   <si>
     <t>BINAADADXXX</t>
   </si>
   <si>
-    <t>0.015</t>
-  </si>
-  <si>
     <t>COMPLETED</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>REFTEST01</t>
   </si>
   <si>
-    <t>0.01</t>
-  </si>
-  <si>
     <t>PENDING</t>
   </si>
   <si>
@@ -137,9 +128,6 @@
     <t>REF21</t>
   </si>
   <si>
-    <t>0.03</t>
-  </si>
-  <si>
     <t>DELIVERED</t>
   </si>
   <si>
@@ -158,9 +146,6 @@
     <t>PROCESSING</t>
   </si>
   <si>
-    <t>0.08</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALT-2 INC </t>
   </si>
   <si>
@@ -260,9 +245,6 @@
     <t>REFDEMO901</t>
   </si>
   <si>
-    <t>0.04</t>
-  </si>
-  <si>
     <t xml:space="preserve">QUATRO INC </t>
   </si>
   <si>
@@ -279,9 +261,6 @@
   </si>
   <si>
     <t>REFDEM1591</t>
-  </si>
-  <si>
-    <t>0.07</t>
   </si>
   <si>
     <t xml:space="preserve">TRADE INC </t>
@@ -389,7 +368,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anna Shin" refreshedDate="44582.488294097224" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{47447239-272C-45B4-A039-49C358DF5AD3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anna Shin" refreshedDate="44582.498227199074" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{47447239-272C-45B4-A039-49C358DF5AD3}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K91" sheet="DATA"/>
   </cacheSource>
@@ -501,10 +480,10 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Charges" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.01" maxValue="0.08"/>
     </cacheField>
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsMixedTypes="1" minDate="2020-11-20T00:00:00" maxDate="2022-01-12T00:00:00" count="67">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-11-20T00:00:00" maxDate="2022-01-12T00:00:00" count="49">
         <d v="2021-10-05T00:00:00"/>
         <d v="2021-10-07T00:00:00"/>
         <d v="2022-01-11T00:00:00"/>
@@ -554,24 +533,6 @@
         <d v="2021-12-19T00:00:00"/>
         <d v="2021-12-20T00:00:00"/>
         <d v="2021-03-23T00:00:00"/>
-        <s v="02-mars-21" u="1"/>
-        <s v="20-nov-20" u="1"/>
-        <s v="07-Feb-2021" u="1"/>
-        <s v="13-janv-21" u="1"/>
-        <s v="28-janv-21" u="1"/>
-        <s v="15-janv-21" u="1"/>
-        <s v="23-mars-21" u="1"/>
-        <s v="26-Feb-2021" u="1"/>
-        <s v="01-mars-21" u="1"/>
-        <s v="21-nov-20" u="1"/>
-        <s v="21-janv-21" u="1"/>
-        <s v="08-Feb-2021" u="1"/>
-        <s v="27-nov-20" u="1"/>
-        <s v="10-janv-22" u="1"/>
-        <s v="14-janv-21" u="1"/>
-        <s v="21-Feb-2021" u="1"/>
-        <s v="22-mars-21" u="1"/>
-        <s v="05-janv-21" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Time (local)" numFmtId="164">
@@ -606,7 +567,7 @@
     <x v="0"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="0"/>
     <d v="1899-12-30T12:43:00"/>
     <x v="0"/>
@@ -619,7 +580,7 @@
     <x v="0"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="0"/>
     <d v="1899-12-30T14:32:00"/>
     <x v="1"/>
@@ -632,7 +593,7 @@
     <x v="0"/>
     <s v="EUR"/>
     <s v="BINAADADXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="1"/>
     <d v="1899-12-30T18:21:00"/>
     <x v="1"/>
@@ -645,7 +606,7 @@
     <x v="1"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="2"/>
     <d v="1899-12-30T14:32:00"/>
     <x v="1"/>
@@ -658,7 +619,7 @@
     <x v="1"/>
     <s v="EUR"/>
     <s v="BINAADADXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="2"/>
     <d v="1899-12-30T18:21:00"/>
     <x v="1"/>
@@ -671,7 +632,7 @@
     <x v="1"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="3"/>
     <d v="1899-12-30T12:43:00"/>
     <x v="0"/>
@@ -684,7 +645,7 @@
     <x v="2"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="4"/>
     <d v="1899-12-30T15:43:00"/>
     <x v="0"/>
@@ -697,7 +658,7 @@
     <x v="2"/>
     <s v="USD"/>
     <s v="FNROCNBQXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="5"/>
     <d v="1899-12-30T17:21:00"/>
     <x v="2"/>
@@ -710,7 +671,7 @@
     <x v="3"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="6"/>
     <d v="1899-12-30T13:14:00"/>
     <x v="0"/>
@@ -723,7 +684,7 @@
     <x v="3"/>
     <s v="USD"/>
     <s v="BINAADADXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="7"/>
     <d v="1899-12-30T12:34:00"/>
     <x v="2"/>
@@ -736,7 +697,7 @@
     <x v="4"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="8"/>
     <d v="1899-12-30T13:14:00"/>
     <x v="0"/>
@@ -749,7 +710,7 @@
     <x v="5"/>
     <s v="USD"/>
     <s v="BINAADADXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="9"/>
     <d v="1899-12-30T12:34:00"/>
     <x v="2"/>
@@ -762,7 +723,7 @@
     <x v="6"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="10"/>
     <d v="1899-12-30T14:12:00"/>
     <x v="0"/>
@@ -775,7 +736,7 @@
     <x v="6"/>
     <s v="USD"/>
     <s v="FNROCNBQXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="10"/>
     <d v="1899-12-30T17:10:00"/>
     <x v="2"/>
@@ -788,7 +749,7 @@
     <x v="0"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="11"/>
     <d v="1899-12-30T10:11:00"/>
     <x v="0"/>
@@ -801,7 +762,7 @@
     <x v="0"/>
     <s v="EUR"/>
     <s v="AGRIFRPPXXX"/>
-    <s v="0.03"/>
+    <n v="0.03"/>
     <x v="11"/>
     <d v="1899-12-30T17:34:00"/>
     <x v="3"/>
@@ -814,7 +775,7 @@
     <x v="7"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="12"/>
     <d v="1899-12-30T10:11:00"/>
     <x v="0"/>
@@ -827,7 +788,7 @@
     <x v="7"/>
     <s v="EUR"/>
     <s v="AGRIFRPPXXX"/>
-    <s v="0.03"/>
+    <n v="0.03"/>
     <x v="12"/>
     <d v="1899-12-30T17:34:00"/>
     <x v="3"/>
@@ -840,7 +801,7 @@
     <x v="8"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="13"/>
     <d v="1899-12-30T09:45:00"/>
     <x v="0"/>
@@ -853,7 +814,7 @@
     <x v="8"/>
     <s v="USD"/>
     <s v="BINAADADXXX"/>
-    <s v="0.015"/>
+    <n v="1.4999999999999999E-2"/>
     <x v="14"/>
     <d v="1899-12-30T12:48:00"/>
     <x v="2"/>
@@ -866,7 +827,7 @@
     <x v="0"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="15"/>
     <d v="1899-12-30T09:16:00"/>
     <x v="0"/>
@@ -879,7 +840,7 @@
     <x v="0"/>
     <s v="USD"/>
     <s v="AGRIFRPPXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="16"/>
     <d v="1899-12-30T12:32:00"/>
     <x v="2"/>
@@ -892,7 +853,7 @@
     <x v="8"/>
     <s v="USD"/>
     <s v="BINAADADXXX"/>
-    <s v="0.015"/>
+    <n v="1.4999999999999999E-2"/>
     <x v="17"/>
     <d v="1899-12-30T15:45:00"/>
     <x v="2"/>
@@ -905,7 +866,7 @@
     <x v="9"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="18"/>
     <d v="1899-12-30T12:34:00"/>
     <x v="0"/>
@@ -918,7 +879,7 @@
     <x v="9"/>
     <s v="EUR"/>
     <s v="AGRIFRPPXXX"/>
-    <s v="0.015"/>
+    <n v="1.4999999999999999E-2"/>
     <x v="18"/>
     <d v="1899-12-30T17:12:00"/>
     <x v="1"/>
@@ -931,7 +892,7 @@
     <x v="9"/>
     <s v="EUR"/>
     <s v="REDJBY22XXX"/>
-    <s v="0.015"/>
+    <n v="1.4999999999999999E-2"/>
     <x v="19"/>
     <d v="1899-12-30T18:10:00"/>
     <x v="2"/>
@@ -944,7 +905,7 @@
     <x v="10"/>
     <s v="EUR"/>
     <s v="AGRIFRPPXXX"/>
-    <s v="0.015"/>
+    <n v="1.4999999999999999E-2"/>
     <x v="20"/>
     <d v="1899-12-30T12:40:00"/>
     <x v="1"/>
@@ -957,7 +918,7 @@
     <x v="10"/>
     <s v="EUR"/>
     <s v="REDJBY22XXX"/>
-    <s v="0.015"/>
+    <n v="1.4999999999999999E-2"/>
     <x v="20"/>
     <d v="1899-12-30T17:34:00"/>
     <x v="2"/>
@@ -970,7 +931,7 @@
     <x v="10"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="21"/>
     <d v="1899-12-30T08:34:00"/>
     <x v="0"/>
@@ -983,7 +944,7 @@
     <x v="8"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="12"/>
     <d v="1899-12-30T08:15:00"/>
     <x v="0"/>
@@ -996,7 +957,7 @@
     <x v="11"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="12"/>
     <d v="1899-12-30T09:16:00"/>
     <x v="0"/>
@@ -1009,7 +970,7 @@
     <x v="11"/>
     <s v="USD"/>
     <s v="AGRIFRPPXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="12"/>
     <d v="1899-12-30T12:32:00"/>
     <x v="2"/>
@@ -1022,7 +983,7 @@
     <x v="12"/>
     <s v="EUR"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="22"/>
     <d v="1899-12-30T11:23:00"/>
     <x v="0"/>
@@ -1035,7 +996,7 @@
     <x v="12"/>
     <s v="EUR"/>
     <s v="REDJBY22XXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="22"/>
     <d v="1899-12-30T12:45:00"/>
     <x v="2"/>
@@ -1048,7 +1009,7 @@
     <x v="12"/>
     <s v="EUR"/>
     <s v="BINAADADXXX"/>
-    <s v="0.08"/>
+    <n v="0.08"/>
     <x v="23"/>
     <d v="1899-12-30T17:32:00"/>
     <x v="2"/>
@@ -1061,7 +1022,7 @@
     <x v="12"/>
     <s v="EUR"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="13"/>
     <d v="1899-12-30T09:54:00"/>
     <x v="0"/>
@@ -1074,7 +1035,7 @@
     <x v="13"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="24"/>
     <d v="1899-12-30T10:23:00"/>
     <x v="0"/>
@@ -1087,7 +1048,7 @@
     <x v="13"/>
     <s v="USD"/>
     <s v="AGRIFRPPXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="25"/>
     <d v="1899-12-30T11:43:00"/>
     <x v="4"/>
@@ -1100,7 +1061,7 @@
     <x v="13"/>
     <s v="USD"/>
     <s v="REDJBY22XXX"/>
-    <s v="0.08"/>
+    <n v="0.08"/>
     <x v="25"/>
     <d v="1899-12-30T17:02:00"/>
     <x v="4"/>
@@ -1113,7 +1074,7 @@
     <x v="14"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="26"/>
     <d v="1899-12-30T10:23:00"/>
     <x v="0"/>
@@ -1126,7 +1087,7 @@
     <x v="14"/>
     <s v="USD"/>
     <s v="AGRIFRPPXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="26"/>
     <d v="1899-12-30T11:43:00"/>
     <x v="4"/>
@@ -1139,7 +1100,7 @@
     <x v="14"/>
     <s v="USD"/>
     <s v="REDJBY22XXX"/>
-    <s v="0.08"/>
+    <n v="0.08"/>
     <x v="26"/>
     <d v="1899-12-30T17:02:00"/>
     <x v="4"/>
@@ -1152,7 +1113,7 @@
     <x v="15"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="11"/>
     <d v="1899-12-30T12:43:00"/>
     <x v="0"/>
@@ -1165,7 +1126,7 @@
     <x v="15"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="27"/>
     <d v="1899-12-30T15:41:00"/>
     <x v="1"/>
@@ -1178,7 +1139,7 @@
     <x v="15"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="28"/>
     <d v="1899-12-30T18:10:00"/>
     <x v="3"/>
@@ -1191,7 +1152,7 @@
     <x v="16"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="29"/>
     <d v="1899-12-30T12:43:00"/>
     <x v="0"/>
@@ -1204,7 +1165,7 @@
     <x v="16"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="29"/>
     <d v="1899-12-30T15:41:00"/>
     <x v="1"/>
@@ -1217,7 +1178,7 @@
     <x v="16"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="29"/>
     <d v="1899-12-30T18:10:00"/>
     <x v="3"/>
@@ -1230,7 +1191,7 @@
     <x v="16"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="30"/>
     <d v="1899-12-30T14:23:00"/>
     <x v="0"/>
@@ -1243,7 +1204,7 @@
     <x v="16"/>
     <s v="USD"/>
     <s v="REDJBY22XXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="30"/>
     <d v="1899-12-30T19:12:00"/>
     <x v="2"/>
@@ -1256,7 +1217,7 @@
     <x v="17"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="30"/>
     <d v="1899-12-30T11:23:00"/>
     <x v="0"/>
@@ -1269,7 +1230,7 @@
     <x v="17"/>
     <s v="USD"/>
     <s v="TSIBAU44XXX"/>
-    <s v="0.08"/>
+    <n v="0.08"/>
     <x v="30"/>
     <d v="1899-12-30T18:10:00"/>
     <x v="3"/>
@@ -1282,7 +1243,7 @@
     <x v="2"/>
     <s v="USD"/>
     <s v="FNROCNBQXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="31"/>
     <d v="1899-12-30T18:10:00"/>
     <x v="2"/>
@@ -1295,7 +1256,7 @@
     <x v="2"/>
     <s v="USD"/>
     <s v="REDJBY22XXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="31"/>
     <d v="1899-12-30T15:34:00"/>
     <x v="1"/>
@@ -1308,7 +1269,7 @@
     <x v="2"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.08"/>
+    <n v="0.08"/>
     <x v="32"/>
     <d v="1899-12-30T12:12:00"/>
     <x v="0"/>
@@ -1321,7 +1282,7 @@
     <x v="2"/>
     <s v="USD"/>
     <s v="FNROCNBQXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="32"/>
     <d v="1899-12-30T13:43:00"/>
     <x v="1"/>
@@ -1334,7 +1295,7 @@
     <x v="2"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="32"/>
     <d v="1899-12-30T14:32:00"/>
     <x v="0"/>
@@ -1347,7 +1308,7 @@
     <x v="18"/>
     <s v="EUR"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="33"/>
     <d v="1899-12-30T15:43:00"/>
     <x v="0"/>
@@ -1360,7 +1321,7 @@
     <x v="18"/>
     <s v="EUR"/>
     <s v="TSIBAU44XXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="33"/>
     <d v="1899-12-30T15:43:00"/>
     <x v="2"/>
@@ -1373,7 +1334,7 @@
     <x v="19"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.08"/>
+    <n v="0.08"/>
     <x v="34"/>
     <d v="1899-12-30T18:10:00"/>
     <x v="0"/>
@@ -1386,7 +1347,7 @@
     <x v="19"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.08"/>
+    <n v="0.08"/>
     <x v="34"/>
     <d v="1899-12-30T12:43:00"/>
     <x v="5"/>
@@ -1399,7 +1360,7 @@
     <x v="20"/>
     <s v="EUR"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.07"/>
+    <n v="7.0000000000000007E-2"/>
     <x v="34"/>
     <d v="1899-12-30T08:34:00"/>
     <x v="0"/>
@@ -1412,7 +1373,7 @@
     <x v="20"/>
     <s v="EUR"/>
     <s v="TSIBAU44XXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="34"/>
     <d v="1899-12-30T12:39:00"/>
     <x v="2"/>
@@ -1425,7 +1386,7 @@
     <x v="21"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="35"/>
     <d v="1899-12-30T12:12:00"/>
     <x v="0"/>
@@ -1438,7 +1399,7 @@
     <x v="21"/>
     <s v="USD"/>
     <s v="FINVALTRXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="35"/>
     <d v="1899-12-30T12:19:00"/>
     <x v="1"/>
@@ -1451,7 +1412,7 @@
     <x v="21"/>
     <s v="USD"/>
     <s v="TSIBAU44XXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="35"/>
     <d v="1899-12-30T17:20:00"/>
     <x v="3"/>
@@ -1464,7 +1425,7 @@
     <x v="22"/>
     <s v="EUR"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="36"/>
     <d v="1899-12-30T13:23:00"/>
     <x v="0"/>
@@ -1477,7 +1438,7 @@
     <x v="22"/>
     <s v="EUR"/>
     <s v="FNROCNBQXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="36"/>
     <d v="1899-12-30T19:10:00"/>
     <x v="2"/>
@@ -1490,7 +1451,7 @@
     <x v="23"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="22"/>
     <d v="1899-12-30T14:32:00"/>
     <x v="0"/>
@@ -1503,7 +1464,7 @@
     <x v="23"/>
     <s v="EUR"/>
     <s v="FINVALTRXXX"/>
-    <s v="0.03"/>
+    <n v="0.03"/>
     <x v="22"/>
     <d v="1899-12-30T14:32:00"/>
     <x v="2"/>
@@ -1516,7 +1477,7 @@
     <x v="24"/>
     <s v="USD"/>
     <s v="TSIBAU44XXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="37"/>
     <d v="1899-12-30T17:10:00"/>
     <x v="2"/>
@@ -1529,7 +1490,7 @@
     <x v="25"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="38"/>
     <d v="1899-12-30T10:23:00"/>
     <x v="0"/>
@@ -1542,7 +1503,7 @@
     <x v="25"/>
     <s v="USD"/>
     <s v="REDJBY22XXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="39"/>
     <d v="1899-12-30T11:32:00"/>
     <x v="2"/>
@@ -1555,7 +1516,7 @@
     <x v="26"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="40"/>
     <d v="1899-12-30T11:12:00"/>
     <x v="0"/>
@@ -1568,7 +1529,7 @@
     <x v="26"/>
     <s v="USD"/>
     <s v="REDJBY22XXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="41"/>
     <d v="1899-12-30T14:44:00"/>
     <x v="2"/>
@@ -1581,7 +1542,7 @@
     <x v="24"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="42"/>
     <d v="1899-12-30T09:12:00"/>
     <x v="0"/>
@@ -1594,7 +1555,7 @@
     <x v="27"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="43"/>
     <d v="1899-12-30T11:23:00"/>
     <x v="0"/>
@@ -1607,7 +1568,7 @@
     <x v="27"/>
     <s v="USD"/>
     <s v="FNROCNBQXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="43"/>
     <d v="1899-12-30T14:12:00"/>
     <x v="2"/>
@@ -1620,7 +1581,7 @@
     <x v="25"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.08"/>
+    <n v="0.08"/>
     <x v="42"/>
     <d v="1899-12-30T11:19:00"/>
     <x v="0"/>
@@ -1633,7 +1594,7 @@
     <x v="25"/>
     <s v="USD"/>
     <s v="REDJBY22XXX"/>
-    <s v="0.08"/>
+    <n v="0.08"/>
     <x v="42"/>
     <d v="1899-12-30T21:10:00"/>
     <x v="2"/>
@@ -1646,7 +1607,7 @@
     <x v="28"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.04"/>
+    <n v="0.04"/>
     <x v="44"/>
     <d v="1899-12-30T09:45:00"/>
     <x v="0"/>
@@ -1659,7 +1620,7 @@
     <x v="28"/>
     <s v="USD"/>
     <s v="TSIBAU44XXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="44"/>
     <d v="1899-12-30T18:20:00"/>
     <x v="2"/>
@@ -1672,7 +1633,7 @@
     <x v="29"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="12"/>
     <d v="2013-10-01T00:00:00"/>
     <x v="0"/>
@@ -1685,7 +1646,7 @@
     <x v="29"/>
     <s v="USD"/>
     <s v="BINAADADXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="12"/>
     <d v="1899-12-30T12:45:00"/>
     <x v="1"/>
@@ -1698,7 +1659,7 @@
     <x v="29"/>
     <s v="USD"/>
     <s v="BSJUARBJXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="45"/>
     <d v="1899-12-30T14:15:00"/>
     <x v="2"/>
@@ -1711,7 +1672,7 @@
     <x v="30"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="46"/>
     <d v="1899-12-30T10:12:00"/>
     <x v="0"/>
@@ -1724,7 +1685,7 @@
     <x v="30"/>
     <s v="USD"/>
     <s v="BINAADADXXX"/>
-    <s v="0.01"/>
+    <n v="0.01"/>
     <x v="47"/>
     <d v="1899-12-30T13:29:00"/>
     <x v="1"/>
@@ -1737,7 +1698,7 @@
     <x v="30"/>
     <s v="USD"/>
     <s v="BSJUARBJXXX"/>
-    <s v="0.02"/>
+    <n v="0.02"/>
     <x v="47"/>
     <d v="1899-12-31T00:00:00"/>
     <x v="2"/>
@@ -1750,7 +1711,7 @@
     <x v="31"/>
     <s v="USD"/>
     <s v="CHASUS3AXXX"/>
-    <s v="0.08"/>
+    <n v="0.08"/>
     <x v="48"/>
     <d v="1899-12-30T08:12:00"/>
     <x v="0"/>
@@ -1763,7 +1724,7 @@
     <x v="31"/>
     <s v="USD"/>
     <s v="REDJBY22XXX"/>
-    <s v="0.08"/>
+    <n v="0.08"/>
     <x v="48"/>
     <d v="1899-12-30T12:34:00"/>
     <x v="2"/>
@@ -1772,7 +1733,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCF3493A-B307-4E69-B67C-90176D3A5CE8}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCF3493A-B307-4E69-B67C-90176D3A5CE8}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:I35" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -1876,25 +1837,7 @@
     <pivotField outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="68">
-        <item m="1" x="57"/>
-        <item m="1" x="49"/>
-        <item m="1" x="66"/>
-        <item m="1" x="51"/>
-        <item m="1" x="60"/>
-        <item m="1" x="62"/>
-        <item m="1" x="52"/>
-        <item m="1" x="63"/>
-        <item m="1" x="54"/>
-        <item m="1" x="50"/>
-        <item m="1" x="64"/>
-        <item m="1" x="59"/>
-        <item m="1" x="58"/>
-        <item m="1" x="65"/>
-        <item m="1" x="55"/>
-        <item m="1" x="56"/>
-        <item m="1" x="61"/>
-        <item m="1" x="53"/>
+      <items count="50">
         <item x="37"/>
         <item x="13"/>
         <item x="23"/>
@@ -2428,7 +2371,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2448,7 +2391,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2456,44 +2399,44 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2519,10 +2462,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <v>6882</v>
@@ -2542,7 +2485,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -2565,7 +2508,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -2586,10 +2529,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4">
         <v>35900</v>
@@ -2607,10 +2550,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4">
         <v>35643</v>
@@ -2628,10 +2571,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4">
         <v>16969</v>
@@ -2649,10 +2592,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4">
         <v>17886</v>
@@ -2672,10 +2615,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4">
         <v>15326</v>
@@ -2693,7 +2636,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4">
         <v>1100</v>
@@ -2711,10 +2654,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C16" s="4">
         <v>1925</v>
@@ -2732,10 +2675,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4">
         <v>238</v>
@@ -2753,10 +2696,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C18" s="4">
         <v>6709</v>
@@ -2774,10 +2717,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C19" s="4">
         <v>1100</v>
@@ -2797,10 +2740,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C20" s="4">
         <v>5188</v>
@@ -2818,10 +2761,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C21" s="4">
         <v>120</v>
@@ -2841,10 +2784,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C22" s="4">
         <v>6720</v>
@@ -2862,10 +2805,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C23" s="4">
         <v>67569</v>
@@ -2883,10 +2826,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C24" s="4">
         <v>2100</v>
@@ -2904,10 +2847,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C25" s="4">
         <v>800</v>
@@ -2925,10 +2868,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C26" s="4">
         <v>1025</v>
@@ -2946,10 +2889,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C27" s="4">
         <v>87600</v>
@@ -2967,10 +2910,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C28" s="4">
         <v>1600</v>
@@ -2988,10 +2931,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C29" s="4">
         <v>3100</v>
@@ -3009,10 +2952,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C30" s="4">
         <v>456</v>
@@ -3030,10 +2973,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C31" s="4">
         <v>348</v>
@@ -3051,10 +2994,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C32" s="4">
         <v>67569</v>
@@ -3072,7 +3015,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C33" s="4">
         <v>1100</v>
@@ -3090,10 +3033,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C34" s="4">
         <v>12100</v>
@@ -3111,7 +3054,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C35" s="4">
         <v>1447963</v>
@@ -3142,11 +3085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF87D3-5296-44C7-898D-811DB0F715A2}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3209,13 +3151,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>12000</v>
@@ -3226,8 +3168,8 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>24</v>
+      <c r="H2">
+        <v>0.01</v>
       </c>
       <c r="I2" s="2">
         <v>44474</v>
@@ -3236,7 +3178,7 @@
         <v>0.52986111111111112</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L65" si="0">CONCATENATE(B2,D2,E2,I2)</f>
@@ -3248,13 +3190,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>12000</v>
@@ -3265,8 +3207,8 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
+      <c r="H3">
+        <v>0.02</v>
       </c>
       <c r="I3" s="2">
         <v>44474</v>
@@ -3275,7 +3217,7 @@
         <v>0.60555555555555551</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
@@ -3287,25 +3229,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>12000</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>0.01</v>
       </c>
       <c r="I4" s="2">
         <v>44476</v>
@@ -3314,7 +3256,7 @@
         <v>0.76458333333333339</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
@@ -3326,13 +3268,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>3326</v>
@@ -3343,8 +3285,8 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
+      <c r="H5">
+        <v>0.02</v>
       </c>
       <c r="I5" s="2">
         <v>44572</v>
@@ -3353,7 +3295,7 @@
         <v>0.60555555555555551</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
@@ -3365,25 +3307,25 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>3326</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>0.01</v>
       </c>
       <c r="I6" s="2">
         <v>44572</v>
@@ -3392,7 +3334,7 @@
         <v>0.76458333333333339</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
@@ -3404,13 +3346,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>3326</v>
@@ -3421,8 +3363,8 @@
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="s">
-        <v>24</v>
+      <c r="H7">
+        <v>0.01</v>
       </c>
       <c r="I7" s="2">
         <v>44571</v>
@@ -3431,25 +3373,25 @@
         <v>0.52986111111111112</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
         <v>Beta CorpREF001332644571</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>1100</v>
@@ -3460,8 +3402,8 @@
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" t="s">
-        <v>17</v>
+      <c r="H8">
+        <v>0.02</v>
       </c>
       <c r="I8" s="2">
         <v>44234</v>
@@ -3470,25 +3412,25 @@
         <v>0.65486111111111112</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
         <v>Beta CorpREF001DEMO110044234</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>1100</v>
@@ -3497,10 +3439,10 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="H9">
+        <v>0.01</v>
       </c>
       <c r="I9" s="2">
         <v>44235</v>
@@ -3509,25 +3451,25 @@
         <v>0.72291666666666676</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
         <v>Beta CorpREF001DEMO110044235</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>5643</v>
@@ -3538,8 +3480,8 @@
       <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" t="s">
-        <v>17</v>
+      <c r="H10">
+        <v>0.02</v>
       </c>
       <c r="I10" s="2">
         <v>44275</v>
@@ -3548,25 +3490,25 @@
         <v>0.55138888888888882</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
         <v>ACME TWO SCRLREF111564344275</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>5643</v>
@@ -3575,10 +3517,10 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>0.01</v>
       </c>
       <c r="I11" s="2">
         <v>44276</v>
@@ -3587,25 +3529,25 @@
         <v>0.52361111111111114</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
         <v>ACME TWO SCRLREF111564344276</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>30000</v>
@@ -3616,8 +3558,8 @@
       <c r="G12" t="s">
         <v>16</v>
       </c>
-      <c r="H12" t="s">
-        <v>17</v>
+      <c r="H12">
+        <v>0.02</v>
       </c>
       <c r="I12" s="2">
         <v>44305</v>
@@ -3626,25 +3568,25 @@
         <v>0.55138888888888882</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
         <v>ACME TWO SCRLREF1113000044305</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>3000</v>
@@ -3653,10 +3595,10 @@
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>0.01</v>
       </c>
       <c r="I13" s="2">
         <v>44306</v>
@@ -3665,25 +3607,25 @@
         <v>0.52361111111111114</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
         <v>ACME TWO SCRLREF111300044306</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>2100</v>
@@ -3694,8 +3636,8 @@
       <c r="G14" t="s">
         <v>16</v>
       </c>
-      <c r="H14" t="s">
-        <v>17</v>
+      <c r="H14">
+        <v>0.02</v>
       </c>
       <c r="I14" s="2">
         <v>44277</v>
@@ -3704,25 +3646,25 @@
         <v>0.59166666666666667</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
         <v>HAMILTON LTD.REF201210044277</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>2100</v>
@@ -3731,10 +3673,10 @@
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="H15">
+        <v>0.02</v>
       </c>
       <c r="I15" s="2">
         <v>44277</v>
@@ -3743,25 +3685,25 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
         <v>HAMILTON LTD.REF201210044277</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>12000</v>
@@ -3772,8 +3714,8 @@
       <c r="G16" t="s">
         <v>16</v>
       </c>
-      <c r="H16" t="s">
-        <v>17</v>
+      <c r="H16">
+        <v>0.02</v>
       </c>
       <c r="I16" s="2">
         <v>44388</v>
@@ -3782,37 +3724,37 @@
         <v>0.42430555555555555</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v>ACME TRUST.REF211200044388</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>12000</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <v>0.03</v>
       </c>
       <c r="I17" s="2">
         <v>44388</v>
@@ -3821,25 +3763,25 @@
         <v>0.7319444444444444</v>
       </c>
       <c r="K17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v>ACME TRUST.REF211200044388</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>23900</v>
@@ -3850,8 +3792,8 @@
       <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="H18" t="s">
-        <v>17</v>
+      <c r="H18">
+        <v>0.02</v>
       </c>
       <c r="I18" s="2">
         <v>44271</v>
@@ -3860,37 +3802,37 @@
         <v>0.42430555555555555</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
         <v>ACME TRUST.REF212390044271</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>23900</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <v>0.03</v>
       </c>
       <c r="I19" s="2">
         <v>44271</v>
@@ -3899,14 +3841,14 @@
         <v>0.7319444444444444</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v>ACME TRUST.REF212390044271</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -3928,8 +3870,8 @@
       <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="H20" t="s">
-        <v>17</v>
+      <c r="H20">
+        <v>0.02</v>
       </c>
       <c r="I20" s="2">
         <v>44217</v>
@@ -3938,14 +3880,14 @@
         <v>0.40625</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
         <v>ACME INVEST.REF2111000044217</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -3965,10 +3907,10 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I21" s="2">
         <v>44223</v>
@@ -3977,19 +3919,19 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
         <v>ACME INVEST.REF2111000044223</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -4006,8 +3948,8 @@
       <c r="G22" t="s">
         <v>16</v>
       </c>
-      <c r="H22" t="s">
-        <v>17</v>
+      <c r="H22">
+        <v>0.02</v>
       </c>
       <c r="I22" s="2">
         <v>44240</v>
@@ -4016,19 +3958,19 @@
         <v>0.38611111111111113</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v>ACME TRADE.REF2111200044240</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -4043,10 +3985,10 @@
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <v>0.01</v>
       </c>
       <c r="I23" s="2">
         <v>44241</v>
@@ -4055,14 +3997,14 @@
         <v>0.52222222222222225</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v>ACME TRADE.REF2111200044241</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -4082,10 +4024,10 @@
         <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="H24">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I24" s="2">
         <v>44272</v>
@@ -4094,19 +4036,19 @@
         <v>0.65625</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v>ACME INVEST.REF2111000044272</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -4123,8 +4065,8 @@
       <c r="G25" t="s">
         <v>16</v>
       </c>
-      <c r="H25" t="s">
-        <v>24</v>
+      <c r="H25">
+        <v>0.01</v>
       </c>
       <c r="I25" s="2">
         <v>44297</v>
@@ -4133,19 +4075,19 @@
         <v>0.52361111111111114</v>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v>ACME PRIVATE.REF211789044297</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -4157,13 +4099,13 @@
         <v>7890</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="H26">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I26" s="2">
         <v>44297</v>
@@ -4172,19 +4114,19 @@
         <v>0.71666666666666667</v>
       </c>
       <c r="K26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v>ACME PRIVATE.REF211789044297</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -4196,13 +4138,13 @@
         <v>7890</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="H27">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I27" s="2">
         <v>44299</v>
@@ -4211,19 +4153,19 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v>ACME PRIVATE.REF211789044299</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -4235,13 +4177,13 @@
         <v>1000000</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I28" s="2">
         <v>44503</v>
@@ -4250,19 +4192,19 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="K28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v>ACME PRIVATE.REF211100000044503</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -4274,13 +4216,13 @@
         <v>1000000</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="H29">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I29" s="2">
         <v>44503</v>
@@ -4289,19 +4231,19 @@
         <v>0.7319444444444444</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v>ACME PRIVATE.REF211100000044503</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -4318,8 +4260,8 @@
       <c r="G30" t="s">
         <v>16</v>
       </c>
-      <c r="H30" t="s">
-        <v>24</v>
+      <c r="H30">
+        <v>0.01</v>
       </c>
       <c r="I30" s="2">
         <v>44502</v>
@@ -4328,14 +4270,14 @@
         <v>0.35694444444444445</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" si="0"/>
         <v>ACME PRIVATE.REF211100000044502</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -4357,8 +4299,8 @@
       <c r="G31" t="s">
         <v>16</v>
       </c>
-      <c r="H31" t="s">
-        <v>17</v>
+      <c r="H31">
+        <v>0.02</v>
       </c>
       <c r="I31" s="2">
         <v>44271</v>
@@ -4367,19 +4309,19 @@
         <v>0.34375</v>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="0"/>
         <v>ACME INVEST.REF2111000044271</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -4396,8 +4338,8 @@
       <c r="G32" t="s">
         <v>16</v>
       </c>
-      <c r="H32" t="s">
-        <v>17</v>
+      <c r="H32">
+        <v>0.02</v>
       </c>
       <c r="I32" s="2">
         <v>44271</v>
@@ -4406,19 +4348,19 @@
         <v>0.38611111111111113</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="0"/>
         <v>ACME TRADE.REF2111100044271</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -4433,10 +4375,10 @@
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="H33">
+        <v>0.01</v>
       </c>
       <c r="I33" s="2">
         <v>44271</v>
@@ -4445,37 +4387,37 @@
         <v>0.52222222222222225</v>
       </c>
       <c r="K33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="0"/>
         <v>ACME TRADE.REF2111100044271</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>67569</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
       </c>
-      <c r="H34" t="s">
-        <v>24</v>
+      <c r="H34">
+        <v>0.01</v>
       </c>
       <c r="I34" s="2">
         <v>44209</v>
@@ -4484,37 +4426,37 @@
         <v>0.47430555555555554</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" si="0"/>
         <v>DELTA INC REFD100926756944209</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E35">
         <v>67569</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="H35">
+        <v>0.01</v>
       </c>
       <c r="I35" s="2">
         <v>44209</v>
@@ -4523,37 +4465,37 @@
         <v>0.53125</v>
       </c>
       <c r="K35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="0"/>
         <v>DELTA INC REFD100926756944209</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E36">
         <v>67569</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <v>0.08</v>
       </c>
       <c r="I36" s="2">
         <v>44218</v>
@@ -4562,37 +4504,37 @@
         <v>0.73055555555555562</v>
       </c>
       <c r="K36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="0"/>
         <v>TRADE INC REFD101926756944218</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E37">
         <v>67569</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
       </c>
-      <c r="H37" t="s">
-        <v>24</v>
+      <c r="H37">
+        <v>0.01</v>
       </c>
       <c r="I37" s="2">
         <v>44217</v>
@@ -4601,25 +4543,25 @@
         <v>0.41250000000000003</v>
       </c>
       <c r="K37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="0"/>
         <v>TRADE INC REFD101926756944217</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E38">
         <v>12400</v>
@@ -4630,8 +4572,8 @@
       <c r="G38" t="s">
         <v>16</v>
       </c>
-      <c r="H38" t="s">
-        <v>17</v>
+      <c r="H38">
+        <v>0.02</v>
       </c>
       <c r="I38" s="2">
         <v>44454</v>
@@ -4640,25 +4582,25 @@
         <v>0.43263888888888885</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="0"/>
         <v>ALT INC REFD2021021240044454</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E39" s="5">
         <v>12400</v>
@@ -4667,10 +4609,10 @@
         <v>15</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.01</v>
       </c>
       <c r="I39" s="6">
         <v>44455</v>
@@ -4679,25 +4621,25 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L39" s="5" t="str">
         <f t="shared" si="0"/>
         <v>ALT INC REFD2021021240044455</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E40" s="5">
         <v>12400</v>
@@ -4706,10 +4648,10 @@
         <v>15</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.08</v>
       </c>
       <c r="I40" s="6">
         <v>44455</v>
@@ -4718,25 +4660,25 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L40" s="5" t="str">
         <f t="shared" si="0"/>
         <v>ALT INC REFD2021021240044455</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E41">
         <v>4569</v>
@@ -4747,8 +4689,8 @@
       <c r="G41" t="s">
         <v>16</v>
       </c>
-      <c r="H41" t="s">
-        <v>17</v>
+      <c r="H41">
+        <v>0.02</v>
       </c>
       <c r="I41" s="2">
         <v>44248</v>
@@ -4757,25 +4699,25 @@
         <v>0.43263888888888885</v>
       </c>
       <c r="K41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" si="0"/>
         <v>ALT INC REFD202102456944248</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E42" s="5">
         <v>4569</v>
@@ -4784,10 +4726,10 @@
         <v>15</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.01</v>
       </c>
       <c r="I42" s="6">
         <v>44248</v>
@@ -4796,25 +4738,25 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L42" s="5" t="str">
         <f t="shared" si="0"/>
         <v>ALT INC REFD202102456944248</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E43" s="5">
         <v>4569</v>
@@ -4823,10 +4765,10 @@
         <v>15</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.08</v>
       </c>
       <c r="I43" s="6">
         <v>44248</v>
@@ -4835,25 +4777,25 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L43" s="5" t="str">
         <f t="shared" si="0"/>
         <v>ALT INC REFD202102456944248</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E44">
         <v>17430</v>
@@ -4864,8 +4806,8 @@
       <c r="G44" t="s">
         <v>16</v>
       </c>
-      <c r="H44" t="s">
-        <v>24</v>
+      <c r="H44">
+        <v>0.01</v>
       </c>
       <c r="I44" s="2">
         <v>44388</v>
@@ -4874,25 +4816,25 @@
         <v>0.52986111111111112</v>
       </c>
       <c r="K44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L44" t="str">
         <f t="shared" si="0"/>
         <v>ALT-2 INC REFD2021031743044388</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E45">
         <v>17430</v>
@@ -4903,8 +4845,8 @@
       <c r="G45" t="s">
         <v>16</v>
       </c>
-      <c r="H45" t="s">
-        <v>17</v>
+      <c r="H45">
+        <v>0.02</v>
       </c>
       <c r="I45" s="2">
         <v>44389</v>
@@ -4913,25 +4855,25 @@
         <v>0.65347222222222223</v>
       </c>
       <c r="K45" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L45" t="str">
         <f t="shared" si="0"/>
         <v>ALT-2 INC REFD2021031743044389</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E46">
         <v>17430</v>
@@ -4942,8 +4884,8 @@
       <c r="G46" t="s">
         <v>16</v>
       </c>
-      <c r="H46" t="s">
-        <v>24</v>
+      <c r="H46">
+        <v>0.01</v>
       </c>
       <c r="I46" s="2">
         <v>44390</v>
@@ -4952,25 +4894,25 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="K46" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" si="0"/>
         <v>ALT-2 INC REFD2021031743044390</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E47">
         <v>456</v>
@@ -4981,8 +4923,8 @@
       <c r="G47" t="s">
         <v>16</v>
       </c>
-      <c r="H47" t="s">
-        <v>24</v>
+      <c r="H47">
+        <v>0.01</v>
       </c>
       <c r="I47" s="2">
         <v>44253</v>
@@ -4991,25 +4933,25 @@
         <v>0.52986111111111112</v>
       </c>
       <c r="K47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" si="0"/>
         <v>ALT-2 INC REFD20210345644253</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E48">
         <v>456</v>
@@ -5020,8 +4962,8 @@
       <c r="G48" t="s">
         <v>16</v>
       </c>
-      <c r="H48" t="s">
-        <v>17</v>
+      <c r="H48">
+        <v>0.02</v>
       </c>
       <c r="I48" s="2">
         <v>44253</v>
@@ -5030,25 +4972,25 @@
         <v>0.65347222222222223</v>
       </c>
       <c r="K48" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L48" t="str">
         <f t="shared" si="0"/>
         <v>ALT-2 INC REFD20210345644253</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E49">
         <v>456</v>
@@ -5059,8 +5001,8 @@
       <c r="G49" t="s">
         <v>16</v>
       </c>
-      <c r="H49" t="s">
-        <v>24</v>
+      <c r="H49">
+        <v>0.01</v>
       </c>
       <c r="I49" s="2">
         <v>44253</v>
@@ -5069,25 +5011,25 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="K49" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L49" t="str">
         <f t="shared" si="0"/>
         <v>ALT-2 INC REFD20210345644253</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E50">
         <v>456</v>
@@ -5098,8 +5040,8 @@
       <c r="G50" t="s">
         <v>16</v>
       </c>
-      <c r="H50" t="s">
-        <v>17</v>
+      <c r="H50">
+        <v>0.02</v>
       </c>
       <c r="I50" s="2">
         <v>44256</v>
@@ -5108,25 +5050,25 @@
         <v>0.59930555555555554</v>
       </c>
       <c r="K50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="0"/>
         <v>SIGMA INC REFD54310345644256</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E51">
         <v>456</v>
@@ -5135,10 +5077,10 @@
         <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
-      </c>
-      <c r="H51" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="H51">
+        <v>0.01</v>
       </c>
       <c r="I51" s="2">
         <v>44256</v>
@@ -5147,25 +5089,25 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="K51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L51" t="str">
         <f t="shared" si="0"/>
         <v>SIGMA INC REFD54310345644256</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E52">
         <v>3100</v>
@@ -5176,8 +5118,8 @@
       <c r="G52" t="s">
         <v>16</v>
       </c>
-      <c r="H52" t="s">
-        <v>24</v>
+      <c r="H52">
+        <v>0.01</v>
       </c>
       <c r="I52" s="2">
         <v>44256</v>
@@ -5186,25 +5128,25 @@
         <v>0.47430555555555554</v>
       </c>
       <c r="K52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L52" t="str">
         <f t="shared" si="0"/>
         <v>QUATRO INC REFD543104310044256</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E53">
         <v>3100</v>
@@ -5213,10 +5155,10 @@
         <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>61</v>
-      </c>
-      <c r="H53" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="H53">
+        <v>0.08</v>
       </c>
       <c r="I53" s="2">
         <v>44256</v>
@@ -5225,25 +5167,25 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="K53" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L53" t="str">
         <f t="shared" si="0"/>
         <v>QUATRO INC REFD543104310044256</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E54">
         <v>1100</v>
@@ -5252,10 +5194,10 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
-      </c>
-      <c r="H54" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="H54">
+        <v>0.02</v>
       </c>
       <c r="I54" s="2">
         <v>44258</v>
@@ -5264,25 +5206,25 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="K54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L54" t="str">
         <f t="shared" si="0"/>
         <v>CARGO INC REFD543105110044258</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E55">
         <v>1100</v>
@@ -5291,10 +5233,10 @@
         <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H55" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="H55">
+        <v>0.01</v>
       </c>
       <c r="I55" s="2">
         <v>44258</v>
@@ -5303,25 +5245,25 @@
         <v>0.64861111111111114</v>
       </c>
       <c r="K55" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="0"/>
         <v>TRADE INC REFD543105110044258</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E56">
         <v>1100</v>
@@ -5332,8 +5274,8 @@
       <c r="G56" t="s">
         <v>16</v>
       </c>
-      <c r="H56" t="s">
-        <v>41</v>
+      <c r="H56">
+        <v>0.08</v>
       </c>
       <c r="I56" s="2">
         <v>44257</v>
@@ -5342,25 +5284,25 @@
         <v>0.5083333333333333</v>
       </c>
       <c r="K56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L56" t="str">
         <f t="shared" si="0"/>
         <v>CARGO INC REFD543105110044257</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E57">
         <v>1100</v>
@@ -5369,10 +5311,10 @@
         <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
-      </c>
-      <c r="H57" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="H57">
+        <v>0.01</v>
       </c>
       <c r="I57" s="2">
         <v>44257</v>
@@ -5381,25 +5323,25 @@
         <v>0.57152777777777775</v>
       </c>
       <c r="K57" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L57" t="str">
         <f t="shared" si="0"/>
         <v>CARGO INC REFD543105110044257</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E58">
         <v>1100</v>
@@ -5410,8 +5352,8 @@
       <c r="G58" t="s">
         <v>16</v>
       </c>
-      <c r="H58" t="s">
-        <v>24</v>
+      <c r="H58">
+        <v>0.01</v>
       </c>
       <c r="I58" s="2">
         <v>44257</v>
@@ -5420,37 +5362,37 @@
         <v>0.60555555555555551</v>
       </c>
       <c r="K58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L58" t="str">
         <f t="shared" si="0"/>
         <v>TRADE INC REFD543105110044257</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E59">
         <v>5188</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G59" t="s">
         <v>16</v>
       </c>
-      <c r="H59" t="s">
-        <v>24</v>
+      <c r="H59">
+        <v>0.01</v>
       </c>
       <c r="I59" s="2">
         <v>44210</v>
@@ -5459,37 +5401,37 @@
         <v>0.65486111111111112</v>
       </c>
       <c r="K59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L59" t="str">
         <f t="shared" si="0"/>
         <v>CRETA SUPPORTREFDEM0091518844210</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E60">
         <v>5188</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G60" t="s">
-        <v>61</v>
-      </c>
-      <c r="H60" t="s">
-        <v>24</v>
+        <v>56</v>
+      </c>
+      <c r="H60">
+        <v>0.01</v>
       </c>
       <c r="I60" s="2">
         <v>44210</v>
@@ -5498,25 +5440,25 @@
         <v>0.65486111111111112</v>
       </c>
       <c r="K60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L60" t="str">
         <f t="shared" si="0"/>
         <v>CRETA SUPPORTREFDEM0091518844210</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E61">
         <v>238</v>
@@ -5527,8 +5469,8 @@
       <c r="G61" t="s">
         <v>16</v>
       </c>
-      <c r="H61" t="s">
-        <v>41</v>
+      <c r="H61">
+        <v>0.08</v>
       </c>
       <c r="I61" s="2">
         <v>44211</v>
@@ -5537,25 +5479,25 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="K61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L61" t="str">
         <f t="shared" si="0"/>
         <v>BRITA SUPPORTREFDEM01223844211</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E62" s="5">
         <v>238</v>
@@ -5566,8 +5508,8 @@
       <c r="G62" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H62" s="5" t="s">
-        <v>41</v>
+      <c r="H62" s="5">
+        <v>0.08</v>
       </c>
       <c r="I62" s="6">
         <v>44211</v>
@@ -5576,37 +5518,37 @@
         <v>0.52986111111111112</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L62" s="5" t="str">
         <f t="shared" si="0"/>
         <v>BRITA SUPPORTREFDEM01223844211</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E63">
         <v>348</v>
       </c>
       <c r="F63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G63" t="s">
         <v>16</v>
       </c>
-      <c r="H63" t="s">
-        <v>82</v>
+      <c r="H63">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I63" s="2">
         <v>44211</v>
@@ -5615,37 +5557,37 @@
         <v>0.35694444444444445</v>
       </c>
       <c r="K63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L63" t="str">
         <f t="shared" si="0"/>
         <v>SOCIETE GEN SAREFDEM159134844211</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E64">
         <v>348</v>
       </c>
       <c r="F64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G64" t="s">
-        <v>61</v>
-      </c>
-      <c r="H64" t="s">
-        <v>24</v>
+        <v>56</v>
+      </c>
+      <c r="H64">
+        <v>0.01</v>
       </c>
       <c r="I64" s="2">
         <v>44211</v>
@@ -5654,25 +5596,25 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="K64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L64" t="str">
         <f t="shared" si="0"/>
         <v>SOCIETE GEN SAREFDEM159134844211</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E65">
         <v>120</v>
@@ -5683,8 +5625,8 @@
       <c r="G65" t="s">
         <v>16</v>
       </c>
-      <c r="H65" t="s">
-        <v>24</v>
+      <c r="H65">
+        <v>0.01</v>
       </c>
       <c r="I65" s="2">
         <v>44201</v>
@@ -5693,25 +5635,25 @@
         <v>0.5083333333333333</v>
       </c>
       <c r="K65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L65" t="str">
         <f t="shared" si="0"/>
         <v>CROCTUS NYREFDEM559112044201</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E66">
         <v>120</v>
@@ -5720,10 +5662,10 @@
         <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>58</v>
-      </c>
-      <c r="H66" t="s">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="H66">
+        <v>0.01</v>
       </c>
       <c r="I66" s="2">
         <v>44201</v>
@@ -5732,25 +5674,25 @@
         <v>0.5131944444444444</v>
       </c>
       <c r="K66" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L66" t="str">
         <f t="shared" ref="L66:L91" si="1">CONCATENATE(B66,D66,E66,I66)</f>
         <v>CROCTUS NYREFDEM559112044201</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E67">
         <v>120</v>
@@ -5759,10 +5701,10 @@
         <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>61</v>
-      </c>
-      <c r="H67" t="s">
-        <v>24</v>
+        <v>56</v>
+      </c>
+      <c r="H67">
+        <v>0.01</v>
       </c>
       <c r="I67" s="2">
         <v>44201</v>
@@ -5771,37 +5713,37 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="K67" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L67" t="str">
         <f t="shared" si="1"/>
         <v>CROCTUS NYREFDEM559112044201</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E68">
         <v>6720</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G68" t="s">
         <v>16</v>
       </c>
-      <c r="H68" t="s">
-        <v>17</v>
+      <c r="H68">
+        <v>0.02</v>
       </c>
       <c r="I68" s="2">
         <v>44224</v>
@@ -5810,37 +5752,37 @@
         <v>0.55763888888888891</v>
       </c>
       <c r="K68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L68" t="str">
         <f t="shared" si="1"/>
         <v>CROSSSUPPORT SAREFDEM5591672044224</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E69">
         <v>6720</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
-      </c>
-      <c r="H69" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="H69">
+        <v>0.02</v>
       </c>
       <c r="I69" s="2">
         <v>44224</v>
@@ -5849,25 +5791,25 @@
         <v>0.79861111111111116</v>
       </c>
       <c r="K69" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L69" t="str">
         <f t="shared" si="1"/>
         <v>CROSSSUPPORT SAREFDEM5591672044224</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E70">
         <v>6709</v>
@@ -5878,8 +5820,8 @@
       <c r="G70" t="s">
         <v>16</v>
       </c>
-      <c r="H70" t="s">
-        <v>24</v>
+      <c r="H70">
+        <v>0.01</v>
       </c>
       <c r="I70" s="2">
         <v>44209</v>
@@ -5888,37 +5830,37 @@
         <v>0.60555555555555551</v>
       </c>
       <c r="K70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="1"/>
         <v>CANONIC REFDEM9992670944209</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E71">
         <v>6709</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G71" t="s">
-        <v>58</v>
-      </c>
-      <c r="H71" t="s">
-        <v>34</v>
+        <v>53</v>
+      </c>
+      <c r="H71">
+        <v>0.03</v>
       </c>
       <c r="I71" s="2">
         <v>44209</v>
@@ -5927,25 +5869,25 @@
         <v>0.60555555555555551</v>
       </c>
       <c r="K71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L71" t="str">
         <f t="shared" si="1"/>
         <v>CANONIC REFDEM9992670944209</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E72">
         <v>800</v>
@@ -5954,10 +5896,10 @@
         <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>61</v>
-      </c>
-      <c r="H72" t="s">
-        <v>24</v>
+        <v>56</v>
+      </c>
+      <c r="H72">
+        <v>0.01</v>
       </c>
       <c r="I72" s="2">
         <v>44157</v>
@@ -5966,25 +5908,25 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="K72" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L72" t="str">
         <f t="shared" si="1"/>
         <v>ICRETA NV.REFDEMO0180044157</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E73">
         <v>1025</v>
@@ -5995,8 +5937,8 @@
       <c r="G73" t="s">
         <v>16</v>
       </c>
-      <c r="H73" t="s">
-        <v>17</v>
+      <c r="H73">
+        <v>0.02</v>
       </c>
       <c r="I73" s="2">
         <v>44520</v>
@@ -6005,25 +5947,25 @@
         <v>0.43263888888888885</v>
       </c>
       <c r="K73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L73" t="str">
         <f t="shared" si="1"/>
         <v>Beta NV.REFDEMO01102544520</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E74">
         <v>1025</v>
@@ -6032,10 +5974,10 @@
         <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
-      </c>
-      <c r="H74" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="H74">
+        <v>0.01</v>
       </c>
       <c r="I74" s="2">
         <v>44521</v>
@@ -6044,25 +5986,25 @@
         <v>0.48055555555555557</v>
       </c>
       <c r="K74" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L74" t="str">
         <f t="shared" si="1"/>
         <v>Beta NV.REFDEMO01102544521</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E75">
         <v>900</v>
@@ -6073,8 +6015,8 @@
       <c r="G75" t="s">
         <v>16</v>
       </c>
-      <c r="H75" t="s">
-        <v>24</v>
+      <c r="H75">
+        <v>0.01</v>
       </c>
       <c r="I75" s="2">
         <v>44522</v>
@@ -6083,25 +6025,25 @@
         <v>0.46666666666666662</v>
       </c>
       <c r="K75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L75" t="str">
         <f t="shared" si="1"/>
         <v>BETA NV.REFDEMO0190044522</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E76">
         <v>900</v>
@@ -6110,10 +6052,10 @@
         <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
-      </c>
-      <c r="H76" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="H76">
+        <v>0.01</v>
       </c>
       <c r="I76" s="2">
         <v>44524</v>
@@ -6122,25 +6064,25 @@
         <v>0.61388888888888882</v>
       </c>
       <c r="K76" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L76" t="str">
         <f t="shared" si="1"/>
         <v>BETA NV.REFDEMO0190044524</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E77">
         <v>800</v>
@@ -6151,8 +6093,8 @@
       <c r="G77" t="s">
         <v>16</v>
       </c>
-      <c r="H77" t="s">
-        <v>24</v>
+      <c r="H77">
+        <v>0.01</v>
       </c>
       <c r="I77" s="2">
         <v>44155</v>
@@ -6161,25 +6103,25 @@
         <v>0.3833333333333333</v>
       </c>
       <c r="K77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L77" t="str">
         <f t="shared" si="1"/>
         <v>ICRETA NV.REFDEMO0180044155</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E78">
         <v>87600</v>
@@ -6190,8 +6132,8 @@
       <c r="G78" t="s">
         <v>16</v>
       </c>
-      <c r="H78" t="s">
-        <v>24</v>
+      <c r="H78">
+        <v>0.01</v>
       </c>
       <c r="I78" s="2">
         <v>44156</v>
@@ -6200,25 +6142,25 @@
         <v>0.47430555555555554</v>
       </c>
       <c r="K78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L78" t="str">
         <f t="shared" si="1"/>
         <v>ISUPPLIER1 US.REFDEMO018760044156</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E79">
         <v>87600</v>
@@ -6227,10 +6169,10 @@
         <v>15</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
-      </c>
-      <c r="H79" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="H79">
+        <v>0.01</v>
       </c>
       <c r="I79" s="2">
         <v>44156</v>
@@ -6239,25 +6181,25 @@
         <v>0.59166666666666667</v>
       </c>
       <c r="K79" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L79" t="str">
         <f t="shared" si="1"/>
         <v>ISUPPLIER1 US.REFDEMO018760044156</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E80">
         <v>1025</v>
@@ -6268,8 +6210,8 @@
       <c r="G80" t="s">
         <v>16</v>
       </c>
-      <c r="H80" t="s">
-        <v>41</v>
+      <c r="H80">
+        <v>0.08</v>
       </c>
       <c r="I80" s="2">
         <v>44155</v>
@@ -6278,25 +6220,25 @@
         <v>0.47152777777777777</v>
       </c>
       <c r="K80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L80" t="str">
         <f t="shared" si="1"/>
         <v>IntellectEU NV.REFDEMO02102544155</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E81">
         <v>1025</v>
@@ -6305,10 +6247,10 @@
         <v>15</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
-      </c>
-      <c r="H81" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="H81">
+        <v>0.08</v>
       </c>
       <c r="I81" s="2">
         <v>44155</v>
@@ -6317,25 +6259,25 @@
         <v>0.88194444444444453</v>
       </c>
       <c r="K81" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L81" t="str">
         <f t="shared" si="1"/>
         <v>IntellectEU NV.REFDEMO02102544155</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E82">
         <v>1600</v>
@@ -6346,8 +6288,8 @@
       <c r="G82" t="s">
         <v>16</v>
       </c>
-      <c r="H82" t="s">
-        <v>75</v>
+      <c r="H82">
+        <v>0.04</v>
       </c>
       <c r="I82" s="2">
         <v>44162</v>
@@ -6356,25 +6298,25 @@
         <v>0.40625</v>
       </c>
       <c r="K82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L82" t="str">
         <f t="shared" si="1"/>
         <v>ISUPPLIER2 PL.REFDEMO901160044162</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E83">
         <v>1600</v>
@@ -6383,10 +6325,10 @@
         <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>61</v>
-      </c>
-      <c r="H83" t="s">
-        <v>24</v>
+        <v>56</v>
+      </c>
+      <c r="H83">
+        <v>0.01</v>
       </c>
       <c r="I83" s="2">
         <v>44162</v>
@@ -6395,25 +6337,25 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="K83" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L83" t="str">
         <f t="shared" si="1"/>
         <v>ISUPPLIER2 PL.REFDEMO901160044162</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E84">
         <v>4537</v>
@@ -6424,8 +6366,8 @@
       <c r="G84" t="s">
         <v>16</v>
       </c>
-      <c r="H84" t="s">
-        <v>17</v>
+      <c r="H84">
+        <v>0.02</v>
       </c>
       <c r="I84" s="2">
         <v>44271</v>
@@ -6434,25 +6376,25 @@
         <v>41548</v>
       </c>
       <c r="K84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L84" t="str">
-        <f>CONCATENATE(B84,D84,E84,I84)</f>
+        <f t="shared" ref="L84:L89" si="2">CONCATENATE(B84,D84,E84,I84)</f>
         <v>ACME ONE CORP. REFTEST01453744271</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E85">
         <v>4537</v>
@@ -6461,10 +6403,10 @@
         <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="H85">
+        <v>0.01</v>
       </c>
       <c r="I85" s="2">
         <v>44271</v>
@@ -6473,25 +6415,25 @@
         <v>0.53125</v>
       </c>
       <c r="K85" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L85" t="str">
-        <f>CONCATENATE(B85,D85,E85,I85)</f>
+        <f t="shared" si="2"/>
         <v>ACME ONE CORP. REFTEST01453744271</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E86">
         <v>4537</v>
@@ -6500,10 +6442,10 @@
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>26</v>
-      </c>
-      <c r="H86" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="H86">
+        <v>0.02</v>
       </c>
       <c r="I86" s="2">
         <v>44273</v>
@@ -6512,25 +6454,25 @@
         <v>0.59375</v>
       </c>
       <c r="K86" t="s">
+        <v>19</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="2"/>
+        <v>ACME ONE CORP. REFTEST01453744273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
         <v>21</v>
-      </c>
-      <c r="L86" t="str">
-        <f>CONCATENATE(B86,D86,E86,I86)</f>
-        <v>ACME ONE CORP. REFTEST01453744273</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" t="s">
-        <v>22</v>
-      </c>
-      <c r="C87" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" t="s">
-        <v>23</v>
       </c>
       <c r="E87">
         <v>2345</v>
@@ -6541,8 +6483,8 @@
       <c r="G87" t="s">
         <v>16</v>
       </c>
-      <c r="H87" t="s">
-        <v>17</v>
+      <c r="H87">
+        <v>0.02</v>
       </c>
       <c r="I87" s="2">
         <v>44549</v>
@@ -6551,25 +6493,25 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="K87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L87" t="str">
-        <f>CONCATENATE(B87,D87,E87,I87)</f>
+        <f t="shared" si="2"/>
         <v>ACME ONE CORP. REFTEST01234544549</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E88">
         <v>2345</v>
@@ -6578,10 +6520,10 @@
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>19</v>
-      </c>
-      <c r="H88" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="H88">
+        <v>0.01</v>
       </c>
       <c r="I88" s="2">
         <v>44550</v>
@@ -6590,25 +6532,25 @@
         <v>0.56180555555555556</v>
       </c>
       <c r="K88" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L88" t="str">
-        <f>CONCATENATE(B88,D88,E88,I88)</f>
+        <f t="shared" si="2"/>
         <v>ACME ONE CORP. REFTEST01234544550</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E89">
         <v>2345</v>
@@ -6617,10 +6559,10 @@
         <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>26</v>
-      </c>
-      <c r="H89" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="H89">
+        <v>0.02</v>
       </c>
       <c r="I89" s="2">
         <v>44550</v>
@@ -6629,25 +6571,25 @@
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L89" t="str">
-        <f>CONCATENATE(B89,D89,E89,I89)</f>
+        <f t="shared" si="2"/>
         <v>ACME ONE CORP. REFTEST01234544550</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E90">
         <v>12100</v>
@@ -6658,8 +6600,8 @@
       <c r="G90" t="s">
         <v>16</v>
       </c>
-      <c r="H90" t="s">
-        <v>41</v>
+      <c r="H90">
+        <v>0.08</v>
       </c>
       <c r="I90" s="2">
         <v>44278</v>
@@ -6668,25 +6610,25 @@
         <v>0.34166666666666662</v>
       </c>
       <c r="K90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L90" t="str">
         <f t="shared" si="1"/>
         <v>ZERO LTD.REFZ9991210044278</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E91">
         <v>12100</v>
@@ -6695,10 +6637,10 @@
         <v>15</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
-      </c>
-      <c r="H91" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="H91">
+        <v>0.08</v>
       </c>
       <c r="I91" s="2">
         <v>44278</v>
@@ -6707,7 +6649,7 @@
         <v>0.52361111111111114</v>
       </c>
       <c r="K91" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L91" t="str">
         <f t="shared" si="1"/>
@@ -6716,11 +6658,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L91" xr:uid="{193B71A7-6D10-47CD-A9B7-B6CF6DD4F518}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="REF001"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A84:L89">
       <sortCondition ref="I1:I91"/>
     </sortState>

--- a/Work_files/Payments_AS.xlsx
+++ b/Work_files/Payments_AS.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shinemet\Ironhack\Projects\Project6\Work_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7D6654-9E5A-4225-BC91-53F902E791FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E3AAD7-A2AC-4E30-9251-707AE5C8A27C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC262E73-C69C-4C2A-8A9A-BDDEF9F428A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{EC262E73-C69C-4C2A-8A9A-BDDEF9F428A1}"/>
   </bookViews>
   <sheets>
     <sheet name="PIVOT" sheetId="2" r:id="rId1"/>
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATA!$A$1:$L$91</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">DATA!$A$1:$L$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATA!$A$1:$M$91</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">DATA!$A$1:$M$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="125">
   <si>
     <t>Debtor</t>
   </si>
@@ -288,14 +288,135 @@
   </si>
   <si>
     <t>(All)</t>
+  </si>
+  <si>
+    <t>Date-Time</t>
+  </si>
+  <si>
+    <t>Beta CorpREF0013326</t>
+  </si>
+  <si>
+    <t>Beta CorpREF00112000</t>
+  </si>
+  <si>
+    <t>Beta CorpREF001DEMO1100</t>
+  </si>
+  <si>
+    <t>ACME TWO SCRLREF1115643</t>
+  </si>
+  <si>
+    <t>ACME TWO SCRLREF11130000</t>
+  </si>
+  <si>
+    <t>HAMILTON LTD.REF2012100</t>
+  </si>
+  <si>
+    <t>ACME TRUST.REF2112000</t>
+  </si>
+  <si>
+    <t>ACME TRUST.REF2123900</t>
+  </si>
+  <si>
+    <t>ACME PRIVATE.REF2117890</t>
+  </si>
+  <si>
+    <t>ACME INVEST.REF21110000</t>
+  </si>
+  <si>
+    <t>ACME TRADE.REF21111000</t>
+  </si>
+  <si>
+    <t>ACME TRADE.REF21112000</t>
+  </si>
+  <si>
+    <t>ACME PRIVATE.REF2111000000</t>
+  </si>
+  <si>
+    <t>DELTA INC REFD1009267569</t>
+  </si>
+  <si>
+    <t>TRADE INC REFD1019267569</t>
+  </si>
+  <si>
+    <t>ALT INC REFD2021024569</t>
+  </si>
+  <si>
+    <t>ALT INC REFD20210212400</t>
+  </si>
+  <si>
+    <t>ALT-2 INC REFD202103456</t>
+  </si>
+  <si>
+    <t>ALT-2 INC REFD20210317430</t>
+  </si>
+  <si>
+    <t>SIGMA INC REFD543103456</t>
+  </si>
+  <si>
+    <t>QUATRO INC REFD5431043100</t>
+  </si>
+  <si>
+    <t>CARGO INC REFD5431051100</t>
+  </si>
+  <si>
+    <t>TRADE INC REFD5431051100</t>
+  </si>
+  <si>
+    <t>CRETA SUPPORTREFDEM00915188</t>
+  </si>
+  <si>
+    <t>BRITA SUPPORTREFDEM012238</t>
+  </si>
+  <si>
+    <t>SOCIETE GEN SAREFDEM1591348</t>
+  </si>
+  <si>
+    <t>CROCTUS NYREFDEM5591120</t>
+  </si>
+  <si>
+    <t>CROSSSUPPORT SAREFDEM55916720</t>
+  </si>
+  <si>
+    <t>CANONIC REFDEM99926709</t>
+  </si>
+  <si>
+    <t>ICRETA NV.REFDEMO01800</t>
+  </si>
+  <si>
+    <t>BETA NV.REFDEMO01900</t>
+  </si>
+  <si>
+    <t>Beta NV.REFDEMO011025</t>
+  </si>
+  <si>
+    <t>ISUPPLIER1 US.REFDEMO0187600</t>
+  </si>
+  <si>
+    <t>IntellectEU NV.REFDEMO021025</t>
+  </si>
+  <si>
+    <t>ISUPPLIER2 PL.REFDEMO9011600</t>
+  </si>
+  <si>
+    <t>ACME ONE CORP. REFTEST012345</t>
+  </si>
+  <si>
+    <t>ACME ONE CORP. REFTEST014537</t>
+  </si>
+  <si>
+    <t>ZERO LTD.REFZ99912100</t>
+  </si>
+  <si>
+    <t>Unique_Ref</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -340,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -349,12 +470,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="d/m/yy\ h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -370,7 +506,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anna Shin" refreshedDate="44582.498227199074" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{47447239-272C-45B4-A039-49C358DF5AD3}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K91" sheet="DATA"/>
+    <worksheetSource ref="A1:L91" sheet="DATA"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="Debtor" numFmtId="0">
@@ -1733,7 +1869,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCF3493A-B307-4E69-B67C-90176D3A5CE8}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCF3493A-B307-4E69-B67C-90176D3A5CE8}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:I35" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -2071,6 +2207,33 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FD93443-3896-49C4-A85A-D6D7D986169B}" name="Table1" displayName="Table1" ref="A1:M91" totalsRowShown="0">
+  <autoFilter ref="A1:M91" xr:uid="{193B71A7-6D10-47CD-A9B7-B6CF6DD4F518}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M91">
+    <sortCondition ref="D2:D91"/>
+    <sortCondition ref="E2:E91"/>
+    <sortCondition ref="K2:K91"/>
+  </sortState>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{53324B2E-8F16-40C0-A24B-2913E73992C4}" name="Debtor"/>
+    <tableColumn id="2" xr3:uid="{8988DF79-2383-42A7-B735-6772E3B96678}" name="Creditor"/>
+    <tableColumn id="3" xr3:uid="{B7D3EE5A-3A02-4DB2-B3D9-356D29202D0B}" name="Type"/>
+    <tableColumn id="4" xr3:uid="{F73F190B-5CF9-429C-9799-2FE2223F1E07}" name="Reference"/>
+    <tableColumn id="5" xr3:uid="{EFF7BC00-7F50-493E-8746-497F119838AE}" name="Initial Amount"/>
+    <tableColumn id="6" xr3:uid="{008C794C-4E93-4479-9375-ECC53541480A}" name="Currency"/>
+    <tableColumn id="7" xr3:uid="{2495B3C5-1619-462F-B04A-4B452B40E054}" name="Bank"/>
+    <tableColumn id="8" xr3:uid="{9FE0F7A5-58EF-4863-A9D1-1C66E8AD213D}" name="Charges"/>
+    <tableColumn id="9" xr3:uid="{0F5F4C44-58EE-461D-99BD-9065104240C9}" name="Date" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{87008F66-CA80-4820-AD11-8D9F1BCB341D}" name="Time (local)" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{72B68412-4B91-41A6-AACB-168227A5F484}" name="Date-Time" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{5EF95A3D-4C8E-4476-95A5-718A576B10D9}" name="Status"/>
+    <tableColumn id="13" xr3:uid="{67E7DDFA-4BD5-40DE-B764-59D6D882B98A}" name="Unique_Ref" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2370,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFB8868-FA01-45F0-901B-FD745140736E}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3085,10 +3248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF87D3-5296-44C7-898D-811DB0F715A2}">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3103,11 +3266,12 @@
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3138,15 +3302,17 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="str">
-        <f>CONCATENATE(B1,D1,E1,I1)</f>
-        <v>CreditorReferenceInitial AmountDate</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3160,7 +3326,7 @@
         <v>40</v>
       </c>
       <c r="E2">
-        <v>12000</v>
+        <v>3326</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -3172,20 +3338,22 @@
         <v>0.01</v>
       </c>
       <c r="I2" s="2">
-        <v>44474</v>
+        <v>44571</v>
       </c>
       <c r="J2" s="1">
         <v>0.52986111111111112</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="8">
+        <v>44571.529861111114</v>
+      </c>
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="str">
-        <f t="shared" ref="L2:L65" si="0">CONCATENATE(B2,D2,E2,I2)</f>
-        <v>Beta CorpREF0011200044474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3199,7 +3367,7 @@
         <v>40</v>
       </c>
       <c r="E3">
-        <v>12000</v>
+        <v>3326</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -3211,20 +3379,23 @@
         <v>0.02</v>
       </c>
       <c r="I3" s="2">
-        <v>44474</v>
+        <v>44572</v>
       </c>
       <c r="J3" s="1">
         <v>0.60555555555555551</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="8">
+        <v>44572.605555555558</v>
+      </c>
+      <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" t="str">
-        <f t="shared" si="0"/>
-        <v>Beta CorpREF0011200044474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M4" si="0">M2</f>
+        <v>Beta CorpREF0013326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3238,7 +3409,7 @@
         <v>40</v>
       </c>
       <c r="E4">
-        <v>12000</v>
+        <v>3326</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -3250,20 +3421,23 @@
         <v>0.01</v>
       </c>
       <c r="I4" s="2">
-        <v>44476</v>
+        <v>44572</v>
       </c>
       <c r="J4" s="1">
         <v>0.76458333333333339</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="8">
+        <v>44572.76458333333</v>
+      </c>
+      <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>Beta CorpREF0011200044476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>Beta CorpREF0013326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3277,7 +3451,7 @@
         <v>40</v>
       </c>
       <c r="E5">
-        <v>3326</v>
+        <v>12000</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -3286,23 +3460,25 @@
         <v>16</v>
       </c>
       <c r="H5">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I5" s="2">
-        <v>44572</v>
+        <v>44474</v>
       </c>
       <c r="J5" s="1">
-        <v>0.60555555555555551</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="0"/>
-        <v>Beta CorpREF001332644572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="K5" s="8">
+        <v>44474.529861111114</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3316,32 +3492,35 @@
         <v>40</v>
       </c>
       <c r="E6">
-        <v>3326</v>
+        <v>12000</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I6" s="2">
-        <v>44572</v>
+        <v>44474</v>
       </c>
       <c r="J6" s="1">
-        <v>0.76458333333333339</v>
-      </c>
-      <c r="K6" t="s">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="K6" s="8">
+        <v>44474.605555555558</v>
+      </c>
+      <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v>Beta CorpREF001332644572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" t="str">
+        <f t="shared" ref="M6:M7" si="1">M5</f>
+        <v>Beta CorpREF00112000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3355,32 +3534,35 @@
         <v>40</v>
       </c>
       <c r="E7">
-        <v>3326</v>
+        <v>12000</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>0.01</v>
       </c>
       <c r="I7" s="2">
-        <v>44571</v>
+        <v>44476</v>
       </c>
       <c r="J7" s="1">
-        <v>0.52986111111111112</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>Beta CorpREF001332644571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="K7" s="8">
+        <v>44476.76458333333</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>Beta CorpREF00112000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3411,15 +3593,17 @@
       <c r="J8" s="1">
         <v>0.65486111111111112</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="8">
+        <v>44234.654861111114</v>
+      </c>
+      <c r="L8" t="s">
         <v>17</v>
       </c>
-      <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>Beta CorpREF001DEMO110044234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3450,15 +3634,18 @@
       <c r="J9" s="1">
         <v>0.72291666666666676</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="8">
+        <v>44235.722916666666</v>
+      </c>
+      <c r="L9" t="s">
         <v>19</v>
       </c>
-      <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v>Beta CorpREF001DEMO110044235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" t="str">
+        <f t="shared" ref="M9:M10" si="2">M8</f>
+        <v>Beta CorpREF001DEMO1100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3472,32 +3659,35 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>5643</v>
+        <v>3000</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H10">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I10" s="2">
-        <v>44275</v>
+        <v>44306</v>
       </c>
       <c r="J10" s="1">
-        <v>0.55138888888888882</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME TWO SCRLREF111564344275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="K10" s="8">
+        <v>44306.523611111108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>Beta CorpREF001DEMO1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3517,26 +3707,28 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H11">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I11" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="J11" s="1">
-        <v>0.52361111111111114</v>
-      </c>
-      <c r="K11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME TWO SCRLREF111564344276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="K11" s="8">
+        <v>44275.551388888889</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3550,32 +3742,35 @@
         <v>33</v>
       </c>
       <c r="E12">
-        <v>30000</v>
+        <v>5643</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H12">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I12" s="2">
-        <v>44305</v>
+        <v>44276</v>
       </c>
       <c r="J12" s="1">
-        <v>0.55138888888888882</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME TWO SCRLREF1113000044305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="K12" s="8">
+        <v>44276.523611111108</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="str">
+        <f>M11</f>
+        <v>ACME TWO SCRLREF1115643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3589,32 +3784,34 @@
         <v>33</v>
       </c>
       <c r="E13">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H13">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I13" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="J13" s="1">
-        <v>0.52361111111111114</v>
-      </c>
-      <c r="K13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME TWO SCRLREF111300044306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="K13" s="8">
+        <v>44305.551388888889</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3645,15 +3842,17 @@
       <c r="J14" s="1">
         <v>0.59166666666666667</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="8">
+        <v>44277.591666666667</v>
+      </c>
+      <c r="L14" t="s">
         <v>17</v>
       </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>HAMILTON LTD.REF201210044277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -3684,15 +3883,18 @@
       <c r="J15" s="1">
         <v>0.71527777777777779</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="8">
+        <v>44277.715277777781</v>
+      </c>
+      <c r="L15" t="s">
         <v>19</v>
       </c>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>HAMILTON LTD.REF201210044277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" t="str">
+        <f>M14</f>
+        <v>HAMILTON LTD.REF2012100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3723,15 +3925,17 @@
       <c r="J16" s="1">
         <v>0.42430555555555555</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="8">
+        <v>44388.424305555556</v>
+      </c>
+      <c r="L16" t="s">
         <v>17</v>
       </c>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME TRUST.REF211200044388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -3762,15 +3966,18 @@
       <c r="J17" s="1">
         <v>0.7319444444444444</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="8">
+        <v>44388.731944444444</v>
+      </c>
+      <c r="L17" t="s">
         <v>31</v>
       </c>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME TRUST.REF211200044388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" t="str">
+        <f>M16</f>
+        <v>ACME TRUST.REF2112000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -3801,15 +4008,17 @@
       <c r="J18" s="1">
         <v>0.42430555555555555</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="8">
+        <v>44271.424305555556</v>
+      </c>
+      <c r="L18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME TRUST.REF212390044271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -3840,20 +4049,23 @@
       <c r="J19" s="1">
         <v>0.7319444444444444</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="8">
+        <v>44271.731944444444</v>
+      </c>
+      <c r="L19" t="s">
         <v>31</v>
       </c>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME TRUST.REF212390044271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" t="str">
+        <f>M18</f>
+        <v>ACME TRUST.REF2123900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -3862,7 +4074,7 @@
         <v>14</v>
       </c>
       <c r="E20">
-        <v>10000</v>
+        <v>7890</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -3871,28 +4083,30 @@
         <v>16</v>
       </c>
       <c r="H20">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I20" s="2">
-        <v>44217</v>
+        <v>44297</v>
       </c>
       <c r="J20" s="1">
-        <v>0.40625</v>
-      </c>
-      <c r="K20" t="s">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="K20" s="8">
+        <v>44297.523611111108</v>
+      </c>
+      <c r="L20" t="s">
         <v>17</v>
       </c>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME INVEST.REF2111000044217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -3901,37 +4115,40 @@
         <v>14</v>
       </c>
       <c r="E21">
-        <v>10000</v>
+        <v>7890</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H21">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I21" s="2">
-        <v>44223</v>
+        <v>44297</v>
       </c>
       <c r="J21" s="1">
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="K21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME INVEST.REF2111000044223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="K21" s="8">
+        <v>44297.716666666667</v>
+      </c>
+      <c r="L21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" ref="M21:M22" si="3">M20</f>
+        <v>ACME PRIVATE.REF2117890</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -3940,37 +4157,40 @@
         <v>14</v>
       </c>
       <c r="E22">
-        <v>12000</v>
+        <v>7890</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H22">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I22" s="2">
-        <v>44240</v>
+        <v>44299</v>
       </c>
       <c r="J22" s="1">
-        <v>0.38611111111111113</v>
-      </c>
-      <c r="K22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME TRADE.REF2111200044240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="K22" s="8">
+        <v>44299.756944444445</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="3"/>
+        <v>ACME PRIVATE.REF2117890</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -3979,32 +4199,34 @@
         <v>14</v>
       </c>
       <c r="E23">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H23">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" s="2">
-        <v>44241</v>
+        <v>44217</v>
       </c>
       <c r="J23" s="1">
-        <v>0.52222222222222225</v>
-      </c>
-      <c r="K23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME TRADE.REF2111200044241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.40625</v>
+      </c>
+      <c r="K23" s="8">
+        <v>44217.40625</v>
+      </c>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -4030,25 +4252,28 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I24" s="2">
-        <v>44272</v>
+        <v>44223</v>
       </c>
       <c r="J24" s="1">
-        <v>0.65625</v>
-      </c>
-      <c r="K24" t="s">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="K24" s="8">
+        <v>44223.533333333333</v>
+      </c>
+      <c r="L24" t="s">
         <v>19</v>
       </c>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME INVEST.REF2111000044272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" t="str">
+        <f>M23</f>
+        <v>ACME INVEST.REF21110000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -4057,7 +4282,7 @@
         <v>14</v>
       </c>
       <c r="E25">
-        <v>7890</v>
+        <v>10000</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
@@ -4066,28 +4291,30 @@
         <v>16</v>
       </c>
       <c r="H25">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I25" s="2">
-        <v>44297</v>
+        <v>44271</v>
       </c>
       <c r="J25" s="1">
-        <v>0.52361111111111114</v>
-      </c>
-      <c r="K25" t="s">
+        <v>0.34375</v>
+      </c>
+      <c r="K25" s="8">
+        <v>44271.34375</v>
+      </c>
+      <c r="L25" t="s">
         <v>17</v>
       </c>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME PRIVATE.REF211789044297</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -4096,37 +4323,40 @@
         <v>14</v>
       </c>
       <c r="E26">
-        <v>7890</v>
+        <v>10000</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H26">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I26" s="2">
-        <v>44297</v>
+        <v>44272</v>
       </c>
       <c r="J26" s="1">
-        <v>0.71666666666666667</v>
-      </c>
-      <c r="K26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME PRIVATE.REF211789044297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.65625</v>
+      </c>
+      <c r="K26" s="8">
+        <v>44272.65625</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" t="str">
+        <f>M25</f>
+        <v>ACME INVEST.REF21110000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -4135,37 +4365,39 @@
         <v>14</v>
       </c>
       <c r="E27">
-        <v>7890</v>
+        <v>11000</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H27">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="I27" s="2">
-        <v>44299</v>
+        <v>44271</v>
       </c>
       <c r="J27" s="1">
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="K27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME PRIVATE.REF211789044299</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="K27" s="8">
+        <v>44271.386111111111</v>
+      </c>
+      <c r="L27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -4174,37 +4406,40 @@
         <v>14</v>
       </c>
       <c r="E28">
-        <v>1000000</v>
+        <v>11000</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
         <v>26</v>
       </c>
       <c r="H28">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="I28" s="2">
-        <v>44503</v>
+        <v>44271</v>
       </c>
       <c r="J28" s="1">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="K28" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME PRIVATE.REF211100000044503</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="K28" s="8">
+        <v>44271.522222222222</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" t="str">
+        <f>M27</f>
+        <v>ACME TRADE.REF21111000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -4213,37 +4448,39 @@
         <v>14</v>
       </c>
       <c r="E29">
-        <v>1000000</v>
+        <v>12000</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H29">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="I29" s="2">
-        <v>44503</v>
+        <v>44240</v>
       </c>
       <c r="J29" s="1">
-        <v>0.7319444444444444</v>
-      </c>
-      <c r="K29" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME PRIVATE.REF211100000044503</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="K29" s="8">
+        <v>44240.386111111111</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -4252,37 +4489,40 @@
         <v>14</v>
       </c>
       <c r="E30">
-        <v>1000000</v>
+        <v>12000</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H30">
         <v>0.01</v>
       </c>
       <c r="I30" s="2">
-        <v>44502</v>
+        <v>44241</v>
       </c>
       <c r="J30" s="1">
-        <v>0.35694444444444445</v>
-      </c>
-      <c r="K30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME PRIVATE.REF211100000044502</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="K30" s="8">
+        <v>44241.522222222222</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" t="str">
+        <f>M29</f>
+        <v>ACME TRADE.REF21112000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -4291,7 +4531,7 @@
         <v>14</v>
       </c>
       <c r="E31">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="F31" t="s">
         <v>15</v>
@@ -4300,28 +4540,30 @@
         <v>16</v>
       </c>
       <c r="H31">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I31" s="2">
-        <v>44271</v>
+        <v>44502</v>
       </c>
       <c r="J31" s="1">
-        <v>0.34375</v>
-      </c>
-      <c r="K31" t="s">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="K31" s="8">
+        <v>44502.356944444444</v>
+      </c>
+      <c r="L31" t="s">
         <v>17</v>
       </c>
-      <c r="L31" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME INVEST.REF2111000044271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -4330,37 +4572,40 @@
         <v>14</v>
       </c>
       <c r="E32">
-        <v>11000</v>
+        <v>1000000</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H32">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I32" s="2">
-        <v>44271</v>
+        <v>44503</v>
       </c>
       <c r="J32" s="1">
-        <v>0.38611111111111113</v>
-      </c>
-      <c r="K32" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME TRADE.REF2111100044271</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="K32" s="8">
+        <v>44503.527777777781</v>
+      </c>
+      <c r="L32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" ref="M32:M33" si="4">M31</f>
+        <v>ACME PRIVATE.REF2111000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -4369,32 +4614,35 @@
         <v>14</v>
       </c>
       <c r="E33">
-        <v>11000</v>
+        <v>1000000</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H33">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I33" s="2">
-        <v>44271</v>
+        <v>44503</v>
       </c>
       <c r="J33" s="1">
-        <v>0.52222222222222225</v>
-      </c>
-      <c r="K33" t="s">
+        <v>0.7319444444444444</v>
+      </c>
+      <c r="K33" s="8">
+        <v>44503.731944444444</v>
+      </c>
+      <c r="L33" t="s">
         <v>19</v>
       </c>
-      <c r="L33" t="str">
-        <f t="shared" si="0"/>
-        <v>ACME TRADE.REF2111100044271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33" t="str">
+        <f t="shared" si="4"/>
+        <v>ACME PRIVATE.REF2111000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -4425,15 +4673,17 @@
       <c r="J34" s="1">
         <v>0.47430555555555554</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="8">
+        <v>44209.474305555559</v>
+      </c>
+      <c r="L34" t="s">
         <v>17</v>
       </c>
-      <c r="L34" t="str">
-        <f t="shared" si="0"/>
-        <v>DELTA INC REFD100926756944209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -4464,15 +4714,18 @@
       <c r="J35" s="1">
         <v>0.53125</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="8">
+        <v>44209.53125</v>
+      </c>
+      <c r="L35" t="s">
         <v>19</v>
       </c>
-      <c r="L35" t="str">
-        <f t="shared" si="0"/>
-        <v>DELTA INC REFD100926756944209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35" t="str">
+        <f>M34</f>
+        <v>DELTA INC REFD1009267569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -4492,26 +4745,28 @@
         <v>25</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H36">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="I36" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="J36" s="1">
-        <v>0.73055555555555562</v>
-      </c>
-      <c r="K36" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" t="str">
-        <f t="shared" si="0"/>
-        <v>TRADE INC REFD101926756944218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="K36" s="8">
+        <v>44217.412499999999</v>
+      </c>
+      <c r="L36" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -4531,26 +4786,29 @@
         <v>25</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H37">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="I37" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="J37" s="1">
-        <v>0.41250000000000003</v>
-      </c>
-      <c r="K37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" t="str">
-        <f t="shared" si="0"/>
-        <v>TRADE INC REFD101926756944217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="K37" s="8">
+        <v>44218.730555555558</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" t="str">
+        <f>M36</f>
+        <v>TRADE INC REFD1019267569</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -4564,7 +4822,7 @@
         <v>35</v>
       </c>
       <c r="E38">
-        <v>12400</v>
+        <v>4569</v>
       </c>
       <c r="F38" t="s">
         <v>15</v>
@@ -4576,20 +4834,22 @@
         <v>0.02</v>
       </c>
       <c r="I38" s="2">
-        <v>44454</v>
+        <v>44248</v>
       </c>
       <c r="J38" s="1">
         <v>0.43263888888888885</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="8">
+        <v>44248.432638888888</v>
+      </c>
+      <c r="L38" t="s">
         <v>17</v>
       </c>
-      <c r="L38" t="str">
-        <f t="shared" si="0"/>
-        <v>ALT INC REFD2021021240044454</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -4603,7 +4863,7 @@
         <v>35</v>
       </c>
       <c r="E39" s="5">
-        <v>12400</v>
+        <v>4569</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>15</v>
@@ -4615,20 +4875,23 @@
         <v>0.01</v>
       </c>
       <c r="I39" s="6">
-        <v>44455</v>
+        <v>44248</v>
       </c>
       <c r="J39" s="7">
         <v>0.48819444444444443</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="9">
+        <v>44248.488194444442</v>
+      </c>
+      <c r="L39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L39" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ALT INC REFD2021021240044455</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="5" t="str">
+        <f t="shared" ref="M39:M40" si="5">M38</f>
+        <v>ALT INC REFD2021024569</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>11</v>
       </c>
@@ -4642,7 +4905,7 @@
         <v>35</v>
       </c>
       <c r="E40" s="5">
-        <v>12400</v>
+        <v>4569</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>15</v>
@@ -4654,20 +4917,23 @@
         <v>0.08</v>
       </c>
       <c r="I40" s="6">
-        <v>44455</v>
+        <v>44248</v>
       </c>
       <c r="J40" s="7">
         <v>0.70972222222222225</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="9">
+        <v>44248.709722222222</v>
+      </c>
+      <c r="L40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L40" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ALT INC REFD2021021240044455</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>ALT INC REFD2021024569</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -4681,7 +4947,7 @@
         <v>35</v>
       </c>
       <c r="E41">
-        <v>4569</v>
+        <v>12400</v>
       </c>
       <c r="F41" t="s">
         <v>15</v>
@@ -4693,20 +4959,22 @@
         <v>0.02</v>
       </c>
       <c r="I41" s="2">
-        <v>44248</v>
+        <v>44454</v>
       </c>
       <c r="J41" s="1">
         <v>0.43263888888888885</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="8">
+        <v>44454.432638888888</v>
+      </c>
+      <c r="L41" t="s">
         <v>17</v>
       </c>
-      <c r="L41" t="str">
-        <f t="shared" si="0"/>
-        <v>ALT INC REFD202102456944248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>11</v>
       </c>
@@ -4720,7 +4988,7 @@
         <v>35</v>
       </c>
       <c r="E42" s="5">
-        <v>4569</v>
+        <v>12400</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>15</v>
@@ -4732,20 +5000,23 @@
         <v>0.01</v>
       </c>
       <c r="I42" s="6">
-        <v>44248</v>
+        <v>44455</v>
       </c>
       <c r="J42" s="7">
         <v>0.48819444444444443</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="9">
+        <v>44455.488194444442</v>
+      </c>
+      <c r="L42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ALT INC REFD202102456944248</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="5" t="str">
+        <f t="shared" ref="M42:M43" si="6">M41</f>
+        <v>ALT INC REFD20210212400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>11</v>
       </c>
@@ -4759,7 +5030,7 @@
         <v>35</v>
       </c>
       <c r="E43" s="5">
-        <v>4569</v>
+        <v>12400</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>15</v>
@@ -4771,20 +5042,23 @@
         <v>0.08</v>
       </c>
       <c r="I43" s="6">
-        <v>44248</v>
+        <v>44455</v>
       </c>
       <c r="J43" s="7">
         <v>0.70972222222222225</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="9">
+        <v>44455.709722222222</v>
+      </c>
+      <c r="L43" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L43" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ALT INC REFD202102456944248</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>ALT INC REFD20210212400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -4798,7 +5072,7 @@
         <v>38</v>
       </c>
       <c r="E44">
-        <v>17430</v>
+        <v>456</v>
       </c>
       <c r="F44" t="s">
         <v>15</v>
@@ -4810,20 +5084,22 @@
         <v>0.01</v>
       </c>
       <c r="I44" s="2">
-        <v>44388</v>
+        <v>44253</v>
       </c>
       <c r="J44" s="1">
         <v>0.52986111111111112</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="8">
+        <v>44253.529861111114</v>
+      </c>
+      <c r="L44" t="s">
         <v>17</v>
       </c>
-      <c r="L44" t="str">
-        <f t="shared" si="0"/>
-        <v>ALT-2 INC REFD2021031743044388</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -4837,7 +5113,7 @@
         <v>38</v>
       </c>
       <c r="E45">
-        <v>17430</v>
+        <v>456</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -4849,20 +5125,23 @@
         <v>0.02</v>
       </c>
       <c r="I45" s="2">
-        <v>44389</v>
+        <v>44253</v>
       </c>
       <c r="J45" s="1">
         <v>0.65347222222222223</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="8">
+        <v>44253.65347222222</v>
+      </c>
+      <c r="L45" t="s">
         <v>22</v>
       </c>
-      <c r="L45" t="str">
-        <f t="shared" si="0"/>
-        <v>ALT-2 INC REFD2021031743044389</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45" t="str">
+        <f t="shared" ref="M45:M46" si="7">M44</f>
+        <v>ALT-2 INC REFD202103456</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -4876,7 +5155,7 @@
         <v>38</v>
       </c>
       <c r="E46">
-        <v>17430</v>
+        <v>456</v>
       </c>
       <c r="F46" t="s">
         <v>15</v>
@@ -4888,20 +5167,23 @@
         <v>0.01</v>
       </c>
       <c r="I46" s="2">
-        <v>44390</v>
+        <v>44253</v>
       </c>
       <c r="J46" s="1">
         <v>0.75694444444444453</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="8">
+        <v>44253.756944444445</v>
+      </c>
+      <c r="L46" t="s">
         <v>31</v>
       </c>
-      <c r="L46" t="str">
-        <f t="shared" si="0"/>
-        <v>ALT-2 INC REFD2021031743044390</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46" t="str">
+        <f t="shared" si="7"/>
+        <v>ALT-2 INC REFD202103456</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -4915,7 +5197,7 @@
         <v>38</v>
       </c>
       <c r="E47">
-        <v>456</v>
+        <v>17430</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
@@ -4927,20 +5209,22 @@
         <v>0.01</v>
       </c>
       <c r="I47" s="2">
-        <v>44253</v>
+        <v>44388</v>
       </c>
       <c r="J47" s="1">
         <v>0.52986111111111112</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="8">
+        <v>44388.529861111114</v>
+      </c>
+      <c r="L47" t="s">
         <v>17</v>
       </c>
-      <c r="L47" t="str">
-        <f t="shared" si="0"/>
-        <v>ALT-2 INC REFD20210345644253</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -4954,7 +5238,7 @@
         <v>38</v>
       </c>
       <c r="E48">
-        <v>456</v>
+        <v>17430</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
@@ -4966,20 +5250,23 @@
         <v>0.02</v>
       </c>
       <c r="I48" s="2">
-        <v>44253</v>
+        <v>44389</v>
       </c>
       <c r="J48" s="1">
         <v>0.65347222222222223</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="8">
+        <v>44389.65347222222</v>
+      </c>
+      <c r="L48" t="s">
         <v>22</v>
       </c>
-      <c r="L48" t="str">
-        <f t="shared" si="0"/>
-        <v>ALT-2 INC REFD20210345644253</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48" t="str">
+        <f t="shared" ref="M48:M49" si="8">M47</f>
+        <v>ALT-2 INC REFD20210317430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -4993,7 +5280,7 @@
         <v>38</v>
       </c>
       <c r="E49">
-        <v>456</v>
+        <v>17430</v>
       </c>
       <c r="F49" t="s">
         <v>15</v>
@@ -5005,20 +5292,23 @@
         <v>0.01</v>
       </c>
       <c r="I49" s="2">
-        <v>44253</v>
+        <v>44390</v>
       </c>
       <c r="J49" s="1">
         <v>0.75694444444444453</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="8">
+        <v>44390.756944444445</v>
+      </c>
+      <c r="L49" t="s">
         <v>31</v>
       </c>
-      <c r="L49" t="str">
-        <f t="shared" si="0"/>
-        <v>ALT-2 INC REFD20210345644253</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M49" t="str">
+        <f t="shared" si="8"/>
+        <v>ALT-2 INC REFD20210317430</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -5049,15 +5339,17 @@
       <c r="J50" s="1">
         <v>0.59930555555555554</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="8">
+        <v>44256.599305555559</v>
+      </c>
+      <c r="L50" t="s">
         <v>17</v>
       </c>
-      <c r="L50" t="str">
-        <f t="shared" si="0"/>
-        <v>SIGMA INC REFD54310345644256</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -5088,15 +5380,18 @@
       <c r="J51" s="1">
         <v>0.79999999999999993</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="8">
+        <v>44256.800000000003</v>
+      </c>
+      <c r="L51" t="s">
         <v>19</v>
       </c>
-      <c r="L51" t="str">
-        <f t="shared" si="0"/>
-        <v>SIGMA INC REFD54310345644256</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51" t="str">
+        <f>M50</f>
+        <v>SIGMA INC REFD543103456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -5127,15 +5422,17 @@
       <c r="J52" s="1">
         <v>0.47430555555555554</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="8">
+        <v>44256.474305555559</v>
+      </c>
+      <c r="L52" t="s">
         <v>17</v>
       </c>
-      <c r="L52" t="str">
-        <f t="shared" si="0"/>
-        <v>QUATRO INC REFD543104310044256</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -5166,15 +5463,18 @@
       <c r="J53" s="1">
         <v>0.75694444444444453</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="8">
+        <v>44256.756944444445</v>
+      </c>
+      <c r="L53" t="s">
         <v>31</v>
       </c>
-      <c r="L53" t="str">
-        <f t="shared" si="0"/>
-        <v>QUATRO INC REFD543104310044256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53" t="str">
+        <f>M52</f>
+        <v>QUATRO INC REFD5431043100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -5194,31 +5494,33 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H54">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I54" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="J54" s="1">
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="K54" t="s">
-        <v>19</v>
-      </c>
-      <c r="L54" t="str">
-        <f t="shared" si="0"/>
-        <v>CARGO INC REFD543105110044258</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="K54" s="8">
+        <v>44257.508333333331</v>
+      </c>
+      <c r="L54" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -5233,31 +5535,34 @@
         <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H55">
         <v>0.01</v>
       </c>
       <c r="I55" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="J55" s="1">
-        <v>0.64861111111111114</v>
-      </c>
-      <c r="K55" t="s">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="K55" s="8">
+        <v>44257.571527777778</v>
+      </c>
+      <c r="L55" t="s">
         <v>22</v>
       </c>
-      <c r="L55" t="str">
-        <f t="shared" si="0"/>
-        <v>TRADE INC REFD543105110044258</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55" t="str">
+        <f>M54</f>
+        <v>CARGO INC REFD5431051100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -5275,28 +5580,30 @@
         <v>16</v>
       </c>
       <c r="H56">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="I56" s="2">
         <v>44257</v>
       </c>
       <c r="J56" s="1">
-        <v>0.5083333333333333</v>
-      </c>
-      <c r="K56" t="s">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="K56" s="8">
+        <v>44257.605555555558</v>
+      </c>
+      <c r="L56" t="s">
         <v>17</v>
       </c>
-      <c r="L56" t="str">
-        <f t="shared" si="0"/>
-        <v>CARGO INC REFD543105110044257</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -5311,31 +5618,34 @@
         <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H57">
         <v>0.01</v>
       </c>
       <c r="I57" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="J57" s="1">
-        <v>0.57152777777777775</v>
-      </c>
-      <c r="K57" t="s">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="K57" s="8">
+        <v>44258.648611111108</v>
+      </c>
+      <c r="L57" t="s">
         <v>22</v>
       </c>
-      <c r="L57" t="str">
-        <f t="shared" si="0"/>
-        <v>CARGO INC REFD543105110044257</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57" t="str">
+        <f t="shared" ref="M57:M58" si="9">M56</f>
+        <v>TRADE INC REFD5431051100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -5350,26 +5660,29 @@
         <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H58">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I58" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="J58" s="1">
-        <v>0.60555555555555551</v>
-      </c>
-      <c r="K58" t="s">
-        <v>17</v>
-      </c>
-      <c r="L58" t="str">
-        <f t="shared" si="0"/>
-        <v>TRADE INC REFD543105110044257</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="K58" s="8">
+        <v>44258.756944444445</v>
+      </c>
+      <c r="L58" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="9"/>
+        <v>TRADE INC REFD5431051100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -5400,15 +5713,17 @@
       <c r="J59" s="1">
         <v>0.65486111111111112</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="8">
+        <v>44210.654861111114</v>
+      </c>
+      <c r="L59" t="s">
         <v>17</v>
       </c>
-      <c r="L59" t="str">
-        <f t="shared" si="0"/>
-        <v>CRETA SUPPORTREFDEM0091518844210</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -5439,93 +5754,101 @@
       <c r="J60" s="1">
         <v>0.65486111111111112</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="8">
+        <v>44210.654861111114</v>
+      </c>
+      <c r="L60" t="s">
         <v>19</v>
       </c>
-      <c r="L60" t="str">
-        <f t="shared" si="0"/>
-        <v>CRETA SUPPORTREFDEM0091518844210</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="M60" t="str">
+        <f t="shared" ref="M60:M61" si="10">M59</f>
+        <v>CRETA SUPPORTREFDEM00915188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="5">
         <v>238</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="5">
         <v>0.08</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="6">
         <v>44211</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61" s="7">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="K61" s="9">
+        <v>44211.529861111114</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M61" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>CRETA SUPPORTREFDEM00915188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62">
+        <v>238</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62">
+        <v>0.08</v>
+      </c>
+      <c r="I62" s="2">
+        <v>44211</v>
+      </c>
+      <c r="J62" s="1">
         <v>0.75694444444444453</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K62" s="8">
+        <v>44211.756944444445</v>
+      </c>
+      <c r="L62" t="s">
         <v>17</v>
       </c>
-      <c r="L61" t="str">
-        <f t="shared" si="0"/>
-        <v>BRITA SUPPORTREFDEM01223844211</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E62" s="5">
-        <v>238</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I62" s="6">
-        <v>44211</v>
-      </c>
-      <c r="J62" s="7">
-        <v>0.52986111111111112</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L62" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>BRITA SUPPORTREFDEM01223844211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -5556,15 +5879,17 @@
       <c r="J63" s="1">
         <v>0.35694444444444445</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="8">
+        <v>44211.356944444444</v>
+      </c>
+      <c r="L63" t="s">
         <v>17</v>
       </c>
-      <c r="L63" t="str">
-        <f t="shared" si="0"/>
-        <v>SOCIETE GEN SAREFDEM159134844211</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -5595,15 +5920,18 @@
       <c r="J64" s="1">
         <v>0.52708333333333335</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="8">
+        <v>44211.527083333334</v>
+      </c>
+      <c r="L64" t="s">
         <v>19</v>
       </c>
-      <c r="L64" t="str">
-        <f t="shared" si="0"/>
-        <v>SOCIETE GEN SAREFDEM159134844211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M64" t="str">
+        <f>M63</f>
+        <v>SOCIETE GEN SAREFDEM1591348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -5634,15 +5962,17 @@
       <c r="J65" s="1">
         <v>0.5083333333333333</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="8">
+        <v>44201.508333333331</v>
+      </c>
+      <c r="L65" t="s">
         <v>17</v>
       </c>
-      <c r="L65" t="str">
-        <f t="shared" si="0"/>
-        <v>CROCTUS NYREFDEM559112044201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -5673,15 +6003,18 @@
       <c r="J66" s="1">
         <v>0.5131944444444444</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="8">
+        <v>44201.513194444444</v>
+      </c>
+      <c r="L66" t="s">
         <v>22</v>
       </c>
-      <c r="L66" t="str">
-        <f t="shared" ref="L66:L91" si="1">CONCATENATE(B66,D66,E66,I66)</f>
-        <v>CROCTUS NYREFDEM559112044201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M66" t="str">
+        <f t="shared" ref="M66:M67" si="11">M65</f>
+        <v>CROCTUS NYREFDEM5591120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -5712,15 +6045,18 @@
       <c r="J67" s="1">
         <v>0.72222222222222221</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="8">
+        <v>44201.722222222219</v>
+      </c>
+      <c r="L67" t="s">
         <v>31</v>
       </c>
-      <c r="L67" t="str">
-        <f t="shared" si="1"/>
-        <v>CROCTUS NYREFDEM559112044201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M67" t="str">
+        <f t="shared" si="11"/>
+        <v>CROCTUS NYREFDEM5591120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -5751,15 +6087,17 @@
       <c r="J68" s="1">
         <v>0.55763888888888891</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="8">
+        <v>44224.557638888888</v>
+      </c>
+      <c r="L68" t="s">
         <v>17</v>
       </c>
-      <c r="L68" t="str">
-        <f t="shared" si="1"/>
-        <v>CROSSSUPPORT SAREFDEM5591672044224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -5790,15 +6128,18 @@
       <c r="J69" s="1">
         <v>0.79861111111111116</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="8">
+        <v>44224.798611111109</v>
+      </c>
+      <c r="L69" t="s">
         <v>19</v>
       </c>
-      <c r="L69" t="str">
-        <f t="shared" si="1"/>
-        <v>CROSSSUPPORT SAREFDEM5591672044224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M69" t="str">
+        <f>M68</f>
+        <v>CROSSSUPPORT SAREFDEM55916720</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -5829,15 +6170,17 @@
       <c r="J70" s="1">
         <v>0.60555555555555551</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" s="8">
+        <v>44209.605555555558</v>
+      </c>
+      <c r="L70" t="s">
         <v>17</v>
       </c>
-      <c r="L70" t="str">
-        <f t="shared" si="1"/>
-        <v>CANONIC REFDEM9992670944209</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -5868,15 +6211,18 @@
       <c r="J71" s="1">
         <v>0.60555555555555551</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K71" s="8">
+        <v>44209.605555555558</v>
+      </c>
+      <c r="L71" t="s">
         <v>19</v>
       </c>
-      <c r="L71" t="str">
-        <f t="shared" si="1"/>
-        <v>CANONIC REFDEM9992670944209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M71" t="str">
+        <f>M70</f>
+        <v>CANONIC REFDEM99926709</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -5896,31 +6242,33 @@
         <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="H72">
         <v>0.01</v>
       </c>
       <c r="I72" s="2">
-        <v>44157</v>
+        <v>44155</v>
       </c>
       <c r="J72" s="1">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="K72" t="s">
-        <v>19</v>
-      </c>
-      <c r="L72" t="str">
-        <f t="shared" si="1"/>
-        <v>ICRETA NV.REFDEMO0180044157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="K72" s="8">
+        <v>44155.383333333331</v>
+      </c>
+      <c r="L72" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -5929,37 +6277,40 @@
         <v>46</v>
       </c>
       <c r="E73">
-        <v>1025</v>
+        <v>800</v>
       </c>
       <c r="F73" t="s">
         <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H73">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I73" s="2">
-        <v>44520</v>
+        <v>44157</v>
       </c>
       <c r="J73" s="1">
-        <v>0.43263888888888885</v>
-      </c>
-      <c r="K73" t="s">
-        <v>17</v>
-      </c>
-      <c r="L73" t="str">
-        <f t="shared" si="1"/>
-        <v>Beta NV.REFDEMO01102544520</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="K73" s="8">
+        <v>44157.715277777781</v>
+      </c>
+      <c r="L73" t="s">
+        <v>19</v>
+      </c>
+      <c r="M73" t="str">
+        <f>M72</f>
+        <v>ICRETA NV.REFDEMO01800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -5968,32 +6319,34 @@
         <v>46</v>
       </c>
       <c r="E74">
-        <v>1025</v>
+        <v>900</v>
       </c>
       <c r="F74" t="s">
         <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H74">
         <v>0.01</v>
       </c>
       <c r="I74" s="2">
-        <v>44521</v>
+        <v>44522</v>
       </c>
       <c r="J74" s="1">
-        <v>0.48055555555555557</v>
-      </c>
-      <c r="K74" t="s">
-        <v>19</v>
-      </c>
-      <c r="L74" t="str">
-        <f t="shared" si="1"/>
-        <v>Beta NV.REFDEMO01102544521</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="K74" s="8">
+        <v>44522.466666666667</v>
+      </c>
+      <c r="L74" t="s">
+        <v>17</v>
+      </c>
+      <c r="M74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -6013,31 +6366,34 @@
         <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H75">
         <v>0.01</v>
       </c>
       <c r="I75" s="2">
-        <v>44522</v>
+        <v>44524</v>
       </c>
       <c r="J75" s="1">
-        <v>0.46666666666666662</v>
-      </c>
-      <c r="K75" t="s">
-        <v>17</v>
-      </c>
-      <c r="L75" t="str">
-        <f t="shared" si="1"/>
-        <v>BETA NV.REFDEMO0190044522</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="K75" s="8">
+        <v>44524.613888888889</v>
+      </c>
+      <c r="L75" t="s">
+        <v>19</v>
+      </c>
+      <c r="M75" t="str">
+        <f>M74</f>
+        <v>BETA NV.REFDEMO01900</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -6046,37 +6402,39 @@
         <v>46</v>
       </c>
       <c r="E76">
-        <v>900</v>
+        <v>1025</v>
       </c>
       <c r="F76" t="s">
         <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H76">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I76" s="2">
-        <v>44524</v>
+        <v>44520</v>
       </c>
       <c r="J76" s="1">
-        <v>0.61388888888888882</v>
-      </c>
-      <c r="K76" t="s">
-        <v>19</v>
-      </c>
-      <c r="L76" t="str">
-        <f t="shared" si="1"/>
-        <v>BETA NV.REFDEMO0190044524</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="K76" s="8">
+        <v>44520.432638888888</v>
+      </c>
+      <c r="L76" t="s">
+        <v>17</v>
+      </c>
+      <c r="M76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -6085,32 +6443,35 @@
         <v>46</v>
       </c>
       <c r="E77">
-        <v>800</v>
+        <v>1025</v>
       </c>
       <c r="F77" t="s">
         <v>15</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H77">
         <v>0.01</v>
       </c>
       <c r="I77" s="2">
-        <v>44155</v>
+        <v>44521</v>
       </c>
       <c r="J77" s="1">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="K77" t="s">
-        <v>17</v>
-      </c>
-      <c r="L77" t="str">
-        <f t="shared" si="1"/>
-        <v>ICRETA NV.REFDEMO0180044155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="K77" s="8">
+        <v>44521.480555555558</v>
+      </c>
+      <c r="L77" t="s">
+        <v>19</v>
+      </c>
+      <c r="M77" t="str">
+        <f>M76</f>
+        <v>Beta NV.REFDEMO011025</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -6141,15 +6502,17 @@
       <c r="J78" s="1">
         <v>0.47430555555555554</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78" s="8">
+        <v>44156.474305555559</v>
+      </c>
+      <c r="L78" t="s">
         <v>17</v>
       </c>
-      <c r="L78" t="str">
-        <f t="shared" si="1"/>
-        <v>ISUPPLIER1 US.REFDEMO018760044156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -6180,15 +6543,18 @@
       <c r="J79" s="1">
         <v>0.59166666666666667</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79" s="8">
+        <v>44156.591666666667</v>
+      </c>
+      <c r="L79" t="s">
         <v>19</v>
       </c>
-      <c r="L79" t="str">
-        <f t="shared" si="1"/>
-        <v>ISUPPLIER1 US.REFDEMO018760044156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M79" t="str">
+        <f>M78</f>
+        <v>ISUPPLIER1 US.REFDEMO0187600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -6219,15 +6585,17 @@
       <c r="J80" s="1">
         <v>0.47152777777777777</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" s="8">
+        <v>44155.47152777778</v>
+      </c>
+      <c r="L80" t="s">
         <v>17</v>
       </c>
-      <c r="L80" t="str">
-        <f t="shared" si="1"/>
-        <v>IntellectEU NV.REFDEMO02102544155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -6258,15 +6626,18 @@
       <c r="J81" s="1">
         <v>0.88194444444444453</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" s="8">
+        <v>44155.881944444445</v>
+      </c>
+      <c r="L81" t="s">
         <v>19</v>
       </c>
-      <c r="L81" t="str">
-        <f t="shared" si="1"/>
-        <v>IntellectEU NV.REFDEMO02102544155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M81" t="str">
+        <f>M80</f>
+        <v>IntellectEU NV.REFDEMO021025</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -6297,15 +6668,17 @@
       <c r="J82" s="1">
         <v>0.40625</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="8">
+        <v>44162.40625</v>
+      </c>
+      <c r="L82" t="s">
         <v>17</v>
       </c>
-      <c r="L82" t="str">
-        <f t="shared" si="1"/>
-        <v>ISUPPLIER2 PL.REFDEMO901160044162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -6336,15 +6709,18 @@
       <c r="J83" s="1">
         <v>0.76388888888888884</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K83" s="8">
+        <v>44162.763888888891</v>
+      </c>
+      <c r="L83" t="s">
         <v>19</v>
       </c>
-      <c r="L83" t="str">
-        <f t="shared" si="1"/>
-        <v>ISUPPLIER2 PL.REFDEMO901160044162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M83" t="str">
+        <f>M82</f>
+        <v>ISUPPLIER2 PL.REFDEMO9011600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -6358,7 +6734,7 @@
         <v>21</v>
       </c>
       <c r="E84">
-        <v>4537</v>
+        <v>2345</v>
       </c>
       <c r="F84" t="s">
         <v>15</v>
@@ -6370,20 +6746,22 @@
         <v>0.02</v>
       </c>
       <c r="I84" s="2">
-        <v>44271</v>
+        <v>44549</v>
       </c>
       <c r="J84" s="1">
-        <v>41548</v>
-      </c>
-      <c r="K84" t="s">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="K84" s="8">
+        <v>44549.425000000003</v>
+      </c>
+      <c r="L84" t="s">
         <v>17</v>
       </c>
-      <c r="L84" t="str">
-        <f t="shared" ref="L84:L89" si="2">CONCATENATE(B84,D84,E84,I84)</f>
-        <v>ACME ONE CORP. REFTEST01453744271</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -6397,32 +6775,35 @@
         <v>21</v>
       </c>
       <c r="E85">
-        <v>4537</v>
+        <v>2345</v>
       </c>
       <c r="F85" t="s">
         <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H85">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I85" s="2">
-        <v>44271</v>
+        <v>44550</v>
       </c>
       <c r="J85" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="K85" t="s">
-        <v>22</v>
-      </c>
-      <c r="L85" t="str">
-        <f t="shared" si="2"/>
-        <v>ACME ONE CORP. REFTEST01453744271</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K85" s="8">
+        <v>44550</v>
+      </c>
+      <c r="L85" t="s">
+        <v>19</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" ref="M85:M86" si="12">M84</f>
+        <v>ACME ONE CORP. REFTEST012345</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -6436,32 +6817,35 @@
         <v>21</v>
       </c>
       <c r="E86">
-        <v>4537</v>
+        <v>2345</v>
       </c>
       <c r="F86" t="s">
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H86">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I86" s="2">
-        <v>44273</v>
+        <v>44550</v>
       </c>
       <c r="J86" s="1">
-        <v>0.59375</v>
-      </c>
-      <c r="K86" t="s">
-        <v>19</v>
-      </c>
-      <c r="L86" t="str">
-        <f t="shared" si="2"/>
-        <v>ACME ONE CORP. REFTEST01453744273</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="K86" s="8">
+        <v>44550.561805555553</v>
+      </c>
+      <c r="L86" t="s">
+        <v>22</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="12"/>
+        <v>ACME ONE CORP. REFTEST012345</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -6475,7 +6859,7 @@
         <v>21</v>
       </c>
       <c r="E87">
-        <v>2345</v>
+        <v>4537</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -6487,20 +6871,22 @@
         <v>0.02</v>
       </c>
       <c r="I87" s="2">
-        <v>44549</v>
+        <v>44271</v>
       </c>
       <c r="J87" s="1">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="K87" t="s">
+        <v>41548</v>
+      </c>
+      <c r="K87" s="8">
+        <v>44271</v>
+      </c>
+      <c r="L87" t="s">
         <v>17</v>
       </c>
-      <c r="L87" t="str">
-        <f t="shared" si="2"/>
-        <v>ACME ONE CORP. REFTEST01234544549</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -6514,7 +6900,7 @@
         <v>21</v>
       </c>
       <c r="E88">
-        <v>2345</v>
+        <v>4537</v>
       </c>
       <c r="F88" t="s">
         <v>15</v>
@@ -6526,20 +6912,23 @@
         <v>0.01</v>
       </c>
       <c r="I88" s="2">
-        <v>44550</v>
+        <v>44271</v>
       </c>
       <c r="J88" s="1">
-        <v>0.56180555555555556</v>
-      </c>
-      <c r="K88" t="s">
+        <v>0.53125</v>
+      </c>
+      <c r="K88" s="8">
+        <v>44271.53125</v>
+      </c>
+      <c r="L88" t="s">
         <v>22</v>
       </c>
-      <c r="L88" t="str">
-        <f t="shared" si="2"/>
-        <v>ACME ONE CORP. REFTEST01234544550</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M88" t="str">
+        <f t="shared" ref="M88:M89" si="13">M87</f>
+        <v>ACME ONE CORP. REFTEST014537</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -6553,7 +6942,7 @@
         <v>21</v>
       </c>
       <c r="E89">
-        <v>2345</v>
+        <v>4537</v>
       </c>
       <c r="F89" t="s">
         <v>15</v>
@@ -6565,20 +6954,23 @@
         <v>0.02</v>
       </c>
       <c r="I89" s="2">
-        <v>44550</v>
+        <v>44273</v>
       </c>
       <c r="J89" s="1">
-        <v>1</v>
-      </c>
-      <c r="K89" t="s">
+        <v>0.59375</v>
+      </c>
+      <c r="K89" s="8">
+        <v>44273.59375</v>
+      </c>
+      <c r="L89" t="s">
         <v>19</v>
       </c>
-      <c r="L89" t="str">
-        <f t="shared" si="2"/>
-        <v>ACME ONE CORP. REFTEST01234544550</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M89" t="str">
+        <f t="shared" si="13"/>
+        <v>ACME ONE CORP. REFTEST014537</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -6609,15 +7001,17 @@
       <c r="J90" s="1">
         <v>0.34166666666666662</v>
       </c>
-      <c r="K90" t="s">
+      <c r="K90" s="8">
+        <v>44278.341666666667</v>
+      </c>
+      <c r="L90" t="s">
         <v>17</v>
       </c>
-      <c r="L90" t="str">
-        <f t="shared" si="1"/>
-        <v>ZERO LTD.REFZ9991210044278</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -6648,24 +7042,25 @@
       <c r="J91" s="1">
         <v>0.52361111111111114</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K91" s="8">
+        <v>44278.523611111108</v>
+      </c>
+      <c r="L91" t="s">
         <v>19</v>
       </c>
-      <c r="L91" t="str">
-        <f t="shared" si="1"/>
-        <v>ZERO LTD.REFZ9991210044278</v>
+      <c r="M91" t="str">
+        <f>M90</f>
+        <v>ZERO LTD.REFZ99912100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L91" xr:uid="{193B71A7-6D10-47CD-A9B7-B6CF6DD4F518}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A84:L89">
-      <sortCondition ref="I1:I91"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="12" max="90" man="1"/>
+    <brk id="13" max="90" man="1"/>
   </colBreaks>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Work_files/Payments_AS.xlsx
+++ b/Work_files/Payments_AS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shinemet\Ironhack\Projects\Project6\Work_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E3AAD7-A2AC-4E30-9251-707AE5C8A27C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2895DE02-48D9-4EB2-BF32-A76CFEA708A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{EC262E73-C69C-4C2A-8A9A-BDDEF9F428A1}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATA!$A$1:$M$91</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">DATA!$A$1:$M$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATA!$A$1:$P$91</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">DATA!$A$1:$P$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="152">
   <si>
     <t>Debtor</t>
   </si>
@@ -408,6 +408,87 @@
   </si>
   <si>
     <t>Unique_Ref</t>
+  </si>
+  <si>
+    <t>BIC_Bank</t>
+  </si>
+  <si>
+    <t>BIC_Country</t>
+  </si>
+  <si>
+    <t>BIC_Location</t>
+  </si>
+  <si>
+    <t>CHAS</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>3AXXX</t>
+  </si>
+  <si>
+    <t>BINA</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>ADXXX</t>
+  </si>
+  <si>
+    <t>FNRO</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>BQXXX</t>
+  </si>
+  <si>
+    <t>AGRI</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>PPXXX</t>
+  </si>
+  <si>
+    <t>REDJ</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>22XXX</t>
+  </si>
+  <si>
+    <t>TSIB</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>44XXX</t>
+  </si>
+  <si>
+    <t>FINV</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>TRXXX</t>
+  </si>
+  <si>
+    <t>BSJU</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BJXXX</t>
   </si>
 </sst>
 </file>
@@ -416,7 +497,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="168" formatCode="d/m/yy\ h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -470,8 +551,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
@@ -482,7 +563,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="d/m/yy\ h:mm;@"/>
+      <numFmt numFmtId="165" formatCode="d/m/yy\ h:mm;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -506,7 +587,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anna Shin" refreshedDate="44582.498227199074" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{47447239-272C-45B4-A039-49C358DF5AD3}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:L91" sheet="DATA"/>
+    <worksheetSource ref="A1:O91" sheet="DATA"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="Debtor" numFmtId="0">
@@ -2208,14 +2289,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FD93443-3896-49C4-A85A-D6D7D986169B}" name="Table1" displayName="Table1" ref="A1:M91" totalsRowShown="0">
-  <autoFilter ref="A1:M91" xr:uid="{193B71A7-6D10-47CD-A9B7-B6CF6DD4F518}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FD93443-3896-49C4-A85A-D6D7D986169B}" name="Table1" displayName="Table1" ref="A1:P91" totalsRowShown="0">
+  <autoFilter ref="A1:P91" xr:uid="{193B71A7-6D10-47CD-A9B7-B6CF6DD4F518}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P91">
     <sortCondition ref="D2:D91"/>
     <sortCondition ref="E2:E91"/>
-    <sortCondition ref="K2:K91"/>
+    <sortCondition ref="N2:N91"/>
   </sortState>
-  <tableColumns count="13">
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{53324B2E-8F16-40C0-A24B-2913E73992C4}" name="Debtor"/>
     <tableColumn id="2" xr3:uid="{8988DF79-2383-42A7-B735-6772E3B96678}" name="Creditor"/>
     <tableColumn id="3" xr3:uid="{B7D3EE5A-3A02-4DB2-B3D9-356D29202D0B}" name="Type"/>
@@ -2223,6 +2304,9 @@
     <tableColumn id="5" xr3:uid="{EFF7BC00-7F50-493E-8746-497F119838AE}" name="Initial Amount"/>
     <tableColumn id="6" xr3:uid="{008C794C-4E93-4479-9375-ECC53541480A}" name="Currency"/>
     <tableColumn id="7" xr3:uid="{2495B3C5-1619-462F-B04A-4B452B40E054}" name="Bank"/>
+    <tableColumn id="16" xr3:uid="{FB516482-33A9-4066-883E-3E9D07FDBC50}" name="BIC_Bank"/>
+    <tableColumn id="15" xr3:uid="{A719F3D0-339A-4CBD-B9E0-F0D26ACF2342}" name="BIC_Country"/>
+    <tableColumn id="10" xr3:uid="{7777CE65-7436-4DB3-BA74-D75D8B108C02}" name="BIC_Location"/>
     <tableColumn id="8" xr3:uid="{9FE0F7A5-58EF-4863-A9D1-1C66E8AD213D}" name="Charges"/>
     <tableColumn id="9" xr3:uid="{0F5F4C44-58EE-461D-99BD-9065104240C9}" name="Date" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{87008F66-CA80-4820-AD11-8D9F1BCB341D}" name="Time (local)" dataDxfId="2"/>
@@ -3248,10 +3332,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF87D3-5296-44C7-898D-811DB0F715A2}">
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3263,15 +3347,18 @@
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3294,25 +3381,34 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3334,26 +3430,35 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2">
         <v>0.01</v>
       </c>
-      <c r="I2" s="2">
+      <c r="L2" s="2">
         <v>44571</v>
       </c>
-      <c r="J2" s="1">
+      <c r="M2" s="1">
         <v>0.52986111111111112</v>
       </c>
-      <c r="K2" s="8">
+      <c r="N2" s="8">
         <v>44571.529861111114</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3375,27 +3480,36 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3">
         <v>0.02</v>
       </c>
-      <c r="I3" s="2">
+      <c r="L3" s="2">
         <v>44572</v>
       </c>
-      <c r="J3" s="1">
+      <c r="M3" s="1">
         <v>0.60555555555555551</v>
       </c>
-      <c r="K3" s="8">
+      <c r="N3" s="8">
         <v>44572.605555555558</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M4" si="0">M2</f>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P4" si="0">P2</f>
         <v>Beta CorpREF0013326</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3417,27 +3531,36 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4">
         <v>0.01</v>
       </c>
-      <c r="I4" s="2">
+      <c r="L4" s="2">
         <v>44572</v>
       </c>
-      <c r="J4" s="1">
+      <c r="M4" s="1">
         <v>0.76458333333333339</v>
       </c>
-      <c r="K4" s="8">
+      <c r="N4" s="8">
         <v>44572.76458333333</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="str">
+      <c r="P4" t="str">
         <f t="shared" si="0"/>
         <v>Beta CorpREF0013326</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3459,26 +3582,35 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5">
         <v>0.01</v>
       </c>
-      <c r="I5" s="2">
+      <c r="L5" s="2">
         <v>44474</v>
       </c>
-      <c r="J5" s="1">
+      <c r="M5" s="1">
         <v>0.52986111111111112</v>
       </c>
-      <c r="K5" s="8">
+      <c r="N5" s="8">
         <v>44474.529861111114</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>17</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3500,27 +3632,36 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6">
         <v>0.02</v>
       </c>
-      <c r="I6" s="2">
+      <c r="L6" s="2">
         <v>44474</v>
       </c>
-      <c r="J6" s="1">
+      <c r="M6" s="1">
         <v>0.60555555555555551</v>
       </c>
-      <c r="K6" s="8">
+      <c r="N6" s="8">
         <v>44474.605555555558</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" t="str">
-        <f t="shared" ref="M6:M7" si="1">M5</f>
+      <c r="P6" t="str">
+        <f t="shared" ref="P6:P7" si="1">P5</f>
         <v>Beta CorpREF00112000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3542,27 +3683,36 @@
       <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7">
         <v>0.01</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44476</v>
       </c>
-      <c r="J7" s="1">
+      <c r="M7" s="1">
         <v>0.76458333333333339</v>
       </c>
-      <c r="K7" s="8">
+      <c r="N7" s="8">
         <v>44476.76458333333</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" t="str">
+      <c r="P7" t="str">
         <f t="shared" si="1"/>
         <v>Beta CorpREF00112000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3584,26 +3734,35 @@
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8">
         <v>0.02</v>
       </c>
-      <c r="I8" s="2">
+      <c r="L8" s="2">
         <v>44234</v>
       </c>
-      <c r="J8" s="1">
+      <c r="M8" s="1">
         <v>0.65486111111111112</v>
       </c>
-      <c r="K8" s="8">
+      <c r="N8" s="8">
         <v>44234.654861111114</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>17</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3625,27 +3784,36 @@
       <c r="G9" t="s">
         <v>42</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9">
         <v>0.01</v>
       </c>
-      <c r="I9" s="2">
+      <c r="L9" s="2">
         <v>44235</v>
       </c>
-      <c r="J9" s="1">
+      <c r="M9" s="1">
         <v>0.72291666666666676</v>
       </c>
-      <c r="K9" s="8">
+      <c r="N9" s="8">
         <v>44235.722916666666</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
         <v>19</v>
       </c>
-      <c r="M9" t="str">
-        <f t="shared" ref="M9:M10" si="2">M8</f>
+      <c r="P9" t="str">
+        <f t="shared" ref="P9:P10" si="2">P8</f>
         <v>Beta CorpREF001DEMO1100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3667,27 +3835,36 @@
       <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10">
         <v>0.01</v>
       </c>
-      <c r="I10" s="2">
+      <c r="L10" s="2">
         <v>44306</v>
       </c>
-      <c r="J10" s="1">
+      <c r="M10" s="1">
         <v>0.52361111111111114</v>
       </c>
-      <c r="K10" s="8">
+      <c r="N10" s="8">
         <v>44306.523611111108</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>19</v>
       </c>
-      <c r="M10" t="str">
+      <c r="P10" t="str">
         <f t="shared" si="2"/>
         <v>Beta CorpREF001DEMO1100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3709,26 +3886,35 @@
       <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11">
         <v>0.02</v>
       </c>
-      <c r="I11" s="2">
+      <c r="L11" s="2">
         <v>44275</v>
       </c>
-      <c r="J11" s="1">
+      <c r="M11" s="1">
         <v>0.55138888888888882</v>
       </c>
-      <c r="K11" s="8">
+      <c r="N11" s="8">
         <v>44275.551388888889</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>17</v>
       </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3750,27 +3936,36 @@
       <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12">
         <v>0.01</v>
       </c>
-      <c r="I12" s="2">
+      <c r="L12" s="2">
         <v>44276</v>
       </c>
-      <c r="J12" s="1">
+      <c r="M12" s="1">
         <v>0.52361111111111114</v>
       </c>
-      <c r="K12" s="8">
+      <c r="N12" s="8">
         <v>44276.523611111108</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>19</v>
       </c>
-      <c r="M12" t="str">
-        <f>M11</f>
+      <c r="P12" t="str">
+        <f>P11</f>
         <v>ACME TWO SCRLREF1115643</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3792,26 +3987,35 @@
       <c r="G13" t="s">
         <v>16</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13">
         <v>0.02</v>
       </c>
-      <c r="I13" s="2">
+      <c r="L13" s="2">
         <v>44305</v>
       </c>
-      <c r="J13" s="1">
+      <c r="M13" s="1">
         <v>0.55138888888888882</v>
       </c>
-      <c r="K13" s="8">
+      <c r="N13" s="8">
         <v>44305.551388888889</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="P13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3833,26 +4037,35 @@
       <c r="G14" t="s">
         <v>16</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14">
         <v>0.02</v>
       </c>
-      <c r="I14" s="2">
+      <c r="L14" s="2">
         <v>44277</v>
       </c>
-      <c r="J14" s="1">
+      <c r="M14" s="1">
         <v>0.59166666666666667</v>
       </c>
-      <c r="K14" s="8">
+      <c r="N14" s="8">
         <v>44277.591666666667</v>
       </c>
-      <c r="L14" t="s">
+      <c r="O14" t="s">
         <v>17</v>
       </c>
-      <c r="M14" t="s">
+      <c r="P14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -3874,27 +4087,36 @@
       <c r="G15" t="s">
         <v>42</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15">
         <v>0.02</v>
       </c>
-      <c r="I15" s="2">
+      <c r="L15" s="2">
         <v>44277</v>
       </c>
-      <c r="J15" s="1">
+      <c r="M15" s="1">
         <v>0.71527777777777779</v>
       </c>
-      <c r="K15" s="8">
+      <c r="N15" s="8">
         <v>44277.715277777781</v>
       </c>
-      <c r="L15" t="s">
+      <c r="O15" t="s">
         <v>19</v>
       </c>
-      <c r="M15" t="str">
-        <f>M14</f>
+      <c r="P15" t="str">
+        <f>P14</f>
         <v>HAMILTON LTD.REF2012100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3916,26 +4138,35 @@
       <c r="G16" t="s">
         <v>16</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16">
         <v>0.02</v>
       </c>
-      <c r="I16" s="2">
+      <c r="L16" s="2">
         <v>44388</v>
       </c>
-      <c r="J16" s="1">
+      <c r="M16" s="1">
         <v>0.42430555555555555</v>
       </c>
-      <c r="K16" s="8">
+      <c r="N16" s="8">
         <v>44388.424305555556</v>
       </c>
-      <c r="L16" t="s">
+      <c r="O16" t="s">
         <v>17</v>
       </c>
-      <c r="M16" t="s">
+      <c r="P16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -3957,27 +4188,36 @@
       <c r="G17" t="s">
         <v>26</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17">
         <v>0.03</v>
       </c>
-      <c r="I17" s="2">
+      <c r="L17" s="2">
         <v>44388</v>
       </c>
-      <c r="J17" s="1">
+      <c r="M17" s="1">
         <v>0.7319444444444444</v>
       </c>
-      <c r="K17" s="8">
+      <c r="N17" s="8">
         <v>44388.731944444444</v>
       </c>
-      <c r="L17" t="s">
+      <c r="O17" t="s">
         <v>31</v>
       </c>
-      <c r="M17" t="str">
-        <f>M16</f>
+      <c r="P17" t="str">
+        <f>P16</f>
         <v>ACME TRUST.REF2112000</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -3999,26 +4239,35 @@
       <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18">
         <v>0.02</v>
       </c>
-      <c r="I18" s="2">
+      <c r="L18" s="2">
         <v>44271</v>
       </c>
-      <c r="J18" s="1">
+      <c r="M18" s="1">
         <v>0.42430555555555555</v>
       </c>
-      <c r="K18" s="8">
+      <c r="N18" s="8">
         <v>44271.424305555556</v>
       </c>
-      <c r="L18" t="s">
+      <c r="O18" t="s">
         <v>17</v>
       </c>
-      <c r="M18" t="s">
+      <c r="P18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -4040,27 +4289,36 @@
       <c r="G19" t="s">
         <v>26</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K19">
         <v>0.03</v>
       </c>
-      <c r="I19" s="2">
+      <c r="L19" s="2">
         <v>44271</v>
       </c>
-      <c r="J19" s="1">
+      <c r="M19" s="1">
         <v>0.7319444444444444</v>
       </c>
-      <c r="K19" s="8">
+      <c r="N19" s="8">
         <v>44271.731944444444</v>
       </c>
-      <c r="L19" t="s">
+      <c r="O19" t="s">
         <v>31</v>
       </c>
-      <c r="M19" t="str">
-        <f>M18</f>
+      <c r="P19" t="str">
+        <f>P18</f>
         <v>ACME TRUST.REF2123900</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -4082,26 +4340,35 @@
       <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20">
         <v>0.01</v>
       </c>
-      <c r="I20" s="2">
+      <c r="L20" s="2">
         <v>44297</v>
       </c>
-      <c r="J20" s="1">
+      <c r="M20" s="1">
         <v>0.52361111111111114</v>
       </c>
-      <c r="K20" s="8">
+      <c r="N20" s="8">
         <v>44297.523611111108</v>
       </c>
-      <c r="L20" t="s">
+      <c r="O20" t="s">
         <v>17</v>
       </c>
-      <c r="M20" t="s">
+      <c r="P20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -4123,27 +4390,36 @@
       <c r="G21" t="s">
         <v>26</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I21" s="2">
+      <c r="L21" s="2">
         <v>44297</v>
       </c>
-      <c r="J21" s="1">
+      <c r="M21" s="1">
         <v>0.71666666666666667</v>
       </c>
-      <c r="K21" s="8">
+      <c r="N21" s="8">
         <v>44297.716666666667</v>
       </c>
-      <c r="L21" t="s">
+      <c r="O21" t="s">
         <v>22</v>
       </c>
-      <c r="M21" t="str">
-        <f t="shared" ref="M21:M22" si="3">M20</f>
+      <c r="P21" t="str">
+        <f t="shared" ref="P21:P22" si="3">P20</f>
         <v>ACME PRIVATE.REF2117890</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -4165,27 +4441,36 @@
       <c r="G22" t="s">
         <v>27</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I22" s="2">
+      <c r="L22" s="2">
         <v>44299</v>
       </c>
-      <c r="J22" s="1">
+      <c r="M22" s="1">
         <v>0.75694444444444453</v>
       </c>
-      <c r="K22" s="8">
+      <c r="N22" s="8">
         <v>44299.756944444445</v>
       </c>
-      <c r="L22" t="s">
+      <c r="O22" t="s">
         <v>19</v>
       </c>
-      <c r="M22" t="str">
+      <c r="P22" t="str">
         <f t="shared" si="3"/>
         <v>ACME PRIVATE.REF2117890</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -4207,26 +4492,35 @@
       <c r="G23" t="s">
         <v>16</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23">
         <v>0.02</v>
       </c>
-      <c r="I23" s="2">
+      <c r="L23" s="2">
         <v>44217</v>
       </c>
-      <c r="J23" s="1">
+      <c r="M23" s="1">
         <v>0.40625</v>
       </c>
-      <c r="K23" s="8">
+      <c r="N23" s="8">
         <v>44217.40625</v>
       </c>
-      <c r="L23" t="s">
+      <c r="O23" t="s">
         <v>17</v>
       </c>
-      <c r="M23" t="s">
+      <c r="P23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -4248,27 +4542,36 @@
       <c r="G24" t="s">
         <v>18</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I24" s="2">
+      <c r="L24" s="2">
         <v>44223</v>
       </c>
-      <c r="J24" s="1">
+      <c r="M24" s="1">
         <v>0.53333333333333333</v>
       </c>
-      <c r="K24" s="8">
+      <c r="N24" s="8">
         <v>44223.533333333333</v>
       </c>
-      <c r="L24" t="s">
+      <c r="O24" t="s">
         <v>19</v>
       </c>
-      <c r="M24" t="str">
-        <f>M23</f>
+      <c r="P24" t="str">
+        <f>P23</f>
         <v>ACME INVEST.REF21110000</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -4290,26 +4593,35 @@
       <c r="G25" t="s">
         <v>16</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25">
         <v>0.02</v>
       </c>
-      <c r="I25" s="2">
+      <c r="L25" s="2">
         <v>44271</v>
       </c>
-      <c r="J25" s="1">
+      <c r="M25" s="1">
         <v>0.34375</v>
       </c>
-      <c r="K25" s="8">
+      <c r="N25" s="8">
         <v>44271.34375</v>
       </c>
-      <c r="L25" t="s">
+      <c r="O25" t="s">
         <v>17</v>
       </c>
-      <c r="M25" t="s">
+      <c r="P25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -4331,27 +4643,36 @@
       <c r="G26" t="s">
         <v>18</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I26" s="2">
+      <c r="L26" s="2">
         <v>44272</v>
       </c>
-      <c r="J26" s="1">
+      <c r="M26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="K26" s="8">
+      <c r="N26" s="8">
         <v>44272.65625</v>
       </c>
-      <c r="L26" t="s">
+      <c r="O26" t="s">
         <v>19</v>
       </c>
-      <c r="M26" t="str">
-        <f>M25</f>
+      <c r="P26" t="str">
+        <f>P25</f>
         <v>ACME INVEST.REF21110000</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -4373,26 +4694,35 @@
       <c r="G27" t="s">
         <v>16</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27">
         <v>0.02</v>
       </c>
-      <c r="I27" s="2">
+      <c r="L27" s="2">
         <v>44271</v>
       </c>
-      <c r="J27" s="1">
+      <c r="M27" s="1">
         <v>0.38611111111111113</v>
       </c>
-      <c r="K27" s="8">
+      <c r="N27" s="8">
         <v>44271.386111111111</v>
       </c>
-      <c r="L27" t="s">
+      <c r="O27" t="s">
         <v>17</v>
       </c>
-      <c r="M27" t="s">
+      <c r="P27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -4414,27 +4744,36 @@
       <c r="G28" t="s">
         <v>26</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" t="s">
+        <v>138</v>
+      </c>
+      <c r="J28" t="s">
+        <v>139</v>
+      </c>
+      <c r="K28">
         <v>0.01</v>
       </c>
-      <c r="I28" s="2">
+      <c r="L28" s="2">
         <v>44271</v>
       </c>
-      <c r="J28" s="1">
+      <c r="M28" s="1">
         <v>0.52222222222222225</v>
       </c>
-      <c r="K28" s="8">
+      <c r="N28" s="8">
         <v>44271.522222222222</v>
       </c>
-      <c r="L28" t="s">
+      <c r="O28" t="s">
         <v>19</v>
       </c>
-      <c r="M28" t="str">
-        <f>M27</f>
+      <c r="P28" t="str">
+        <f>P27</f>
         <v>ACME TRADE.REF21111000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -4456,26 +4795,35 @@
       <c r="G29" t="s">
         <v>16</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29">
         <v>0.02</v>
       </c>
-      <c r="I29" s="2">
+      <c r="L29" s="2">
         <v>44240</v>
       </c>
-      <c r="J29" s="1">
+      <c r="M29" s="1">
         <v>0.38611111111111113</v>
       </c>
-      <c r="K29" s="8">
+      <c r="N29" s="8">
         <v>44240.386111111111</v>
       </c>
-      <c r="L29" t="s">
+      <c r="O29" t="s">
         <v>17</v>
       </c>
-      <c r="M29" t="s">
+      <c r="P29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -4497,27 +4845,36 @@
       <c r="G30" t="s">
         <v>26</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30" t="s">
+        <v>139</v>
+      </c>
+      <c r="K30">
         <v>0.01</v>
       </c>
-      <c r="I30" s="2">
+      <c r="L30" s="2">
         <v>44241</v>
       </c>
-      <c r="J30" s="1">
+      <c r="M30" s="1">
         <v>0.52222222222222225</v>
       </c>
-      <c r="K30" s="8">
+      <c r="N30" s="8">
         <v>44241.522222222222</v>
       </c>
-      <c r="L30" t="s">
+      <c r="O30" t="s">
         <v>19</v>
       </c>
-      <c r="M30" t="str">
-        <f>M29</f>
+      <c r="P30" t="str">
+        <f>P29</f>
         <v>ACME TRADE.REF21112000</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -4539,26 +4896,35 @@
       <c r="G31" t="s">
         <v>16</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="s">
+        <v>128</v>
+      </c>
+      <c r="I31" t="s">
+        <v>129</v>
+      </c>
+      <c r="J31" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31">
         <v>0.01</v>
       </c>
-      <c r="I31" s="2">
+      <c r="L31" s="2">
         <v>44502</v>
       </c>
-      <c r="J31" s="1">
+      <c r="M31" s="1">
         <v>0.35694444444444445</v>
       </c>
-      <c r="K31" s="8">
+      <c r="N31" s="8">
         <v>44502.356944444444</v>
       </c>
-      <c r="L31" t="s">
+      <c r="O31" t="s">
         <v>17</v>
       </c>
-      <c r="M31" t="s">
+      <c r="P31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -4580,27 +4946,36 @@
       <c r="G32" t="s">
         <v>26</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I32" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I32" s="2">
+      <c r="L32" s="2">
         <v>44503</v>
       </c>
-      <c r="J32" s="1">
+      <c r="M32" s="1">
         <v>0.52777777777777779</v>
       </c>
-      <c r="K32" s="8">
+      <c r="N32" s="8">
         <v>44503.527777777781</v>
       </c>
-      <c r="L32" t="s">
+      <c r="O32" t="s">
         <v>22</v>
       </c>
-      <c r="M32" t="str">
-        <f t="shared" ref="M32:M33" si="4">M31</f>
+      <c r="P32" t="str">
+        <f t="shared" ref="P32:P33" si="4">P31</f>
         <v>ACME PRIVATE.REF2111000000</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -4622,27 +4997,36 @@
       <c r="G33" t="s">
         <v>27</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="s">
+        <v>140</v>
+      </c>
+      <c r="I33" t="s">
+        <v>141</v>
+      </c>
+      <c r="J33" t="s">
+        <v>142</v>
+      </c>
+      <c r="K33">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I33" s="2">
+      <c r="L33" s="2">
         <v>44503</v>
       </c>
-      <c r="J33" s="1">
+      <c r="M33" s="1">
         <v>0.7319444444444444</v>
       </c>
-      <c r="K33" s="8">
+      <c r="N33" s="8">
         <v>44503.731944444444</v>
       </c>
-      <c r="L33" t="s">
+      <c r="O33" t="s">
         <v>19</v>
       </c>
-      <c r="M33" t="str">
+      <c r="P33" t="str">
         <f t="shared" si="4"/>
         <v>ACME PRIVATE.REF2111000000</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -4664,26 +5048,35 @@
       <c r="G34" t="s">
         <v>16</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="s">
+        <v>128</v>
+      </c>
+      <c r="I34" t="s">
+        <v>129</v>
+      </c>
+      <c r="J34" t="s">
+        <v>130</v>
+      </c>
+      <c r="K34">
         <v>0.01</v>
       </c>
-      <c r="I34" s="2">
+      <c r="L34" s="2">
         <v>44209</v>
       </c>
-      <c r="J34" s="1">
+      <c r="M34" s="1">
         <v>0.47430555555555554</v>
       </c>
-      <c r="K34" s="8">
+      <c r="N34" s="8">
         <v>44209.474305555559</v>
       </c>
-      <c r="L34" t="s">
+      <c r="O34" t="s">
         <v>17</v>
       </c>
-      <c r="M34" t="s">
+      <c r="P34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -4705,27 +5098,36 @@
       <c r="G35" t="s">
         <v>27</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" t="s">
+        <v>141</v>
+      </c>
+      <c r="J35" t="s">
+        <v>142</v>
+      </c>
+      <c r="K35">
         <v>0.01</v>
       </c>
-      <c r="I35" s="2">
+      <c r="L35" s="2">
         <v>44209</v>
       </c>
-      <c r="J35" s="1">
+      <c r="M35" s="1">
         <v>0.53125</v>
       </c>
-      <c r="K35" s="8">
+      <c r="N35" s="8">
         <v>44209.53125</v>
       </c>
-      <c r="L35" t="s">
+      <c r="O35" t="s">
         <v>19</v>
       </c>
-      <c r="M35" t="str">
-        <f>M34</f>
+      <c r="P35" t="str">
+        <f>P34</f>
         <v>DELTA INC REFD1009267569</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -4747,26 +5149,35 @@
       <c r="G36" t="s">
         <v>16</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" t="s">
+        <v>129</v>
+      </c>
+      <c r="J36" t="s">
+        <v>130</v>
+      </c>
+      <c r="K36">
         <v>0.01</v>
       </c>
-      <c r="I36" s="2">
+      <c r="L36" s="2">
         <v>44217</v>
       </c>
-      <c r="J36" s="1">
+      <c r="M36" s="1">
         <v>0.41250000000000003</v>
       </c>
-      <c r="K36" s="8">
+      <c r="N36" s="8">
         <v>44217.412499999999</v>
       </c>
-      <c r="L36" t="s">
+      <c r="O36" t="s">
         <v>17</v>
       </c>
-      <c r="M36" t="s">
+      <c r="P36" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -4788,27 +5199,36 @@
       <c r="G37" t="s">
         <v>18</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37" t="s">
+        <v>132</v>
+      </c>
+      <c r="J37" t="s">
+        <v>133</v>
+      </c>
+      <c r="K37">
         <v>0.08</v>
       </c>
-      <c r="I37" s="2">
+      <c r="L37" s="2">
         <v>44218</v>
       </c>
-      <c r="J37" s="1">
+      <c r="M37" s="1">
         <v>0.73055555555555562</v>
       </c>
-      <c r="K37" s="8">
+      <c r="N37" s="8">
         <v>44218.730555555558</v>
       </c>
-      <c r="L37" t="s">
+      <c r="O37" t="s">
         <v>19</v>
       </c>
-      <c r="M37" t="str">
-        <f>M36</f>
+      <c r="P37" t="str">
+        <f>P36</f>
         <v>TRADE INC REFD1019267569</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -4830,26 +5250,35 @@
       <c r="G38" t="s">
         <v>16</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="s">
+        <v>128</v>
+      </c>
+      <c r="I38" t="s">
+        <v>129</v>
+      </c>
+      <c r="J38" t="s">
+        <v>130</v>
+      </c>
+      <c r="K38">
         <v>0.02</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44248</v>
       </c>
-      <c r="J38" s="1">
+      <c r="M38" s="1">
         <v>0.43263888888888885</v>
       </c>
-      <c r="K38" s="8">
+      <c r="N38" s="8">
         <v>44248.432638888888</v>
       </c>
-      <c r="L38" t="s">
+      <c r="O38" t="s">
         <v>17</v>
       </c>
-      <c r="M38" t="s">
+      <c r="P38" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -4871,27 +5300,36 @@
       <c r="G39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K39" s="5">
         <v>0.01</v>
       </c>
-      <c r="I39" s="6">
+      <c r="L39" s="6">
         <v>44248</v>
       </c>
-      <c r="J39" s="7">
+      <c r="M39" s="7">
         <v>0.48819444444444443</v>
       </c>
-      <c r="K39" s="9">
+      <c r="N39" s="9">
         <v>44248.488194444442</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="O39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M39" s="5" t="str">
-        <f t="shared" ref="M39:M40" si="5">M38</f>
+      <c r="P39" s="5" t="str">
+        <f t="shared" ref="P39:P40" si="5">P38</f>
         <v>ALT INC REFD2021024569</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>11</v>
       </c>
@@ -4913,27 +5351,36 @@
       <c r="G40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K40" s="5">
         <v>0.08</v>
       </c>
-      <c r="I40" s="6">
+      <c r="L40" s="6">
         <v>44248</v>
       </c>
-      <c r="J40" s="7">
+      <c r="M40" s="7">
         <v>0.70972222222222225</v>
       </c>
-      <c r="K40" s="9">
+      <c r="N40" s="9">
         <v>44248.709722222222</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="O40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M40" s="5" t="str">
+      <c r="P40" s="5" t="str">
         <f t="shared" si="5"/>
         <v>ALT INC REFD2021024569</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -4955,26 +5402,35 @@
       <c r="G41" t="s">
         <v>16</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J41" t="s">
+        <v>130</v>
+      </c>
+      <c r="K41">
         <v>0.02</v>
       </c>
-      <c r="I41" s="2">
+      <c r="L41" s="2">
         <v>44454</v>
       </c>
-      <c r="J41" s="1">
+      <c r="M41" s="1">
         <v>0.43263888888888885</v>
       </c>
-      <c r="K41" s="8">
+      <c r="N41" s="8">
         <v>44454.432638888888</v>
       </c>
-      <c r="L41" t="s">
+      <c r="O41" t="s">
         <v>17</v>
       </c>
-      <c r="M41" t="s">
+      <c r="P41" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>11</v>
       </c>
@@ -4996,27 +5452,36 @@
       <c r="G42" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K42" s="5">
         <v>0.01</v>
       </c>
-      <c r="I42" s="6">
+      <c r="L42" s="6">
         <v>44455</v>
       </c>
-      <c r="J42" s="7">
+      <c r="M42" s="7">
         <v>0.48819444444444443</v>
       </c>
-      <c r="K42" s="9">
+      <c r="N42" s="9">
         <v>44455.488194444442</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="O42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M42" s="5" t="str">
-        <f t="shared" ref="M42:M43" si="6">M41</f>
+      <c r="P42" s="5" t="str">
+        <f t="shared" ref="P42:P43" si="6">P41</f>
         <v>ALT INC REFD20210212400</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>11</v>
       </c>
@@ -5038,27 +5503,36 @@
       <c r="G43" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K43" s="5">
         <v>0.08</v>
       </c>
-      <c r="I43" s="6">
+      <c r="L43" s="6">
         <v>44455</v>
       </c>
-      <c r="J43" s="7">
+      <c r="M43" s="7">
         <v>0.70972222222222225</v>
       </c>
-      <c r="K43" s="9">
+      <c r="N43" s="9">
         <v>44455.709722222222</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="O43" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M43" s="5" t="str">
+      <c r="P43" s="5" t="str">
         <f t="shared" si="6"/>
         <v>ALT INC REFD20210212400</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -5080,26 +5554,35 @@
       <c r="G44" t="s">
         <v>16</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="s">
+        <v>128</v>
+      </c>
+      <c r="I44" t="s">
+        <v>129</v>
+      </c>
+      <c r="J44" t="s">
+        <v>130</v>
+      </c>
+      <c r="K44">
         <v>0.01</v>
       </c>
-      <c r="I44" s="2">
+      <c r="L44" s="2">
         <v>44253</v>
       </c>
-      <c r="J44" s="1">
+      <c r="M44" s="1">
         <v>0.52986111111111112</v>
       </c>
-      <c r="K44" s="8">
+      <c r="N44" s="8">
         <v>44253.529861111114</v>
       </c>
-      <c r="L44" t="s">
+      <c r="O44" t="s">
         <v>17</v>
       </c>
-      <c r="M44" t="s">
+      <c r="P44" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -5121,27 +5604,36 @@
       <c r="G45" t="s">
         <v>16</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45" t="s">
+        <v>129</v>
+      </c>
+      <c r="J45" t="s">
+        <v>130</v>
+      </c>
+      <c r="K45">
         <v>0.02</v>
       </c>
-      <c r="I45" s="2">
+      <c r="L45" s="2">
         <v>44253</v>
       </c>
-      <c r="J45" s="1">
+      <c r="M45" s="1">
         <v>0.65347222222222223</v>
       </c>
-      <c r="K45" s="8">
+      <c r="N45" s="8">
         <v>44253.65347222222</v>
       </c>
-      <c r="L45" t="s">
+      <c r="O45" t="s">
         <v>22</v>
       </c>
-      <c r="M45" t="str">
-        <f t="shared" ref="M45:M46" si="7">M44</f>
+      <c r="P45" t="str">
+        <f t="shared" ref="P45:P46" si="7">P44</f>
         <v>ALT-2 INC REFD202103456</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -5163,27 +5655,36 @@
       <c r="G46" t="s">
         <v>16</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="s">
+        <v>128</v>
+      </c>
+      <c r="I46" t="s">
+        <v>129</v>
+      </c>
+      <c r="J46" t="s">
+        <v>130</v>
+      </c>
+      <c r="K46">
         <v>0.01</v>
       </c>
-      <c r="I46" s="2">
+      <c r="L46" s="2">
         <v>44253</v>
       </c>
-      <c r="J46" s="1">
+      <c r="M46" s="1">
         <v>0.75694444444444453</v>
       </c>
-      <c r="K46" s="8">
+      <c r="N46" s="8">
         <v>44253.756944444445</v>
       </c>
-      <c r="L46" t="s">
+      <c r="O46" t="s">
         <v>31</v>
       </c>
-      <c r="M46" t="str">
+      <c r="P46" t="str">
         <f t="shared" si="7"/>
         <v>ALT-2 INC REFD202103456</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -5205,26 +5706,35 @@
       <c r="G47" t="s">
         <v>16</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="s">
+        <v>128</v>
+      </c>
+      <c r="I47" t="s">
+        <v>129</v>
+      </c>
+      <c r="J47" t="s">
+        <v>130</v>
+      </c>
+      <c r="K47">
         <v>0.01</v>
       </c>
-      <c r="I47" s="2">
+      <c r="L47" s="2">
         <v>44388</v>
       </c>
-      <c r="J47" s="1">
+      <c r="M47" s="1">
         <v>0.52986111111111112</v>
       </c>
-      <c r="K47" s="8">
+      <c r="N47" s="8">
         <v>44388.529861111114</v>
       </c>
-      <c r="L47" t="s">
+      <c r="O47" t="s">
         <v>17</v>
       </c>
-      <c r="M47" t="s">
+      <c r="P47" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -5246,27 +5756,36 @@
       <c r="G48" t="s">
         <v>16</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="s">
+        <v>128</v>
+      </c>
+      <c r="I48" t="s">
+        <v>129</v>
+      </c>
+      <c r="J48" t="s">
+        <v>130</v>
+      </c>
+      <c r="K48">
         <v>0.02</v>
       </c>
-      <c r="I48" s="2">
+      <c r="L48" s="2">
         <v>44389</v>
       </c>
-      <c r="J48" s="1">
+      <c r="M48" s="1">
         <v>0.65347222222222223</v>
       </c>
-      <c r="K48" s="8">
+      <c r="N48" s="8">
         <v>44389.65347222222</v>
       </c>
-      <c r="L48" t="s">
+      <c r="O48" t="s">
         <v>22</v>
       </c>
-      <c r="M48" t="str">
-        <f t="shared" ref="M48:M49" si="8">M47</f>
+      <c r="P48" t="str">
+        <f t="shared" ref="P48:P49" si="8">P47</f>
         <v>ALT-2 INC REFD20210317430</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -5288,27 +5807,36 @@
       <c r="G49" t="s">
         <v>16</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I49" t="s">
+        <v>129</v>
+      </c>
+      <c r="J49" t="s">
+        <v>130</v>
+      </c>
+      <c r="K49">
         <v>0.01</v>
       </c>
-      <c r="I49" s="2">
+      <c r="L49" s="2">
         <v>44390</v>
       </c>
-      <c r="J49" s="1">
+      <c r="M49" s="1">
         <v>0.75694444444444453</v>
       </c>
-      <c r="K49" s="8">
+      <c r="N49" s="8">
         <v>44390.756944444445</v>
       </c>
-      <c r="L49" t="s">
+      <c r="O49" t="s">
         <v>31</v>
       </c>
-      <c r="M49" t="str">
+      <c r="P49" t="str">
         <f t="shared" si="8"/>
         <v>ALT-2 INC REFD20210317430</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -5330,26 +5858,35 @@
       <c r="G50" t="s">
         <v>16</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="s">
+        <v>128</v>
+      </c>
+      <c r="I50" t="s">
+        <v>129</v>
+      </c>
+      <c r="J50" t="s">
+        <v>130</v>
+      </c>
+      <c r="K50">
         <v>0.02</v>
       </c>
-      <c r="I50" s="2">
+      <c r="L50" s="2">
         <v>44256</v>
       </c>
-      <c r="J50" s="1">
+      <c r="M50" s="1">
         <v>0.59930555555555554</v>
       </c>
-      <c r="K50" s="8">
+      <c r="N50" s="8">
         <v>44256.599305555559</v>
       </c>
-      <c r="L50" t="s">
+      <c r="O50" t="s">
         <v>17</v>
       </c>
-      <c r="M50" t="s">
+      <c r="P50" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -5371,27 +5908,36 @@
       <c r="G51" t="s">
         <v>27</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="s">
+        <v>140</v>
+      </c>
+      <c r="I51" t="s">
+        <v>141</v>
+      </c>
+      <c r="J51" t="s">
+        <v>142</v>
+      </c>
+      <c r="K51">
         <v>0.01</v>
       </c>
-      <c r="I51" s="2">
+      <c r="L51" s="2">
         <v>44256</v>
       </c>
-      <c r="J51" s="1">
+      <c r="M51" s="1">
         <v>0.79999999999999993</v>
       </c>
-      <c r="K51" s="8">
+      <c r="N51" s="8">
         <v>44256.800000000003</v>
       </c>
-      <c r="L51" t="s">
+      <c r="O51" t="s">
         <v>19</v>
       </c>
-      <c r="M51" t="str">
-        <f>M50</f>
+      <c r="P51" t="str">
+        <f>P50</f>
         <v>SIGMA INC REFD543103456</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -5413,26 +5959,35 @@
       <c r="G52" t="s">
         <v>16</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I52" t="s">
+        <v>129</v>
+      </c>
+      <c r="J52" t="s">
+        <v>130</v>
+      </c>
+      <c r="K52">
         <v>0.01</v>
       </c>
-      <c r="I52" s="2">
+      <c r="L52" s="2">
         <v>44256</v>
       </c>
-      <c r="J52" s="1">
+      <c r="M52" s="1">
         <v>0.47430555555555554</v>
       </c>
-      <c r="K52" s="8">
+      <c r="N52" s="8">
         <v>44256.474305555559</v>
       </c>
-      <c r="L52" t="s">
+      <c r="O52" t="s">
         <v>17</v>
       </c>
-      <c r="M52" t="s">
+      <c r="P52" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -5454,27 +6009,36 @@
       <c r="G53" t="s">
         <v>56</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="s">
+        <v>143</v>
+      </c>
+      <c r="I53" t="s">
+        <v>144</v>
+      </c>
+      <c r="J53" t="s">
+        <v>145</v>
+      </c>
+      <c r="K53">
         <v>0.08</v>
       </c>
-      <c r="I53" s="2">
+      <c r="L53" s="2">
         <v>44256</v>
       </c>
-      <c r="J53" s="1">
+      <c r="M53" s="1">
         <v>0.75694444444444453</v>
       </c>
-      <c r="K53" s="8">
+      <c r="N53" s="8">
         <v>44256.756944444445</v>
       </c>
-      <c r="L53" t="s">
+      <c r="O53" t="s">
         <v>31</v>
       </c>
-      <c r="M53" t="str">
-        <f>M52</f>
+      <c r="P53" t="str">
+        <f>P52</f>
         <v>QUATRO INC REFD5431043100</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -5496,26 +6060,35 @@
       <c r="G54" t="s">
         <v>16</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="s">
+        <v>128</v>
+      </c>
+      <c r="I54" t="s">
+        <v>129</v>
+      </c>
+      <c r="J54" t="s">
+        <v>130</v>
+      </c>
+      <c r="K54">
         <v>0.08</v>
       </c>
-      <c r="I54" s="2">
+      <c r="L54" s="2">
         <v>44257</v>
       </c>
-      <c r="J54" s="1">
+      <c r="M54" s="1">
         <v>0.5083333333333333</v>
       </c>
-      <c r="K54" s="8">
+      <c r="N54" s="8">
         <v>44257.508333333331</v>
       </c>
-      <c r="L54" t="s">
+      <c r="O54" t="s">
         <v>17</v>
       </c>
-      <c r="M54" t="s">
+      <c r="P54" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -5537,27 +6110,36 @@
       <c r="G55" t="s">
         <v>42</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="s">
+        <v>134</v>
+      </c>
+      <c r="I55" t="s">
+        <v>135</v>
+      </c>
+      <c r="J55" t="s">
+        <v>136</v>
+      </c>
+      <c r="K55">
         <v>0.01</v>
       </c>
-      <c r="I55" s="2">
+      <c r="L55" s="2">
         <v>44257</v>
       </c>
-      <c r="J55" s="1">
+      <c r="M55" s="1">
         <v>0.57152777777777775</v>
       </c>
-      <c r="K55" s="8">
+      <c r="N55" s="8">
         <v>44257.571527777778</v>
       </c>
-      <c r="L55" t="s">
+      <c r="O55" t="s">
         <v>22</v>
       </c>
-      <c r="M55" t="str">
-        <f>M54</f>
+      <c r="P55" t="str">
+        <f>P54</f>
         <v>CARGO INC REFD5431051100</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -5579,26 +6161,35 @@
       <c r="G56" t="s">
         <v>16</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="s">
+        <v>128</v>
+      </c>
+      <c r="I56" t="s">
+        <v>129</v>
+      </c>
+      <c r="J56" t="s">
+        <v>130</v>
+      </c>
+      <c r="K56">
         <v>0.01</v>
       </c>
-      <c r="I56" s="2">
+      <c r="L56" s="2">
         <v>44257</v>
       </c>
-      <c r="J56" s="1">
+      <c r="M56" s="1">
         <v>0.60555555555555551</v>
       </c>
-      <c r="K56" s="8">
+      <c r="N56" s="8">
         <v>44257.605555555558</v>
       </c>
-      <c r="L56" t="s">
+      <c r="O56" t="s">
         <v>17</v>
       </c>
-      <c r="M56" t="s">
+      <c r="P56" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -5620,27 +6211,36 @@
       <c r="G57" t="s">
         <v>27</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="s">
+        <v>140</v>
+      </c>
+      <c r="I57" t="s">
+        <v>141</v>
+      </c>
+      <c r="J57" t="s">
+        <v>142</v>
+      </c>
+      <c r="K57">
         <v>0.01</v>
       </c>
-      <c r="I57" s="2">
+      <c r="L57" s="2">
         <v>44258</v>
       </c>
-      <c r="J57" s="1">
+      <c r="M57" s="1">
         <v>0.64861111111111114</v>
       </c>
-      <c r="K57" s="8">
+      <c r="N57" s="8">
         <v>44258.648611111108</v>
       </c>
-      <c r="L57" t="s">
+      <c r="O57" t="s">
         <v>22</v>
       </c>
-      <c r="M57" t="str">
-        <f t="shared" ref="M57:M58" si="9">M56</f>
+      <c r="P57" t="str">
+        <f t="shared" ref="P57:P58" si="9">P56</f>
         <v>TRADE INC REFD5431051100</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -5662,27 +6262,36 @@
       <c r="G58" t="s">
         <v>42</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="s">
+        <v>134</v>
+      </c>
+      <c r="I58" t="s">
+        <v>135</v>
+      </c>
+      <c r="J58" t="s">
+        <v>136</v>
+      </c>
+      <c r="K58">
         <v>0.02</v>
       </c>
-      <c r="I58" s="2">
+      <c r="L58" s="2">
         <v>44258</v>
       </c>
-      <c r="J58" s="1">
+      <c r="M58" s="1">
         <v>0.75694444444444453</v>
       </c>
-      <c r="K58" s="8">
+      <c r="N58" s="8">
         <v>44258.756944444445</v>
       </c>
-      <c r="L58" t="s">
+      <c r="O58" t="s">
         <v>19</v>
       </c>
-      <c r="M58" t="str">
+      <c r="P58" t="str">
         <f t="shared" si="9"/>
         <v>TRADE INC REFD5431051100</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -5704,26 +6313,35 @@
       <c r="G59" t="s">
         <v>16</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="s">
+        <v>128</v>
+      </c>
+      <c r="I59" t="s">
+        <v>129</v>
+      </c>
+      <c r="J59" t="s">
+        <v>130</v>
+      </c>
+      <c r="K59">
         <v>0.01</v>
       </c>
-      <c r="I59" s="2">
+      <c r="L59" s="2">
         <v>44210</v>
       </c>
-      <c r="J59" s="1">
+      <c r="M59" s="1">
         <v>0.65486111111111112</v>
       </c>
-      <c r="K59" s="8">
+      <c r="N59" s="8">
         <v>44210.654861111114</v>
       </c>
-      <c r="L59" t="s">
+      <c r="O59" t="s">
         <v>17</v>
       </c>
-      <c r="M59" t="s">
+      <c r="P59" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -5745,27 +6363,36 @@
       <c r="G60" t="s">
         <v>56</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="s">
+        <v>143</v>
+      </c>
+      <c r="I60" t="s">
+        <v>144</v>
+      </c>
+      <c r="J60" t="s">
+        <v>145</v>
+      </c>
+      <c r="K60">
         <v>0.01</v>
       </c>
-      <c r="I60" s="2">
+      <c r="L60" s="2">
         <v>44210</v>
       </c>
-      <c r="J60" s="1">
+      <c r="M60" s="1">
         <v>0.65486111111111112</v>
       </c>
-      <c r="K60" s="8">
+      <c r="N60" s="8">
         <v>44210.654861111114</v>
       </c>
-      <c r="L60" t="s">
+      <c r="O60" t="s">
         <v>19</v>
       </c>
-      <c r="M60" t="str">
-        <f t="shared" ref="M60:M61" si="10">M59</f>
+      <c r="P60" t="str">
+        <f t="shared" ref="P60:P61" si="10">P59</f>
         <v>CRETA SUPPORTREFDEM00915188</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -5787,27 +6414,36 @@
       <c r="G61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K61" s="5">
         <v>0.08</v>
       </c>
-      <c r="I61" s="6">
+      <c r="L61" s="6">
         <v>44211</v>
       </c>
-      <c r="J61" s="7">
+      <c r="M61" s="7">
         <v>0.52986111111111112</v>
       </c>
-      <c r="K61" s="9">
+      <c r="N61" s="9">
         <v>44211.529861111114</v>
       </c>
-      <c r="L61" s="5" t="s">
+      <c r="O61" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M61" s="5" t="str">
+      <c r="P61" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CRETA SUPPORTREFDEM00915188</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -5829,26 +6465,35 @@
       <c r="G62" t="s">
         <v>16</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="s">
+        <v>128</v>
+      </c>
+      <c r="I62" t="s">
+        <v>129</v>
+      </c>
+      <c r="J62" t="s">
+        <v>130</v>
+      </c>
+      <c r="K62">
         <v>0.08</v>
       </c>
-      <c r="I62" s="2">
+      <c r="L62" s="2">
         <v>44211</v>
       </c>
-      <c r="J62" s="1">
+      <c r="M62" s="1">
         <v>0.75694444444444453</v>
       </c>
-      <c r="K62" s="8">
+      <c r="N62" s="8">
         <v>44211.756944444445</v>
       </c>
-      <c r="L62" t="s">
+      <c r="O62" t="s">
         <v>17</v>
       </c>
-      <c r="M62" t="s">
+      <c r="P62" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -5870,26 +6515,35 @@
       <c r="G63" t="s">
         <v>16</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="s">
+        <v>128</v>
+      </c>
+      <c r="I63" t="s">
+        <v>129</v>
+      </c>
+      <c r="J63" t="s">
+        <v>130</v>
+      </c>
+      <c r="K63">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I63" s="2">
+      <c r="L63" s="2">
         <v>44211</v>
       </c>
-      <c r="J63" s="1">
+      <c r="M63" s="1">
         <v>0.35694444444444445</v>
       </c>
-      <c r="K63" s="8">
+      <c r="N63" s="8">
         <v>44211.356944444444</v>
       </c>
-      <c r="L63" t="s">
+      <c r="O63" t="s">
         <v>17</v>
       </c>
-      <c r="M63" t="s">
+      <c r="P63" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -5911,27 +6565,36 @@
       <c r="G64" t="s">
         <v>56</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="s">
+        <v>143</v>
+      </c>
+      <c r="I64" t="s">
+        <v>144</v>
+      </c>
+      <c r="J64" t="s">
+        <v>145</v>
+      </c>
+      <c r="K64">
         <v>0.01</v>
       </c>
-      <c r="I64" s="2">
+      <c r="L64" s="2">
         <v>44211</v>
       </c>
-      <c r="J64" s="1">
+      <c r="M64" s="1">
         <v>0.52708333333333335</v>
       </c>
-      <c r="K64" s="8">
+      <c r="N64" s="8">
         <v>44211.527083333334</v>
       </c>
-      <c r="L64" t="s">
+      <c r="O64" t="s">
         <v>19</v>
       </c>
-      <c r="M64" t="str">
-        <f>M63</f>
+      <c r="P64" t="str">
+        <f>P63</f>
         <v>SOCIETE GEN SAREFDEM1591348</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -5953,26 +6616,35 @@
       <c r="G65" t="s">
         <v>16</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="s">
+        <v>128</v>
+      </c>
+      <c r="I65" t="s">
+        <v>129</v>
+      </c>
+      <c r="J65" t="s">
+        <v>130</v>
+      </c>
+      <c r="K65">
         <v>0.01</v>
       </c>
-      <c r="I65" s="2">
+      <c r="L65" s="2">
         <v>44201</v>
       </c>
-      <c r="J65" s="1">
+      <c r="M65" s="1">
         <v>0.5083333333333333</v>
       </c>
-      <c r="K65" s="8">
+      <c r="N65" s="8">
         <v>44201.508333333331</v>
       </c>
-      <c r="L65" t="s">
+      <c r="O65" t="s">
         <v>17</v>
       </c>
-      <c r="M65" t="s">
+      <c r="P65" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -5994,27 +6666,36 @@
       <c r="G66" t="s">
         <v>53</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="s">
+        <v>146</v>
+      </c>
+      <c r="I66" t="s">
+        <v>147</v>
+      </c>
+      <c r="J66" t="s">
+        <v>148</v>
+      </c>
+      <c r="K66">
         <v>0.01</v>
       </c>
-      <c r="I66" s="2">
+      <c r="L66" s="2">
         <v>44201</v>
       </c>
-      <c r="J66" s="1">
+      <c r="M66" s="1">
         <v>0.5131944444444444</v>
       </c>
-      <c r="K66" s="8">
+      <c r="N66" s="8">
         <v>44201.513194444444</v>
       </c>
-      <c r="L66" t="s">
+      <c r="O66" t="s">
         <v>22</v>
       </c>
-      <c r="M66" t="str">
-        <f t="shared" ref="M66:M67" si="11">M65</f>
+      <c r="P66" t="str">
+        <f t="shared" ref="P66:P67" si="11">P65</f>
         <v>CROCTUS NYREFDEM5591120</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -6036,27 +6717,36 @@
       <c r="G67" t="s">
         <v>56</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" t="s">
+        <v>144</v>
+      </c>
+      <c r="J67" t="s">
+        <v>145</v>
+      </c>
+      <c r="K67">
         <v>0.01</v>
       </c>
-      <c r="I67" s="2">
+      <c r="L67" s="2">
         <v>44201</v>
       </c>
-      <c r="J67" s="1">
+      <c r="M67" s="1">
         <v>0.72222222222222221</v>
       </c>
-      <c r="K67" s="8">
+      <c r="N67" s="8">
         <v>44201.722222222219</v>
       </c>
-      <c r="L67" t="s">
+      <c r="O67" t="s">
         <v>31</v>
       </c>
-      <c r="M67" t="str">
+      <c r="P67" t="str">
         <f t="shared" si="11"/>
         <v>CROCTUS NYREFDEM5591120</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -6078,26 +6768,35 @@
       <c r="G68" t="s">
         <v>16</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="s">
+        <v>128</v>
+      </c>
+      <c r="I68" t="s">
+        <v>129</v>
+      </c>
+      <c r="J68" t="s">
+        <v>130</v>
+      </c>
+      <c r="K68">
         <v>0.02</v>
       </c>
-      <c r="I68" s="2">
+      <c r="L68" s="2">
         <v>44224</v>
       </c>
-      <c r="J68" s="1">
+      <c r="M68" s="1">
         <v>0.55763888888888891</v>
       </c>
-      <c r="K68" s="8">
+      <c r="N68" s="8">
         <v>44224.557638888888</v>
       </c>
-      <c r="L68" t="s">
+      <c r="O68" t="s">
         <v>17</v>
       </c>
-      <c r="M68" t="s">
+      <c r="P68" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -6119,27 +6818,36 @@
       <c r="G69" t="s">
         <v>42</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I69" t="s">
+        <v>135</v>
+      </c>
+      <c r="J69" t="s">
+        <v>136</v>
+      </c>
+      <c r="K69">
         <v>0.02</v>
       </c>
-      <c r="I69" s="2">
+      <c r="L69" s="2">
         <v>44224</v>
       </c>
-      <c r="J69" s="1">
+      <c r="M69" s="1">
         <v>0.79861111111111116</v>
       </c>
-      <c r="K69" s="8">
+      <c r="N69" s="8">
         <v>44224.798611111109</v>
       </c>
-      <c r="L69" t="s">
+      <c r="O69" t="s">
         <v>19</v>
       </c>
-      <c r="M69" t="str">
-        <f>M68</f>
+      <c r="P69" t="str">
+        <f>P68</f>
         <v>CROSSSUPPORT SAREFDEM55916720</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -6161,26 +6869,35 @@
       <c r="G70" t="s">
         <v>16</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="s">
+        <v>128</v>
+      </c>
+      <c r="I70" t="s">
+        <v>129</v>
+      </c>
+      <c r="J70" t="s">
+        <v>130</v>
+      </c>
+      <c r="K70">
         <v>0.01</v>
       </c>
-      <c r="I70" s="2">
+      <c r="L70" s="2">
         <v>44209</v>
       </c>
-      <c r="J70" s="1">
+      <c r="M70" s="1">
         <v>0.60555555555555551</v>
       </c>
-      <c r="K70" s="8">
+      <c r="N70" s="8">
         <v>44209.605555555558</v>
       </c>
-      <c r="L70" t="s">
+      <c r="O70" t="s">
         <v>17</v>
       </c>
-      <c r="M70" t="s">
+      <c r="P70" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -6202,27 +6919,36 @@
       <c r="G71" t="s">
         <v>53</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="s">
+        <v>146</v>
+      </c>
+      <c r="I71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J71" t="s">
+        <v>148</v>
+      </c>
+      <c r="K71">
         <v>0.03</v>
       </c>
-      <c r="I71" s="2">
+      <c r="L71" s="2">
         <v>44209</v>
       </c>
-      <c r="J71" s="1">
+      <c r="M71" s="1">
         <v>0.60555555555555551</v>
       </c>
-      <c r="K71" s="8">
+      <c r="N71" s="8">
         <v>44209.605555555558</v>
       </c>
-      <c r="L71" t="s">
+      <c r="O71" t="s">
         <v>19</v>
       </c>
-      <c r="M71" t="str">
-        <f>M70</f>
+      <c r="P71" t="str">
+        <f>P70</f>
         <v>CANONIC REFDEM99926709</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -6244,26 +6970,35 @@
       <c r="G72" t="s">
         <v>16</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="s">
+        <v>128</v>
+      </c>
+      <c r="I72" t="s">
+        <v>129</v>
+      </c>
+      <c r="J72" t="s">
+        <v>130</v>
+      </c>
+      <c r="K72">
         <v>0.01</v>
       </c>
-      <c r="I72" s="2">
+      <c r="L72" s="2">
         <v>44155</v>
       </c>
-      <c r="J72" s="1">
+      <c r="M72" s="1">
         <v>0.3833333333333333</v>
       </c>
-      <c r="K72" s="8">
+      <c r="N72" s="8">
         <v>44155.383333333331</v>
       </c>
-      <c r="L72" t="s">
+      <c r="O72" t="s">
         <v>17</v>
       </c>
-      <c r="M72" t="s">
+      <c r="P72" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -6285,27 +7020,36 @@
       <c r="G73" t="s">
         <v>56</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="s">
+        <v>143</v>
+      </c>
+      <c r="I73" t="s">
+        <v>144</v>
+      </c>
+      <c r="J73" t="s">
+        <v>145</v>
+      </c>
+      <c r="K73">
         <v>0.01</v>
       </c>
-      <c r="I73" s="2">
+      <c r="L73" s="2">
         <v>44157</v>
       </c>
-      <c r="J73" s="1">
+      <c r="M73" s="1">
         <v>0.71527777777777779</v>
       </c>
-      <c r="K73" s="8">
+      <c r="N73" s="8">
         <v>44157.715277777781</v>
       </c>
-      <c r="L73" t="s">
+      <c r="O73" t="s">
         <v>19</v>
       </c>
-      <c r="M73" t="str">
-        <f>M72</f>
+      <c r="P73" t="str">
+        <f>P72</f>
         <v>ICRETA NV.REFDEMO01800</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -6327,26 +7071,35 @@
       <c r="G74" t="s">
         <v>16</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="s">
+        <v>128</v>
+      </c>
+      <c r="I74" t="s">
+        <v>129</v>
+      </c>
+      <c r="J74" t="s">
+        <v>130</v>
+      </c>
+      <c r="K74">
         <v>0.01</v>
       </c>
-      <c r="I74" s="2">
+      <c r="L74" s="2">
         <v>44522</v>
       </c>
-      <c r="J74" s="1">
+      <c r="M74" s="1">
         <v>0.46666666666666662</v>
       </c>
-      <c r="K74" s="8">
+      <c r="N74" s="8">
         <v>44522.466666666667</v>
       </c>
-      <c r="L74" t="s">
+      <c r="O74" t="s">
         <v>17</v>
       </c>
-      <c r="M74" t="s">
+      <c r="P74" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -6368,27 +7121,36 @@
       <c r="G75" t="s">
         <v>27</v>
       </c>
-      <c r="H75">
+      <c r="H75" t="s">
+        <v>140</v>
+      </c>
+      <c r="I75" t="s">
+        <v>141</v>
+      </c>
+      <c r="J75" t="s">
+        <v>142</v>
+      </c>
+      <c r="K75">
         <v>0.01</v>
       </c>
-      <c r="I75" s="2">
+      <c r="L75" s="2">
         <v>44524</v>
       </c>
-      <c r="J75" s="1">
+      <c r="M75" s="1">
         <v>0.61388888888888882</v>
       </c>
-      <c r="K75" s="8">
+      <c r="N75" s="8">
         <v>44524.613888888889</v>
       </c>
-      <c r="L75" t="s">
+      <c r="O75" t="s">
         <v>19</v>
       </c>
-      <c r="M75" t="str">
-        <f>M74</f>
+      <c r="P75" t="str">
+        <f>P74</f>
         <v>BETA NV.REFDEMO01900</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -6410,26 +7172,35 @@
       <c r="G76" t="s">
         <v>16</v>
       </c>
-      <c r="H76">
+      <c r="H76" t="s">
+        <v>128</v>
+      </c>
+      <c r="I76" t="s">
+        <v>129</v>
+      </c>
+      <c r="J76" t="s">
+        <v>130</v>
+      </c>
+      <c r="K76">
         <v>0.02</v>
       </c>
-      <c r="I76" s="2">
+      <c r="L76" s="2">
         <v>44520</v>
       </c>
-      <c r="J76" s="1">
+      <c r="M76" s="1">
         <v>0.43263888888888885</v>
       </c>
-      <c r="K76" s="8">
+      <c r="N76" s="8">
         <v>44520.432638888888</v>
       </c>
-      <c r="L76" t="s">
+      <c r="O76" t="s">
         <v>17</v>
       </c>
-      <c r="M76" t="s">
+      <c r="P76" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -6451,27 +7222,36 @@
       <c r="G77" t="s">
         <v>27</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="s">
+        <v>140</v>
+      </c>
+      <c r="I77" t="s">
+        <v>141</v>
+      </c>
+      <c r="J77" t="s">
+        <v>142</v>
+      </c>
+      <c r="K77">
         <v>0.01</v>
       </c>
-      <c r="I77" s="2">
+      <c r="L77" s="2">
         <v>44521</v>
       </c>
-      <c r="J77" s="1">
+      <c r="M77" s="1">
         <v>0.48055555555555557</v>
       </c>
-      <c r="K77" s="8">
+      <c r="N77" s="8">
         <v>44521.480555555558</v>
       </c>
-      <c r="L77" t="s">
+      <c r="O77" t="s">
         <v>19</v>
       </c>
-      <c r="M77" t="str">
-        <f>M76</f>
+      <c r="P77" t="str">
+        <f>P76</f>
         <v>Beta NV.REFDEMO011025</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -6493,26 +7273,35 @@
       <c r="G78" t="s">
         <v>16</v>
       </c>
-      <c r="H78">
+      <c r="H78" t="s">
+        <v>128</v>
+      </c>
+      <c r="I78" t="s">
+        <v>129</v>
+      </c>
+      <c r="J78" t="s">
+        <v>130</v>
+      </c>
+      <c r="K78">
         <v>0.01</v>
       </c>
-      <c r="I78" s="2">
+      <c r="L78" s="2">
         <v>44156</v>
       </c>
-      <c r="J78" s="1">
+      <c r="M78" s="1">
         <v>0.47430555555555554</v>
       </c>
-      <c r="K78" s="8">
+      <c r="N78" s="8">
         <v>44156.474305555559</v>
       </c>
-      <c r="L78" t="s">
+      <c r="O78" t="s">
         <v>17</v>
       </c>
-      <c r="M78" t="s">
+      <c r="P78" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -6534,27 +7323,36 @@
       <c r="G79" t="s">
         <v>42</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="s">
+        <v>134</v>
+      </c>
+      <c r="I79" t="s">
+        <v>135</v>
+      </c>
+      <c r="J79" t="s">
+        <v>136</v>
+      </c>
+      <c r="K79">
         <v>0.01</v>
       </c>
-      <c r="I79" s="2">
+      <c r="L79" s="2">
         <v>44156</v>
       </c>
-      <c r="J79" s="1">
+      <c r="M79" s="1">
         <v>0.59166666666666667</v>
       </c>
-      <c r="K79" s="8">
+      <c r="N79" s="8">
         <v>44156.591666666667</v>
       </c>
-      <c r="L79" t="s">
+      <c r="O79" t="s">
         <v>19</v>
       </c>
-      <c r="M79" t="str">
-        <f>M78</f>
+      <c r="P79" t="str">
+        <f>P78</f>
         <v>ISUPPLIER1 US.REFDEMO0187600</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -6576,26 +7374,35 @@
       <c r="G80" t="s">
         <v>16</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="s">
+        <v>128</v>
+      </c>
+      <c r="I80" t="s">
+        <v>129</v>
+      </c>
+      <c r="J80" t="s">
+        <v>130</v>
+      </c>
+      <c r="K80">
         <v>0.08</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44155</v>
       </c>
-      <c r="J80" s="1">
+      <c r="M80" s="1">
         <v>0.47152777777777777</v>
       </c>
-      <c r="K80" s="8">
+      <c r="N80" s="8">
         <v>44155.47152777778</v>
       </c>
-      <c r="L80" t="s">
+      <c r="O80" t="s">
         <v>17</v>
       </c>
-      <c r="M80" t="s">
+      <c r="P80" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -6617,27 +7424,36 @@
       <c r="G81" t="s">
         <v>27</v>
       </c>
-      <c r="H81">
+      <c r="H81" t="s">
+        <v>140</v>
+      </c>
+      <c r="I81" t="s">
+        <v>141</v>
+      </c>
+      <c r="J81" t="s">
+        <v>142</v>
+      </c>
+      <c r="K81">
         <v>0.08</v>
       </c>
-      <c r="I81" s="2">
+      <c r="L81" s="2">
         <v>44155</v>
       </c>
-      <c r="J81" s="1">
+      <c r="M81" s="1">
         <v>0.88194444444444453</v>
       </c>
-      <c r="K81" s="8">
+      <c r="N81" s="8">
         <v>44155.881944444445</v>
       </c>
-      <c r="L81" t="s">
+      <c r="O81" t="s">
         <v>19</v>
       </c>
-      <c r="M81" t="str">
-        <f>M80</f>
+      <c r="P81" t="str">
+        <f>P80</f>
         <v>IntellectEU NV.REFDEMO021025</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -6659,26 +7475,35 @@
       <c r="G82" t="s">
         <v>16</v>
       </c>
-      <c r="H82">
+      <c r="H82" t="s">
+        <v>128</v>
+      </c>
+      <c r="I82" t="s">
+        <v>129</v>
+      </c>
+      <c r="J82" t="s">
+        <v>130</v>
+      </c>
+      <c r="K82">
         <v>0.04</v>
       </c>
-      <c r="I82" s="2">
+      <c r="L82" s="2">
         <v>44162</v>
       </c>
-      <c r="J82" s="1">
+      <c r="M82" s="1">
         <v>0.40625</v>
       </c>
-      <c r="K82" s="8">
+      <c r="N82" s="8">
         <v>44162.40625</v>
       </c>
-      <c r="L82" t="s">
+      <c r="O82" t="s">
         <v>17</v>
       </c>
-      <c r="M82" t="s">
+      <c r="P82" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -6700,27 +7525,36 @@
       <c r="G83" t="s">
         <v>56</v>
       </c>
-      <c r="H83">
+      <c r="H83" t="s">
+        <v>143</v>
+      </c>
+      <c r="I83" t="s">
+        <v>144</v>
+      </c>
+      <c r="J83" t="s">
+        <v>145</v>
+      </c>
+      <c r="K83">
         <v>0.01</v>
       </c>
-      <c r="I83" s="2">
+      <c r="L83" s="2">
         <v>44162</v>
       </c>
-      <c r="J83" s="1">
+      <c r="M83" s="1">
         <v>0.76388888888888884</v>
       </c>
-      <c r="K83" s="8">
+      <c r="N83" s="8">
         <v>44162.763888888891</v>
       </c>
-      <c r="L83" t="s">
+      <c r="O83" t="s">
         <v>19</v>
       </c>
-      <c r="M83" t="str">
-        <f>M82</f>
+      <c r="P83" t="str">
+        <f>P82</f>
         <v>ISUPPLIER2 PL.REFDEMO9011600</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -6742,26 +7576,35 @@
       <c r="G84" t="s">
         <v>16</v>
       </c>
-      <c r="H84">
+      <c r="H84" t="s">
+        <v>128</v>
+      </c>
+      <c r="I84" t="s">
+        <v>129</v>
+      </c>
+      <c r="J84" t="s">
+        <v>130</v>
+      </c>
+      <c r="K84">
         <v>0.02</v>
       </c>
-      <c r="I84" s="2">
+      <c r="L84" s="2">
         <v>44549</v>
       </c>
-      <c r="J84" s="1">
+      <c r="M84" s="1">
         <v>0.42499999999999999</v>
       </c>
-      <c r="K84" s="8">
+      <c r="N84" s="8">
         <v>44549.425000000003</v>
       </c>
-      <c r="L84" t="s">
+      <c r="O84" t="s">
         <v>17</v>
       </c>
-      <c r="M84" t="s">
+      <c r="P84" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -6783,27 +7626,36 @@
       <c r="G85" t="s">
         <v>23</v>
       </c>
-      <c r="H85">
+      <c r="H85" t="s">
+        <v>149</v>
+      </c>
+      <c r="I85" t="s">
+        <v>150</v>
+      </c>
+      <c r="J85" t="s">
+        <v>151</v>
+      </c>
+      <c r="K85">
         <v>0.02</v>
       </c>
-      <c r="I85" s="2">
+      <c r="L85" s="2">
         <v>44550</v>
       </c>
-      <c r="J85" s="1">
+      <c r="M85" s="1">
         <v>1</v>
       </c>
-      <c r="K85" s="8">
+      <c r="N85" s="8">
         <v>44550</v>
       </c>
-      <c r="L85" t="s">
+      <c r="O85" t="s">
         <v>19</v>
       </c>
-      <c r="M85" t="str">
-        <f t="shared" ref="M85:M86" si="12">M84</f>
+      <c r="P85" t="str">
+        <f t="shared" ref="P85:P86" si="12">P84</f>
         <v>ACME ONE CORP. REFTEST012345</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -6825,27 +7677,36 @@
       <c r="G86" t="s">
         <v>18</v>
       </c>
-      <c r="H86">
+      <c r="H86" t="s">
+        <v>131</v>
+      </c>
+      <c r="I86" t="s">
+        <v>132</v>
+      </c>
+      <c r="J86" t="s">
+        <v>133</v>
+      </c>
+      <c r="K86">
         <v>0.01</v>
       </c>
-      <c r="I86" s="2">
+      <c r="L86" s="2">
         <v>44550</v>
       </c>
-      <c r="J86" s="1">
+      <c r="M86" s="1">
         <v>0.56180555555555556</v>
       </c>
-      <c r="K86" s="8">
+      <c r="N86" s="8">
         <v>44550.561805555553</v>
       </c>
-      <c r="L86" t="s">
+      <c r="O86" t="s">
         <v>22</v>
       </c>
-      <c r="M86" t="str">
+      <c r="P86" t="str">
         <f t="shared" si="12"/>
         <v>ACME ONE CORP. REFTEST012345</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -6867,26 +7728,35 @@
       <c r="G87" t="s">
         <v>16</v>
       </c>
-      <c r="H87">
+      <c r="H87" t="s">
+        <v>128</v>
+      </c>
+      <c r="I87" t="s">
+        <v>129</v>
+      </c>
+      <c r="J87" t="s">
+        <v>130</v>
+      </c>
+      <c r="K87">
         <v>0.02</v>
       </c>
-      <c r="I87" s="2">
+      <c r="L87" s="2">
         <v>44271</v>
       </c>
-      <c r="J87" s="1">
+      <c r="M87" s="1">
         <v>41548</v>
       </c>
-      <c r="K87" s="8">
+      <c r="N87" s="8">
         <v>44271</v>
       </c>
-      <c r="L87" t="s">
+      <c r="O87" t="s">
         <v>17</v>
       </c>
-      <c r="M87" t="s">
+      <c r="P87" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -6908,27 +7778,36 @@
       <c r="G88" t="s">
         <v>18</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="s">
+        <v>131</v>
+      </c>
+      <c r="I88" t="s">
+        <v>132</v>
+      </c>
+      <c r="J88" t="s">
+        <v>133</v>
+      </c>
+      <c r="K88">
         <v>0.01</v>
       </c>
-      <c r="I88" s="2">
+      <c r="L88" s="2">
         <v>44271</v>
       </c>
-      <c r="J88" s="1">
+      <c r="M88" s="1">
         <v>0.53125</v>
       </c>
-      <c r="K88" s="8">
+      <c r="N88" s="8">
         <v>44271.53125</v>
       </c>
-      <c r="L88" t="s">
+      <c r="O88" t="s">
         <v>22</v>
       </c>
-      <c r="M88" t="str">
-        <f t="shared" ref="M88:M89" si="13">M87</f>
+      <c r="P88" t="str">
+        <f t="shared" ref="P88:P89" si="13">P87</f>
         <v>ACME ONE CORP. REFTEST014537</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -6950,27 +7829,36 @@
       <c r="G89" t="s">
         <v>23</v>
       </c>
-      <c r="H89">
+      <c r="H89" t="s">
+        <v>149</v>
+      </c>
+      <c r="I89" t="s">
+        <v>150</v>
+      </c>
+      <c r="J89" t="s">
+        <v>151</v>
+      </c>
+      <c r="K89">
         <v>0.02</v>
       </c>
-      <c r="I89" s="2">
+      <c r="L89" s="2">
         <v>44273</v>
       </c>
-      <c r="J89" s="1">
+      <c r="M89" s="1">
         <v>0.59375</v>
       </c>
-      <c r="K89" s="8">
+      <c r="N89" s="8">
         <v>44273.59375</v>
       </c>
-      <c r="L89" t="s">
+      <c r="O89" t="s">
         <v>19</v>
       </c>
-      <c r="M89" t="str">
+      <c r="P89" t="str">
         <f t="shared" si="13"/>
         <v>ACME ONE CORP. REFTEST014537</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -6992,26 +7880,35 @@
       <c r="G90" t="s">
         <v>16</v>
       </c>
-      <c r="H90">
+      <c r="H90" t="s">
+        <v>128</v>
+      </c>
+      <c r="I90" t="s">
+        <v>129</v>
+      </c>
+      <c r="J90" t="s">
+        <v>130</v>
+      </c>
+      <c r="K90">
         <v>0.08</v>
       </c>
-      <c r="I90" s="2">
+      <c r="L90" s="2">
         <v>44278</v>
       </c>
-      <c r="J90" s="1">
+      <c r="M90" s="1">
         <v>0.34166666666666662</v>
       </c>
-      <c r="K90" s="8">
+      <c r="N90" s="8">
         <v>44278.341666666667</v>
       </c>
-      <c r="L90" t="s">
+      <c r="O90" t="s">
         <v>17</v>
       </c>
-      <c r="M90" t="s">
+      <c r="P90" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -7033,31 +7930,40 @@
       <c r="G91" t="s">
         <v>27</v>
       </c>
-      <c r="H91">
+      <c r="H91" t="s">
+        <v>140</v>
+      </c>
+      <c r="I91" t="s">
+        <v>141</v>
+      </c>
+      <c r="J91" t="s">
+        <v>142</v>
+      </c>
+      <c r="K91">
         <v>0.08</v>
       </c>
-      <c r="I91" s="2">
+      <c r="L91" s="2">
         <v>44278</v>
       </c>
-      <c r="J91" s="1">
+      <c r="M91" s="1">
         <v>0.52361111111111114</v>
       </c>
-      <c r="K91" s="8">
+      <c r="N91" s="8">
         <v>44278.523611111108</v>
       </c>
-      <c r="L91" t="s">
+      <c r="O91" t="s">
         <v>19</v>
       </c>
-      <c r="M91" t="str">
-        <f>M90</f>
+      <c r="P91" t="str">
+        <f>P90</f>
         <v>ZERO LTD.REFZ99912100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="13" max="90" man="1"/>
+    <brk id="16" max="90" man="1"/>
   </colBreaks>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/Work_files/Payments_AS.xlsx
+++ b/Work_files/Payments_AS.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shinemet\Ironhack\Projects\Project6\Work_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2895DE02-48D9-4EB2-BF32-A76CFEA708A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6B9BF1-E0E9-45FA-81FE-DE97CB7F8629}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{EC262E73-C69C-4C2A-8A9A-BDDEF9F428A1}"/>
   </bookViews>
   <sheets>
     <sheet name="PIVOT" sheetId="2" r:id="rId1"/>
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
+    <sheet name="BIC" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATA!$A$1:$P$91</definedName>
@@ -22,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="156">
   <si>
     <t>Debtor</t>
   </si>
@@ -419,76 +420,88 @@
     <t>BIC_Location</t>
   </si>
   <si>
-    <t>CHAS</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>3AXXX</t>
-  </si>
-  <si>
-    <t>BINA</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>ADXXX</t>
-  </si>
-  <si>
-    <t>FNRO</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>BQXXX</t>
-  </si>
-  <si>
-    <t>AGRI</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>PPXXX</t>
-  </si>
-  <si>
-    <t>REDJ</t>
-  </si>
-  <si>
-    <t>BY</t>
-  </si>
-  <si>
-    <t>22XXX</t>
-  </si>
-  <si>
-    <t>TSIB</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>44XXX</t>
-  </si>
-  <si>
-    <t>FINV</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>TRXXX</t>
-  </si>
-  <si>
-    <t>BSJU</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>BJXXX</t>
+    <t>BIC</t>
+  </si>
+  <si>
+    <t>BANK_NAME</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>JPMORGAN CHASE BANK, N.A.</t>
+  </si>
+  <si>
+    <t>NEW YORK</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>MORA BANC GRUP SA</t>
+  </si>
+  <si>
+    <t>ANDORRA LA VELLA</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>QUANZHOU</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CREDIT AGRICOLE SA</t>
+  </si>
+  <si>
+    <t>MONTROUGE</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>GBD-BANK</t>
+  </si>
+  <si>
+    <t>MINSK</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>BRISBANE</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>TIRANA</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>BANCO DE SAN JUAN SA</t>
+  </si>
+  <si>
+    <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>FIRST INV BANK-ALBANIA SH.A</t>
+  </si>
+  <si>
+    <t>FUJIAN NA RUR COMM BANK CL</t>
+  </si>
+  <si>
+    <t>TAISHIN INT BANK CL</t>
   </si>
 </sst>
 </file>
@@ -499,7 +512,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +523,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -538,11 +564,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -553,10 +580,13 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0B708C48-1F28-48E7-8A68-43EA13C77928}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -3334,9 +3364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF87D3-5296-44C7-898D-811DB0F715A2}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3347,8 +3375,8 @@
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.21875" style="2" bestFit="1" customWidth="1"/>
@@ -3431,13 +3459,13 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K2">
         <v>0.01</v>
@@ -3481,13 +3509,13 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K3">
         <v>0.02</v>
@@ -3504,9 +3532,8 @@
       <c r="O3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3:P4" si="0">P2</f>
-        <v>Beta CorpREF0013326</v>
+      <c r="P3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -3532,13 +3559,13 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K4">
         <v>0.01</v>
@@ -3555,9 +3582,8 @@
       <c r="O4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" t="str">
-        <f t="shared" si="0"/>
-        <v>Beta CorpREF0013326</v>
+      <c r="P4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -3583,13 +3609,13 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K5">
         <v>0.01</v>
@@ -3633,13 +3659,13 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K6">
         <v>0.02</v>
@@ -3656,9 +3682,8 @@
       <c r="O6" t="s">
         <v>22</v>
       </c>
-      <c r="P6" t="str">
-        <f t="shared" ref="P6:P7" si="1">P5</f>
-        <v>Beta CorpREF00112000</v>
+      <c r="P6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -3684,13 +3709,13 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K7">
         <v>0.01</v>
@@ -3707,9 +3732,8 @@
       <c r="O7" t="s">
         <v>22</v>
       </c>
-      <c r="P7" t="str">
-        <f t="shared" si="1"/>
-        <v>Beta CorpREF00112000</v>
+      <c r="P7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -3735,13 +3759,13 @@
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K8">
         <v>0.02</v>
@@ -3785,13 +3809,13 @@
         <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="I9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K9">
         <v>0.01</v>
@@ -3808,9 +3832,8 @@
       <c r="O9" t="s">
         <v>19</v>
       </c>
-      <c r="P9" t="str">
-        <f t="shared" ref="P9:P10" si="2">P8</f>
-        <v>Beta CorpREF001DEMO1100</v>
+      <c r="P9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -3836,13 +3859,13 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K10">
         <v>0.01</v>
@@ -3859,9 +3882,8 @@
       <c r="O10" t="s">
         <v>19</v>
       </c>
-      <c r="P10" t="str">
-        <f t="shared" si="2"/>
-        <v>Beta CorpREF001DEMO1100</v>
+      <c r="P10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -3887,13 +3909,13 @@
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K11">
         <v>0.02</v>
@@ -3937,13 +3959,13 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K12">
         <v>0.01</v>
@@ -3960,9 +3982,8 @@
       <c r="O12" t="s">
         <v>19</v>
       </c>
-      <c r="P12" t="str">
-        <f>P11</f>
-        <v>ACME TWO SCRLREF1115643</v>
+      <c r="P12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -3988,13 +4009,13 @@
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K13">
         <v>0.02</v>
@@ -4038,13 +4059,13 @@
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K14">
         <v>0.02</v>
@@ -4088,13 +4109,13 @@
         <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K15">
         <v>0.02</v>
@@ -4111,9 +4132,8 @@
       <c r="O15" t="s">
         <v>19</v>
       </c>
-      <c r="P15" t="str">
-        <f>P14</f>
-        <v>HAMILTON LTD.REF2012100</v>
+      <c r="P15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -4139,13 +4159,13 @@
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K16">
         <v>0.02</v>
@@ -4189,13 +4209,13 @@
         <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K17">
         <v>0.03</v>
@@ -4212,9 +4232,8 @@
       <c r="O17" t="s">
         <v>31</v>
       </c>
-      <c r="P17" t="str">
-        <f>P16</f>
-        <v>ACME TRUST.REF2112000</v>
+      <c r="P17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -4240,13 +4259,13 @@
         <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K18">
         <v>0.02</v>
@@ -4290,13 +4309,13 @@
         <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K19">
         <v>0.03</v>
@@ -4313,9 +4332,8 @@
       <c r="O19" t="s">
         <v>31</v>
       </c>
-      <c r="P19" t="str">
-        <f>P18</f>
-        <v>ACME TRUST.REF2123900</v>
+      <c r="P19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -4341,13 +4359,13 @@
         <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K20">
         <v>0.01</v>
@@ -4391,13 +4409,13 @@
         <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K21">
         <v>1.4999999999999999E-2</v>
@@ -4414,9 +4432,8 @@
       <c r="O21" t="s">
         <v>22</v>
       </c>
-      <c r="P21" t="str">
-        <f t="shared" ref="P21:P22" si="3">P20</f>
-        <v>ACME PRIVATE.REF2117890</v>
+      <c r="P21" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -4442,13 +4459,13 @@
         <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I22" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J22" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K22">
         <v>1.4999999999999999E-2</v>
@@ -4465,9 +4482,8 @@
       <c r="O22" t="s">
         <v>19</v>
       </c>
-      <c r="P22" t="str">
-        <f t="shared" si="3"/>
-        <v>ACME PRIVATE.REF2117890</v>
+      <c r="P22" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -4493,13 +4509,13 @@
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K23">
         <v>0.02</v>
@@ -4543,13 +4559,13 @@
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J24" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K24">
         <v>1.4999999999999999E-2</v>
@@ -4566,9 +4582,8 @@
       <c r="O24" t="s">
         <v>19</v>
       </c>
-      <c r="P24" t="str">
-        <f>P23</f>
-        <v>ACME INVEST.REF21110000</v>
+      <c r="P24" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -4594,13 +4609,13 @@
         <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I25" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J25" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K25">
         <v>0.02</v>
@@ -4644,13 +4659,13 @@
         <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J26" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K26">
         <v>1.4999999999999999E-2</v>
@@ -4667,9 +4682,8 @@
       <c r="O26" t="s">
         <v>19</v>
       </c>
-      <c r="P26" t="str">
-        <f>P25</f>
-        <v>ACME INVEST.REF21110000</v>
+      <c r="P26" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -4695,13 +4709,13 @@
         <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I27" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J27" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K27">
         <v>0.02</v>
@@ -4745,13 +4759,13 @@
         <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I28" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K28">
         <v>0.01</v>
@@ -4768,9 +4782,8 @@
       <c r="O28" t="s">
         <v>19</v>
       </c>
-      <c r="P28" t="str">
-        <f>P27</f>
-        <v>ACME TRADE.REF21111000</v>
+      <c r="P28" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -4796,13 +4809,13 @@
         <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J29" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K29">
         <v>0.02</v>
@@ -4846,13 +4859,13 @@
         <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J30" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K30">
         <v>0.01</v>
@@ -4869,9 +4882,8 @@
       <c r="O30" t="s">
         <v>19</v>
       </c>
-      <c r="P30" t="str">
-        <f>P29</f>
-        <v>ACME TRADE.REF21112000</v>
+      <c r="P30" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -4897,13 +4909,13 @@
         <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I31" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J31" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K31">
         <v>0.01</v>
@@ -4947,13 +4959,13 @@
         <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I32" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J32" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K32">
         <v>1.4999999999999999E-2</v>
@@ -4970,9 +4982,8 @@
       <c r="O32" t="s">
         <v>22</v>
       </c>
-      <c r="P32" t="str">
-        <f t="shared" ref="P32:P33" si="4">P31</f>
-        <v>ACME PRIVATE.REF2111000000</v>
+      <c r="P32" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -4998,13 +5009,13 @@
         <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I33" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J33" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K33">
         <v>1.4999999999999999E-2</v>
@@ -5021,9 +5032,8 @@
       <c r="O33" t="s">
         <v>19</v>
       </c>
-      <c r="P33" t="str">
-        <f t="shared" si="4"/>
-        <v>ACME PRIVATE.REF2111000000</v>
+      <c r="P33" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -5049,13 +5059,13 @@
         <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I34" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J34" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K34">
         <v>0.01</v>
@@ -5099,13 +5109,13 @@
         <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I35" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J35" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K35">
         <v>0.01</v>
@@ -5122,9 +5132,8 @@
       <c r="O35" t="s">
         <v>19</v>
       </c>
-      <c r="P35" t="str">
-        <f>P34</f>
-        <v>DELTA INC REFD1009267569</v>
+      <c r="P35" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -5150,13 +5159,13 @@
         <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I36" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J36" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K36">
         <v>0.01</v>
@@ -5200,13 +5209,13 @@
         <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I37" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J37" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K37">
         <v>0.08</v>
@@ -5223,9 +5232,8 @@
       <c r="O37" t="s">
         <v>19</v>
       </c>
-      <c r="P37" t="str">
-        <f>P36</f>
-        <v>TRADE INC REFD1019267569</v>
+      <c r="P37" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -5251,13 +5259,13 @@
         <v>16</v>
       </c>
       <c r="H38" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I38" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J38" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K38">
         <v>0.02</v>
@@ -5300,14 +5308,14 @@
       <c r="G39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>139</v>
+      <c r="H39" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J39" t="s">
+        <v>142</v>
       </c>
       <c r="K39" s="5">
         <v>0.01</v>
@@ -5324,9 +5332,8 @@
       <c r="O39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="P39" s="5" t="str">
-        <f t="shared" ref="P39:P40" si="5">P38</f>
-        <v>ALT INC REFD2021024569</v>
+      <c r="P39" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -5351,14 +5358,14 @@
       <c r="G40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>142</v>
+      <c r="H40" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" t="s">
+        <v>144</v>
+      </c>
+      <c r="J40" t="s">
+        <v>145</v>
       </c>
       <c r="K40" s="5">
         <v>0.08</v>
@@ -5375,9 +5382,8 @@
       <c r="O40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="P40" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>ALT INC REFD2021024569</v>
+      <c r="P40" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -5403,13 +5409,13 @@
         <v>16</v>
       </c>
       <c r="H41" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I41" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J41" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K41">
         <v>0.02</v>
@@ -5452,14 +5458,14 @@
       <c r="G42" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>139</v>
+      <c r="H42" t="s">
+        <v>140</v>
+      </c>
+      <c r="I42" t="s">
+        <v>141</v>
+      </c>
+      <c r="J42" t="s">
+        <v>142</v>
       </c>
       <c r="K42" s="5">
         <v>0.01</v>
@@ -5476,9 +5482,8 @@
       <c r="O42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="P42" s="5" t="str">
-        <f t="shared" ref="P42:P43" si="6">P41</f>
-        <v>ALT INC REFD20210212400</v>
+      <c r="P42" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -5503,14 +5508,14 @@
       <c r="G43" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>142</v>
+      <c r="H43" t="s">
+        <v>143</v>
+      </c>
+      <c r="I43" t="s">
+        <v>144</v>
+      </c>
+      <c r="J43" t="s">
+        <v>145</v>
       </c>
       <c r="K43" s="5">
         <v>0.08</v>
@@ -5527,9 +5532,8 @@
       <c r="O43" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="P43" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>ALT INC REFD20210212400</v>
+      <c r="P43" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -5555,13 +5559,13 @@
         <v>16</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I44" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J44" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K44">
         <v>0.01</v>
@@ -5605,13 +5609,13 @@
         <v>16</v>
       </c>
       <c r="H45" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I45" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J45" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K45">
         <v>0.02</v>
@@ -5628,9 +5632,8 @@
       <c r="O45" t="s">
         <v>22</v>
       </c>
-      <c r="P45" t="str">
-        <f t="shared" ref="P45:P46" si="7">P44</f>
-        <v>ALT-2 INC REFD202103456</v>
+      <c r="P45" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -5656,13 +5659,13 @@
         <v>16</v>
       </c>
       <c r="H46" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I46" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J46" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K46">
         <v>0.01</v>
@@ -5679,9 +5682,8 @@
       <c r="O46" t="s">
         <v>31</v>
       </c>
-      <c r="P46" t="str">
-        <f t="shared" si="7"/>
-        <v>ALT-2 INC REFD202103456</v>
+      <c r="P46" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -5707,13 +5709,13 @@
         <v>16</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I47" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J47" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K47">
         <v>0.01</v>
@@ -5757,13 +5759,13 @@
         <v>16</v>
       </c>
       <c r="H48" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I48" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J48" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K48">
         <v>0.02</v>
@@ -5780,9 +5782,8 @@
       <c r="O48" t="s">
         <v>22</v>
       </c>
-      <c r="P48" t="str">
-        <f t="shared" ref="P48:P49" si="8">P47</f>
-        <v>ALT-2 INC REFD20210317430</v>
+      <c r="P48" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -5808,13 +5809,13 @@
         <v>16</v>
       </c>
       <c r="H49" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I49" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J49" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K49">
         <v>0.01</v>
@@ -5831,9 +5832,8 @@
       <c r="O49" t="s">
         <v>31</v>
       </c>
-      <c r="P49" t="str">
-        <f t="shared" si="8"/>
-        <v>ALT-2 INC REFD20210317430</v>
+      <c r="P49" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -5859,13 +5859,13 @@
         <v>16</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I50" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J50" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K50">
         <v>0.02</v>
@@ -5909,13 +5909,13 @@
         <v>27</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I51" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J51" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K51">
         <v>0.01</v>
@@ -5932,9 +5932,8 @@
       <c r="O51" t="s">
         <v>19</v>
       </c>
-      <c r="P51" t="str">
-        <f>P50</f>
-        <v>SIGMA INC REFD543103456</v>
+      <c r="P51" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -5960,13 +5959,13 @@
         <v>16</v>
       </c>
       <c r="H52" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I52" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J52" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K52">
         <v>0.01</v>
@@ -6010,13 +6009,13 @@
         <v>56</v>
       </c>
       <c r="H53" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="I53" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J53" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K53">
         <v>0.08</v>
@@ -6033,9 +6032,8 @@
       <c r="O53" t="s">
         <v>31</v>
       </c>
-      <c r="P53" t="str">
-        <f>P52</f>
-        <v>QUATRO INC REFD5431043100</v>
+      <c r="P53" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -6061,13 +6059,13 @@
         <v>16</v>
       </c>
       <c r="H54" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I54" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J54" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K54">
         <v>0.08</v>
@@ -6111,13 +6109,13 @@
         <v>42</v>
       </c>
       <c r="H55" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="I55" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J55" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K55">
         <v>0.01</v>
@@ -6134,9 +6132,8 @@
       <c r="O55" t="s">
         <v>22</v>
       </c>
-      <c r="P55" t="str">
-        <f>P54</f>
-        <v>CARGO INC REFD5431051100</v>
+      <c r="P55" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -6162,13 +6159,13 @@
         <v>16</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I56" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J56" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K56">
         <v>0.01</v>
@@ -6212,13 +6209,13 @@
         <v>27</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I57" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J57" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K57">
         <v>0.01</v>
@@ -6235,9 +6232,8 @@
       <c r="O57" t="s">
         <v>22</v>
       </c>
-      <c r="P57" t="str">
-        <f t="shared" ref="P57:P58" si="9">P56</f>
-        <v>TRADE INC REFD5431051100</v>
+      <c r="P57" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -6263,13 +6259,13 @@
         <v>42</v>
       </c>
       <c r="H58" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="I58" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J58" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K58">
         <v>0.02</v>
@@ -6286,9 +6282,8 @@
       <c r="O58" t="s">
         <v>19</v>
       </c>
-      <c r="P58" t="str">
-        <f t="shared" si="9"/>
-        <v>TRADE INC REFD5431051100</v>
+      <c r="P58" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -6314,13 +6309,13 @@
         <v>16</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I59" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J59" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K59">
         <v>0.01</v>
@@ -6364,13 +6359,13 @@
         <v>56</v>
       </c>
       <c r="H60" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="I60" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J60" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K60">
         <v>0.01</v>
@@ -6387,9 +6382,8 @@
       <c r="O60" t="s">
         <v>19</v>
       </c>
-      <c r="P60" t="str">
-        <f t="shared" ref="P60:P61" si="10">P59</f>
-        <v>CRETA SUPPORTREFDEM00915188</v>
+      <c r="P60" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -6414,14 +6408,14 @@
       <c r="G61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H61" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>130</v>
+      <c r="H61" t="s">
+        <v>132</v>
+      </c>
+      <c r="I61" t="s">
+        <v>133</v>
+      </c>
+      <c r="J61" t="s">
+        <v>134</v>
       </c>
       <c r="K61" s="5">
         <v>0.08</v>
@@ -6438,9 +6432,8 @@
       <c r="O61" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="P61" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>CRETA SUPPORTREFDEM00915188</v>
+      <c r="P61" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -6466,13 +6459,13 @@
         <v>16</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I62" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J62" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K62">
         <v>0.08</v>
@@ -6516,13 +6509,13 @@
         <v>16</v>
       </c>
       <c r="H63" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I63" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J63" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K63">
         <v>7.0000000000000007E-2</v>
@@ -6566,13 +6559,13 @@
         <v>56</v>
       </c>
       <c r="H64" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="I64" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J64" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K64">
         <v>0.01</v>
@@ -6589,9 +6582,8 @@
       <c r="O64" t="s">
         <v>19</v>
       </c>
-      <c r="P64" t="str">
-        <f>P63</f>
-        <v>SOCIETE GEN SAREFDEM1591348</v>
+      <c r="P64" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -6617,13 +6609,13 @@
         <v>16</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I65" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J65" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K65">
         <v>0.01</v>
@@ -6667,13 +6659,13 @@
         <v>53</v>
       </c>
       <c r="H66" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K66">
         <v>0.01</v>
@@ -6690,9 +6682,8 @@
       <c r="O66" t="s">
         <v>22</v>
       </c>
-      <c r="P66" t="str">
-        <f t="shared" ref="P66:P67" si="11">P65</f>
-        <v>CROCTUS NYREFDEM5591120</v>
+      <c r="P66" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -6718,13 +6709,13 @@
         <v>56</v>
       </c>
       <c r="H67" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="I67" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J67" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K67">
         <v>0.01</v>
@@ -6741,9 +6732,8 @@
       <c r="O67" t="s">
         <v>31</v>
       </c>
-      <c r="P67" t="str">
-        <f t="shared" si="11"/>
-        <v>CROCTUS NYREFDEM5591120</v>
+      <c r="P67" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -6769,13 +6759,13 @@
         <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I68" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J68" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K68">
         <v>0.02</v>
@@ -6819,13 +6809,13 @@
         <v>42</v>
       </c>
       <c r="H69" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="I69" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J69" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K69">
         <v>0.02</v>
@@ -6842,9 +6832,8 @@
       <c r="O69" t="s">
         <v>19</v>
       </c>
-      <c r="P69" t="str">
-        <f>P68</f>
-        <v>CROSSSUPPORT SAREFDEM55916720</v>
+      <c r="P69" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -6870,13 +6859,13 @@
         <v>16</v>
       </c>
       <c r="H70" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I70" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J70" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K70">
         <v>0.01</v>
@@ -6920,13 +6909,13 @@
         <v>53</v>
       </c>
       <c r="H71" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I71" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K71">
         <v>0.03</v>
@@ -6943,9 +6932,8 @@
       <c r="O71" t="s">
         <v>19</v>
       </c>
-      <c r="P71" t="str">
-        <f>P70</f>
-        <v>CANONIC REFDEM99926709</v>
+      <c r="P71" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -6971,13 +6959,13 @@
         <v>16</v>
       </c>
       <c r="H72" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I72" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J72" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K72">
         <v>0.01</v>
@@ -7021,13 +7009,13 @@
         <v>56</v>
       </c>
       <c r="H73" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="I73" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J73" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K73">
         <v>0.01</v>
@@ -7044,9 +7032,8 @@
       <c r="O73" t="s">
         <v>19</v>
       </c>
-      <c r="P73" t="str">
-        <f>P72</f>
-        <v>ICRETA NV.REFDEMO01800</v>
+      <c r="P73" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -7072,13 +7059,13 @@
         <v>16</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I74" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J74" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K74">
         <v>0.01</v>
@@ -7122,13 +7109,13 @@
         <v>27</v>
       </c>
       <c r="H75" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I75" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J75" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K75">
         <v>0.01</v>
@@ -7145,9 +7132,8 @@
       <c r="O75" t="s">
         <v>19</v>
       </c>
-      <c r="P75" t="str">
-        <f>P74</f>
-        <v>BETA NV.REFDEMO01900</v>
+      <c r="P75" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -7173,13 +7159,13 @@
         <v>16</v>
       </c>
       <c r="H76" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I76" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J76" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K76">
         <v>0.02</v>
@@ -7223,13 +7209,13 @@
         <v>27</v>
       </c>
       <c r="H77" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I77" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J77" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K77">
         <v>0.01</v>
@@ -7246,9 +7232,8 @@
       <c r="O77" t="s">
         <v>19</v>
       </c>
-      <c r="P77" t="str">
-        <f>P76</f>
-        <v>Beta NV.REFDEMO011025</v>
+      <c r="P77" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -7274,13 +7259,13 @@
         <v>16</v>
       </c>
       <c r="H78" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I78" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J78" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K78">
         <v>0.01</v>
@@ -7324,13 +7309,13 @@
         <v>42</v>
       </c>
       <c r="H79" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="I79" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J79" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K79">
         <v>0.01</v>
@@ -7347,9 +7332,8 @@
       <c r="O79" t="s">
         <v>19</v>
       </c>
-      <c r="P79" t="str">
-        <f>P78</f>
-        <v>ISUPPLIER1 US.REFDEMO0187600</v>
+      <c r="P79" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -7375,13 +7359,13 @@
         <v>16</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I80" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J80" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K80">
         <v>0.08</v>
@@ -7425,13 +7409,13 @@
         <v>27</v>
       </c>
       <c r="H81" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I81" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J81" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K81">
         <v>0.08</v>
@@ -7448,9 +7432,8 @@
       <c r="O81" t="s">
         <v>19</v>
       </c>
-      <c r="P81" t="str">
-        <f>P80</f>
-        <v>IntellectEU NV.REFDEMO021025</v>
+      <c r="P81" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -7476,13 +7459,13 @@
         <v>16</v>
       </c>
       <c r="H82" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I82" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J82" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K82">
         <v>0.04</v>
@@ -7526,13 +7509,13 @@
         <v>56</v>
       </c>
       <c r="H83" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="I83" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J83" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K83">
         <v>0.01</v>
@@ -7549,9 +7532,8 @@
       <c r="O83" t="s">
         <v>19</v>
       </c>
-      <c r="P83" t="str">
-        <f>P82</f>
-        <v>ISUPPLIER2 PL.REFDEMO9011600</v>
+      <c r="P83" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -7577,13 +7559,13 @@
         <v>16</v>
       </c>
       <c r="H84" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I84" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J84" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K84">
         <v>0.02</v>
@@ -7627,13 +7609,13 @@
         <v>23</v>
       </c>
       <c r="H85" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I85" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J85" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K85">
         <v>0.02</v>
@@ -7650,9 +7632,8 @@
       <c r="O85" t="s">
         <v>19</v>
       </c>
-      <c r="P85" t="str">
-        <f t="shared" ref="P85:P86" si="12">P84</f>
-        <v>ACME ONE CORP. REFTEST012345</v>
+      <c r="P85" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -7678,13 +7659,13 @@
         <v>18</v>
       </c>
       <c r="H86" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I86" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J86" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K86">
         <v>0.01</v>
@@ -7701,9 +7682,8 @@
       <c r="O86" t="s">
         <v>22</v>
       </c>
-      <c r="P86" t="str">
-        <f t="shared" si="12"/>
-        <v>ACME ONE CORP. REFTEST012345</v>
+      <c r="P86" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -7729,13 +7709,13 @@
         <v>16</v>
       </c>
       <c r="H87" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I87" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J87" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K87">
         <v>0.02</v>
@@ -7779,13 +7759,13 @@
         <v>18</v>
       </c>
       <c r="H88" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I88" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J88" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K88">
         <v>0.01</v>
@@ -7802,9 +7782,8 @@
       <c r="O88" t="s">
         <v>22</v>
       </c>
-      <c r="P88" t="str">
-        <f t="shared" ref="P88:P89" si="13">P87</f>
-        <v>ACME ONE CORP. REFTEST014537</v>
+      <c r="P88" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -7830,13 +7809,13 @@
         <v>23</v>
       </c>
       <c r="H89" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I89" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J89" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K89">
         <v>0.02</v>
@@ -7853,9 +7832,8 @@
       <c r="O89" t="s">
         <v>19</v>
       </c>
-      <c r="P89" t="str">
-        <f t="shared" si="13"/>
-        <v>ACME ONE CORP. REFTEST014537</v>
+      <c r="P89" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -7881,13 +7859,13 @@
         <v>16</v>
       </c>
       <c r="H90" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I90" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J90" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K90">
         <v>0.08</v>
@@ -7931,13 +7909,13 @@
         <v>27</v>
       </c>
       <c r="H91" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I91" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J91" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K91">
         <v>0.08</v>
@@ -7954,19 +7932,162 @@
       <c r="O91" t="s">
         <v>19</v>
       </c>
-      <c r="P91" t="str">
-        <f>P90</f>
-        <v>ZERO LTD.REFZ99912100</v>
+      <c r="P91" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="16" max="90" man="1"/>
-  </colBreaks>
+  <pageSetup paperSize="9" scale="33" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA6F379-E7FC-4E6B-AA8B-FC81929A1D80}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>